--- a/data_clean/Storebrand 14.01.2021.xlsx
+++ b/data_clean/Storebrand 14.01.2021.xlsx
@@ -1410,7 +1410,7 @@
         <v>1.374207579825252</v>
       </c>
       <c r="K2">
-        <v>54.62662448256791</v>
+        <v>0.04626624482567868</v>
       </c>
       <c r="L2">
         <v>0.003659149156770613</v>
@@ -1440,13 +1440,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -1481,7 +1481,7 @@
         <v>1.374207579825252</v>
       </c>
       <c r="K3">
-        <v>100</v>
+        <v>0.5</v>
       </c>
       <c r="L3">
         <v>0.01845300489167136</v>
@@ -1511,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -1552,7 +1552,7 @@
         <v>0.542857142857129</v>
       </c>
       <c r="K4">
-        <v>35.18518518518459</v>
+        <v>-0.1481481481481541</v>
       </c>
       <c r="L4">
         <v>0.001568100210806047</v>
@@ -1582,13 +1582,13 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.9995164877671407</v>
+        <v>-0.0004835122328592512</v>
       </c>
       <c r="V4">
-        <v>0.9995164877671407</v>
+        <v>-0.0004835122328592512</v>
       </c>
       <c r="W4">
-        <v>0.9979704262104958</v>
+        <v>-0.002029573789504191</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -1623,7 +1623,7 @@
         <v>2.347368421052572</v>
       </c>
       <c r="K5">
-        <v>70.12578616352148</v>
+        <v>0.2012578616352149</v>
       </c>
       <c r="L5">
         <v>0.00704705214763899</v>
@@ -1653,13 +1653,13 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1.00062886996904</v>
+        <v>0.0006288699690399913</v>
       </c>
       <c r="V5">
-        <v>1.00062886996904</v>
+        <v>0.0006288699690399913</v>
       </c>
       <c r="W5">
-        <v>1.00348634514817</v>
+        <v>0.003486345148169701</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -1694,7 +1694,7 @@
         <v>3.138820736050659</v>
       </c>
       <c r="K6">
-        <v>75.83852832064868</v>
+        <v>0.2583852832064868</v>
       </c>
       <c r="L6">
         <v>0.01376624068106737</v>
@@ -1724,13 +1724,13 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>1.000667150108774</v>
+        <v>0.0006671501087744947</v>
       </c>
       <c r="V6">
-        <v>1.000667150108774</v>
+        <v>0.0006671501087744947</v>
       </c>
       <c r="W6">
-        <v>1.001447596988998</v>
+        <v>0.001447596988998434</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1765,7 +1765,7 @@
         <v>3.305442276050209</v>
       </c>
       <c r="K7">
-        <v>76.77358245951459</v>
+        <v>0.2677358245951459</v>
       </c>
       <c r="L7">
         <v>0.018342663765635</v>
@@ -1795,13 +1795,13 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>1.000492782190272</v>
+        <v>0.0004927821902718232</v>
       </c>
       <c r="V7">
-        <v>1.000492782190272</v>
+        <v>0.0004927821902718232</v>
       </c>
       <c r="W7">
-        <v>1.000289100896213</v>
+        <v>0.0002891008962127017</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1836,7 +1836,7 @@
         <v>4.533179939205034</v>
       </c>
       <c r="K8">
-        <v>81.92720983254934</v>
+        <v>0.3192720983254934</v>
       </c>
       <c r="L8">
         <v>0.02319058438206311</v>
@@ -1866,13 +1866,13 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>1.000641543014424</v>
+        <v>0.0006415430144244283</v>
       </c>
       <c r="V8">
-        <v>1.000641543014424</v>
+        <v>0.0006415430144244283</v>
       </c>
       <c r="W8">
-        <v>1.002023121387283</v>
+        <v>0.002023121387283222</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1907,7 +1907,7 @@
         <v>4.902424349176337</v>
       </c>
       <c r="K9">
-        <v>83.05780911635833</v>
+        <v>0.3305780911635833</v>
       </c>
       <c r="L9">
         <v>0.02730321002836147</v>
@@ -1937,13 +1937,13 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>1.000553234612839</v>
+        <v>0.0005532346128389598</v>
       </c>
       <c r="V9">
-        <v>1.000553234612839</v>
+        <v>0.0005532346128389598</v>
       </c>
       <c r="W9">
-        <v>1.000576867608884</v>
+        <v>0.0005768676088835356</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1978,7 +1978,7 @@
         <v>6.068459328033354</v>
       </c>
       <c r="K10">
-        <v>85.85264548337963</v>
+        <v>0.3585264548337963</v>
       </c>
       <c r="L10">
         <v>0.03152709845213906</v>
@@ -2008,13 +2008,13 @@
         <v>0.03194444444444855</v>
       </c>
       <c r="U10">
-        <v>1.000622977834047</v>
+        <v>0.0006229778340467451</v>
       </c>
       <c r="V10">
-        <v>1.000622977834047</v>
+        <v>0.0006229778340467451</v>
       </c>
       <c r="W10">
-        <v>1.001729605073508</v>
+        <v>0.001729605073508278</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -2049,7 +2049,7 @@
         <v>6.068459328033355</v>
       </c>
       <c r="K11">
-        <v>85.85264548337963</v>
+        <v>0.3585264548337963</v>
       </c>
       <c r="L11">
         <v>0.03489429148757802</v>
@@ -2079,13 +2079,13 @@
         <v>0.0625</v>
       </c>
       <c r="U11">
-        <v>1.000498071979435</v>
+        <v>0.0004980719794345223</v>
       </c>
       <c r="V11">
-        <v>1.000498071979435</v>
+        <v>0.0004980719794345223</v>
       </c>
       <c r="W11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -2120,7 +2120,7 @@
         <v>7.575799097562228</v>
       </c>
       <c r="K12">
-        <v>88.33927907331386</v>
+        <v>0.3833927907331386</v>
       </c>
       <c r="L12">
         <v>0.03846494234795157</v>
@@ -2150,13 +2150,13 @@
         <v>0.121590909090898</v>
       </c>
       <c r="U12">
-        <v>1.000591257275749</v>
+        <v>0.0005912572757493795</v>
       </c>
       <c r="V12">
-        <v>1.000591257275749</v>
+        <v>0.0005912572757493795</v>
       </c>
       <c r="W12">
-        <v>1.002014388489209</v>
+        <v>0.002014388489208541</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -2191,7 +2191,7 @@
         <v>7.575799097562228</v>
       </c>
       <c r="K13">
-        <v>88.33927907331386</v>
+        <v>0.3833927907331386</v>
       </c>
       <c r="L13">
         <v>0.04145932956624566</v>
@@ -2221,13 +2221,13 @@
         <v>0.1574999999999989</v>
       </c>
       <c r="U13">
-        <v>1.00049242324763</v>
+        <v>0.0004924232476297696</v>
       </c>
       <c r="V13">
-        <v>1.00049242324763</v>
+        <v>0.0004924232476297696</v>
       </c>
       <c r="W13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -2262,7 +2262,7 @@
         <v>2.837183937289983</v>
       </c>
       <c r="K14">
-        <v>73.93922167029993</v>
+        <v>0.2393922167029993</v>
       </c>
       <c r="L14">
         <v>0.04256494422383828</v>
@@ -2292,13 +2292,13 @@
         <v>0.1794230769230722</v>
       </c>
       <c r="U14">
-        <v>1.000260982069977</v>
+        <v>0.0002609820699766008</v>
       </c>
       <c r="V14">
-        <v>1.000260982069977</v>
+        <v>0.0002609820699766008</v>
       </c>
       <c r="W14">
-        <v>0.9979896611143021</v>
+        <v>-0.002010338885697904</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -2333,7 +2333,7 @@
         <v>2.837183937289983</v>
       </c>
       <c r="K15">
-        <v>73.93922167029993</v>
+        <v>0.2393922167029993</v>
       </c>
       <c r="L15">
         <v>0.04241263836710287</v>
@@ -2363,13 +2363,13 @@
         <v>0.2014285714285649</v>
       </c>
       <c r="U15">
-        <v>1.000223640550949</v>
+        <v>0.0002236405509488115</v>
       </c>
       <c r="V15">
-        <v>1.000223640550949</v>
+        <v>0.0002236405509488115</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -2404,7 +2404,7 @@
         <v>3.035203335121669</v>
       </c>
       <c r="K16">
-        <v>75.21810137060049</v>
+        <v>0.252181013706005</v>
       </c>
       <c r="L16">
         <v>0.04169210432846956</v>
@@ -2434,13 +2434,13 @@
         <v>0.2103333333333381</v>
       </c>
       <c r="U16">
-        <v>1.000232259305833</v>
+        <v>0.00023225930583326</v>
       </c>
       <c r="V16">
-        <v>1.000232259305833</v>
+        <v>0.00023225930583326</v>
       </c>
       <c r="W16">
-        <v>1.000575539568345</v>
+        <v>0.000575539568345329</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -2475,7 +2475,7 @@
         <v>2.51166763715985</v>
       </c>
       <c r="K17">
-        <v>71.52350098801563</v>
+        <v>0.2152350098801563</v>
       </c>
       <c r="L17">
         <v>0.04027157090569407</v>
@@ -2505,13 +2505,13 @@
         <v>0.2137499999999903</v>
       </c>
       <c r="U17">
-        <v>1.000167112299465</v>
+        <v>0.0001671122994653107</v>
       </c>
       <c r="V17">
-        <v>1.000577078444197</v>
+        <v>0.0005770784441965215</v>
       </c>
       <c r="W17">
-        <v>0.9994247914869139</v>
+        <v>-0.0005752085130861229</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2546,7 +2546,7 @@
         <v>2.693233795184242</v>
       </c>
       <c r="K18">
-        <v>72.9234579921818</v>
+        <v>0.2292345799218179</v>
       </c>
       <c r="L18">
         <v>0.03865656785322957</v>
@@ -2576,13 +2576,13 @@
         <v>0.178750000000008</v>
       </c>
       <c r="U18">
-        <v>1.000181367511033</v>
+        <v>0.0001813675110331481</v>
       </c>
       <c r="V18">
-        <v>1.000538295908951</v>
+        <v>0.0005382959089510475</v>
       </c>
       <c r="W18">
-        <v>1.000575539568345</v>
+        <v>0.000575539568345329</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -2617,7 +2617,7 @@
         <v>2.78879493098652</v>
       </c>
       <c r="K19">
-        <v>73.60638360705308</v>
+        <v>0.2360638360705307</v>
       </c>
       <c r="L19">
         <v>0.03700993555014727</v>
@@ -2647,13 +2647,13 @@
         <v>0.1500000000000057</v>
       </c>
       <c r="U19">
-        <v>1.000177210703526</v>
+        <v>0.000177210703526498</v>
       </c>
       <c r="V19">
-        <v>1.000691722388748</v>
+        <v>0.0006917223887477064</v>
       </c>
       <c r="W19">
-        <v>1.000287604256543</v>
+        <v>0.0002876042565429504</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -2688,7 +2688,7 @@
         <v>2.98997626951763</v>
       </c>
       <c r="K20">
-        <v>74.93719429762686</v>
+        <v>0.2493719429762686</v>
       </c>
       <c r="L20">
         <v>0.03554783924923986</v>
@@ -2718,13 +2718,13 @@
         <v>0.09749999999999659</v>
       </c>
       <c r="U20">
-        <v>1.00018888544098</v>
+        <v>0.0001888854409799468</v>
       </c>
       <c r="V20">
-        <v>1.000499231950845</v>
+        <v>0.0004992319508450027</v>
       </c>
       <c r="W20">
-        <v>1.000575043128235</v>
+        <v>0.0005750431282345314</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2759,7 +2759,7 @@
         <v>2.98997626951763</v>
       </c>
       <c r="K21">
-        <v>74.93719429762686</v>
+        <v>0.2493719429762686</v>
       </c>
       <c r="L21">
         <v>0.03414603208403418</v>
@@ -2789,13 +2789,13 @@
         <v>0.06000000000000227</v>
       </c>
       <c r="U21">
-        <v>1.000169964793007</v>
+        <v>0.0001699647930073489</v>
       </c>
       <c r="V21">
-        <v>1.000403024603692</v>
+        <v>0.0004030246036923479</v>
       </c>
       <c r="W21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2830,7 +2830,7 @@
         <v>3.435807490639363</v>
       </c>
       <c r="K22">
-        <v>77.45619028530331</v>
+        <v>0.2745619028530331</v>
       </c>
       <c r="L22">
         <v>0.03319827281797166</v>
@@ -2860,13 +2860,13 @@
         <v>0.05124999999999602</v>
       </c>
       <c r="U22">
-        <v>1.000208662800914</v>
+        <v>0.0002086628009136948</v>
       </c>
       <c r="V22">
-        <v>1.000460413988912</v>
+        <v>0.0004604139889117231</v>
       </c>
       <c r="W22">
-        <v>1.001149425287357</v>
+        <v>0.001149425287356509</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2901,7 +2901,7 @@
         <v>3.435807490639363</v>
       </c>
       <c r="K23">
-        <v>77.45619028530331</v>
+        <v>0.2745619028530331</v>
       </c>
       <c r="L23">
         <v>0.03244301842669156</v>
@@ -2931,13 +2931,13 @@
         <v>0.04375000000000284</v>
       </c>
       <c r="U23">
-        <v>1.000189653881666</v>
+        <v>0.0001896538816659188</v>
       </c>
       <c r="V23">
-        <v>1.000325976491343</v>
+        <v>0.0003259764913425833</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2972,7 +2972,7 @@
         <v>3.435807490639363</v>
       </c>
       <c r="K24">
-        <v>77.45619028530331</v>
+        <v>0.2745619028530331</v>
       </c>
       <c r="L24">
         <v>0.03172184827248741</v>
@@ -3002,13 +3002,13 @@
         <v>0.04000000000000625</v>
       </c>
       <c r="U24">
-        <v>1.000173129405118</v>
+        <v>0.0001731294051181553</v>
       </c>
       <c r="V24">
-        <v>1.000287532587026</v>
+        <v>0.0002875325870264067</v>
       </c>
       <c r="W24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -3043,7 +3043,7 @@
         <v>3.435807490639363</v>
       </c>
       <c r="K25">
-        <v>77.45619028530331</v>
+        <v>0.2745619028530331</v>
       </c>
       <c r="L25">
         <v>0.0309448137605933</v>
@@ -3073,13 +3073,13 @@
         <v>0.04375000000000284</v>
       </c>
       <c r="U25">
-        <v>1.000158674483473</v>
+        <v>0.0001586744834727316</v>
       </c>
       <c r="V25">
-        <v>1.000172469961482</v>
+        <v>0.0001724699614817915</v>
       </c>
       <c r="W25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -3114,7 +3114,7 @@
         <v>3.709489381429995</v>
       </c>
       <c r="K26">
-        <v>78.76627551294406</v>
+        <v>0.2876627551294406</v>
       </c>
       <c r="L26">
         <v>0.03028694681721655</v>
@@ -3144,13 +3144,13 @@
         <v>0.05250000000000909</v>
       </c>
       <c r="U26">
-        <v>1.000169003264836</v>
+        <v>0.0001690032648358208</v>
       </c>
       <c r="V26">
-        <v>1.000210760269773</v>
+        <v>0.0002107602697731803</v>
       </c>
       <c r="W26">
-        <v>1.000574052812859</v>
+        <v>0.0005740528128586053</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -3185,7 +3185,7 @@
         <v>3.853532481846117</v>
       </c>
       <c r="K27">
-        <v>79.39644982823656</v>
+        <v>0.2939644982823656</v>
       </c>
       <c r="L27">
         <v>0.02973568813435576</v>
@@ -3215,13 +3215,13 @@
         <v>0.06000000000000227</v>
       </c>
       <c r="U27">
-        <v>1.000167054540427</v>
+        <v>0.0001670545404273138</v>
       </c>
       <c r="V27">
-        <v>1.000095779936019</v>
+        <v>9.577993601861401E-05</v>
       </c>
       <c r="W27">
-        <v>1.000286861732645</v>
+        <v>0.0002868617326448053</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -3256,7 +3256,7 @@
         <v>3.346171514048573</v>
       </c>
       <c r="K28">
-        <v>76.99124397719699</v>
+        <v>0.2699124397719699</v>
       </c>
       <c r="L28">
         <v>0.02906195800526721</v>
@@ -3286,13 +3286,13 @@
         <v>0.06999999999999318</v>
       </c>
       <c r="U28">
-        <v>1.000143988480922</v>
+        <v>0.0001439884809215641</v>
       </c>
       <c r="V28">
-        <v>1.000076616610481</v>
+        <v>7.661661048130597E-05</v>
       </c>
       <c r="W28">
-        <v>0.9997132205334098</v>
+        <v>-0.0002867794665901702</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -3327,7 +3327,7 @@
         <v>2.363495335905377</v>
       </c>
       <c r="K29">
-        <v>70.26902373477432</v>
+        <v>0.2026902373477433</v>
       </c>
       <c r="L29">
         <v>0.02792608156949131</v>
@@ -3357,13 +3357,13 @@
         <v>0.07624999999998749</v>
       </c>
       <c r="U29">
-        <v>1.000102834108017</v>
+        <v>0.0001028341080169248</v>
       </c>
       <c r="V29">
-        <v>1.000153221481652</v>
+        <v>0.0001532214816519772</v>
       </c>
       <c r="W29">
-        <v>0.9991394148020654</v>
+        <v>-0.0008605851979346379</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -3398,7 +3398,7 @@
         <v>1.673660942978579</v>
       </c>
       <c r="K30">
-        <v>62.5980997094585</v>
+        <v>0.125980997094585</v>
       </c>
       <c r="L30">
         <v>0.02605486612216354</v>
@@ -3428,13 +3428,13 @@
         <v>0.05875000000000341</v>
       </c>
       <c r="U30">
-        <v>1.000056021097971</v>
+        <v>5.602109797098187E-05</v>
       </c>
       <c r="V30">
-        <v>1.000076599004213</v>
+        <v>7.659900421286281E-05</v>
       </c>
       <c r="W30">
-        <v>0.9988515647430376</v>
+        <v>-0.001148435256962399</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -3469,7 +3469,7 @@
         <v>1.280309009095096</v>
       </c>
       <c r="K31">
-        <v>56.14629438328474</v>
+        <v>0.06146294383284745</v>
       </c>
       <c r="L31">
         <v>0.02334164942662492</v>
@@ -3499,13 +3499,13 @@
         <v>0.03624999999999545</v>
       </c>
       <c r="U31">
-        <v>1.000013898126731</v>
+        <v>1.389812673080471E-05</v>
       </c>
       <c r="V31">
-        <v>0.9999617034313725</v>
+        <v>-3.829656862752717E-05</v>
       </c>
       <c r="W31">
-        <v>0.9988502443230813</v>
+        <v>-0.001149755676918662</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -3540,7 +3540,7 @@
         <v>1.46585495359308</v>
       </c>
       <c r="K32">
-        <v>59.44611427598909</v>
+        <v>0.09446114275989093</v>
       </c>
       <c r="L32">
         <v>0.02053421353544851</v>
@@ -3570,13 +3570,13 @@
         <v>0.01999999999999602</v>
       </c>
       <c r="U32">
-        <v>1.00031667434362</v>
+        <v>0.0003166743436204822</v>
       </c>
       <c r="V32">
-        <v>1.000057447052966</v>
+        <v>5.744705296617525E-05</v>
       </c>
       <c r="W32">
-        <v>1.000863309352518</v>
+        <v>0.0008633093525181046</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -3611,7 +3611,7 @@
         <v>1.162993564899314</v>
       </c>
       <c r="K33">
-        <v>53.76777738834608</v>
+        <v>0.03767777388346072</v>
       </c>
       <c r="L33">
         <v>0.01735129341366294</v>
@@ -3641,13 +3641,13 @@
         <v>-0.003749999999996589</v>
       </c>
       <c r="U33">
-        <v>1.000239828858127</v>
+        <v>0.0002398288581266783</v>
       </c>
       <c r="V33">
-        <v>0.9999425562470081</v>
+        <v>-5.744375299188142E-05</v>
       </c>
       <c r="W33">
-        <v>0.9988499137435308</v>
+        <v>-0.001150086256469174</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -3682,7 +3682,7 @@
         <v>0.9998966707524513</v>
       </c>
       <c r="K34">
-        <v>49.99741663534272</v>
+        <v>-2.583364657282594E-05</v>
       </c>
       <c r="L34">
         <v>0.01376678440668105</v>
@@ -3712,13 +3712,13 @@
         <v>-0.03375000000001194</v>
       </c>
       <c r="U34">
-        <v>1.000278134770683</v>
+        <v>0.0002781347706828363</v>
       </c>
       <c r="V34">
-        <v>0.9998659568764121</v>
+        <v>-0.0001340431235878903</v>
       </c>
       <c r="W34">
-        <v>0.9991364421416234</v>
+        <v>-0.0008635578583765513</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3753,7 +3753,7 @@
         <v>0.9998966707524513</v>
       </c>
       <c r="K35">
-        <v>49.99741663534272</v>
+        <v>-2.583364657282594E-05</v>
       </c>
       <c r="L35">
         <v>0.01012157955388025</v>
@@ -3783,13 +3783,13 @@
         <v>-0.06499999999999773</v>
       </c>
       <c r="U35">
-        <v>1.000162999185004</v>
+        <v>0.0001629991850040646</v>
       </c>
       <c r="V35">
-        <v>0.9998276357368572</v>
+        <v>-0.0001723642631428213</v>
       </c>
       <c r="W35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3824,7 +3824,7 @@
         <v>1.207082431903549</v>
       </c>
       <c r="K36">
-        <v>54.69131621252918</v>
+        <v>0.04691316212529184</v>
       </c>
       <c r="L36">
         <v>0.007060065305210176</v>
@@ -3854,13 +3854,13 @@
         <v>-0.08624999999999261</v>
       </c>
       <c r="U36">
-        <v>1.000153385995858</v>
+        <v>0.0001533859958584571</v>
       </c>
       <c r="V36">
-        <v>0.9999042255679425</v>
+        <v>-9.577443205754932E-05</v>
       </c>
       <c r="W36">
-        <v>1.001152405646788</v>
+        <v>0.001152405646787535</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3895,7 +3895,7 @@
         <v>1.20708243190355</v>
       </c>
       <c r="K37">
-        <v>54.69131621252919</v>
+        <v>0.04691316212529195</v>
       </c>
       <c r="L37">
         <v>0.00452127826880772</v>
@@ -3925,13 +3925,13 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="U37">
-        <v>1.00014377731769</v>
+        <v>0.0001437773176904411</v>
       </c>
       <c r="V37">
-        <v>0.9998275895097795</v>
+        <v>-0.0001724104902205426</v>
       </c>
       <c r="W37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3966,7 +3966,7 @@
         <v>1.20708243190355</v>
       </c>
       <c r="K38">
-        <v>54.69131621252919</v>
+        <v>0.04691316212529195</v>
       </c>
       <c r="L38">
         <v>0.002444228217160125</v>
@@ -3996,13 +3996,13 @@
         <v>-0.09874999999999545</v>
       </c>
       <c r="U38">
-        <v>1.000076670212664</v>
+        <v>7.667021266399843E-05</v>
       </c>
       <c r="V38">
-        <v>0.9998275597792767</v>
+        <v>-0.0001724402207232689</v>
       </c>
       <c r="W38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -4037,7 +4037,7 @@
         <v>1.07695826361381</v>
       </c>
       <c r="K39">
-        <v>51.85266755143903</v>
+        <v>0.01852667551439036</v>
       </c>
       <c r="L39">
         <v>0.0005596094485648788</v>
@@ -4067,13 +4067,13 @@
         <v>-0.0899999999999892</v>
       </c>
       <c r="U39">
-        <v>1.000038332167396</v>
+        <v>3.833216739645984E-05</v>
       </c>
       <c r="V39">
-        <v>0.9997892033804112</v>
+        <v>-0.0002107966195887823</v>
       </c>
       <c r="W39">
-        <v>0.9994244604316546</v>
+        <v>-0.0005755395683454401</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -4108,7 +4108,7 @@
         <v>1.07695826361381</v>
       </c>
       <c r="K40">
-        <v>51.85266755143903</v>
+        <v>0.01852667551439036</v>
       </c>
       <c r="L40">
         <v>-0.0010901060618609</v>
@@ -4138,13 +4138,13 @@
         <v>-0.08875000000000455</v>
       </c>
       <c r="U40">
-        <v>0.9999808346509511</v>
+        <v>-1.916534904888856E-05</v>
       </c>
       <c r="V40">
-        <v>0.9997891589358276</v>
+        <v>-0.0002108410641723513</v>
       </c>
       <c r="W40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -4179,7 +4179,7 @@
         <v>0.8692906273386454</v>
       </c>
       <c r="K41">
-        <v>46.50377071521915</v>
+        <v>-0.03496229284780844</v>
       </c>
       <c r="L41">
         <v>-0.002908739193401772</v>
@@ -4209,13 +4209,13 @@
         <v>-0.08249999999999602</v>
       </c>
       <c r="U41">
-        <v>0.9999425028509005</v>
+        <v>-5.749714909952797E-05</v>
       </c>
       <c r="V41">
-        <v>0.9996740860029524</v>
+        <v>-0.0003259139970476221</v>
       </c>
       <c r="W41">
-        <v>0.9988482579902103</v>
+        <v>-0.001151742009789736</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -4250,7 +4250,7 @@
         <v>1.427476750189372</v>
       </c>
       <c r="K42">
-        <v>58.80496075103549</v>
+        <v>0.08804960751035484</v>
       </c>
       <c r="L42">
         <v>-0.003547064943197974</v>
@@ -4280,13 +4280,13 @@
         <v>-0.05250000000000909</v>
       </c>
       <c r="U42">
-        <v>0.999980833181596</v>
+        <v>-1.916681840397061E-05</v>
       </c>
       <c r="V42">
-        <v>0.9998657563669838</v>
+        <v>-0.0001342436330161734</v>
       </c>
       <c r="W42">
-        <v>1.003170942634765</v>
+        <v>0.003170942634765028</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -4321,7 +4321,7 @@
         <v>1.587721570146525</v>
       </c>
       <c r="K43">
-        <v>61.35596613110982</v>
+        <v>0.1135596613110982</v>
       </c>
       <c r="L43">
         <v>-0.003102794450964739</v>
@@ -4351,13 +4351,13 @@
         <v>-0.01750000000001251</v>
       </c>
       <c r="U43">
-        <v>1.000009583592889</v>
+        <v>9.583592889050863E-06</v>
       </c>
       <c r="V43">
-        <v>0.9999424592899474</v>
+        <v>-5.754071005259487E-05</v>
       </c>
       <c r="W43">
-        <v>1.000862068965517</v>
+        <v>0.0008620689655172153</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -4392,7 +4392,7 @@
         <v>1.587721570146525</v>
       </c>
       <c r="K44">
-        <v>61.35596613110981</v>
+        <v>0.1135596613110981</v>
       </c>
       <c r="L44">
         <v>-0.002020618508434435</v>
@@ -4422,13 +4422,13 @@
         <v>0.006250000000008527</v>
       </c>
       <c r="U44">
-        <v>1.000076668008357</v>
+        <v>7.666800835659515E-05</v>
       </c>
       <c r="V44">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -4463,7 +4463,7 @@
         <v>1.587721570146525</v>
       </c>
       <c r="K45">
-        <v>61.35596613110982</v>
+        <v>0.1135596613110982</v>
       </c>
       <c r="L45">
         <v>-0.0006141787894787996</v>
@@ -4493,13 +4493,13 @@
         <v>0.02625000000000455</v>
       </c>
       <c r="U45">
-        <v>1.000076662130824</v>
+        <v>7.666213082391238E-05</v>
       </c>
       <c r="V45">
-        <v>1.000076725361568</v>
+        <v>7.67253615681085E-05</v>
       </c>
       <c r="W45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -4534,7 +4534,7 @@
         <v>1.337702700465969</v>
       </c>
       <c r="K46">
-        <v>57.22296082386044</v>
+        <v>0.07222960823860436</v>
       </c>
       <c r="L46">
         <v>0.0005862375588095298</v>
@@ -4564,13 +4564,13 @@
         <v>0.03750000000000853</v>
       </c>
       <c r="U46">
-        <v>1.000028746095322</v>
+        <v>2.874609532210748E-05</v>
       </c>
       <c r="V46">
-        <v>1.000095899344048</v>
+        <v>9.589934404830025E-05</v>
       </c>
       <c r="W46">
-        <v>0.9991386735572781</v>
+        <v>-0.0008613264427218548</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -4605,7 +4605,7 @@
         <v>1.147495922755909</v>
       </c>
       <c r="K47">
-        <v>53.43413743404518</v>
+        <v>0.03434137434045181</v>
       </c>
       <c r="L47">
         <v>0.001268547130589184</v>
@@ -4635,13 +4635,13 @@
         <v>0.04500000000000171</v>
       </c>
       <c r="U47">
-        <v>1.000019163512672</v>
+        <v>1.916351267183813E-05</v>
       </c>
       <c r="V47">
-        <v>0.999980821970351</v>
+        <v>-1.917802964901405E-05</v>
       </c>
       <c r="W47">
-        <v>0.9991379310344829</v>
+        <v>-0.0008620689655171043</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -4676,7 +4676,7 @@
         <v>1.043385040701465</v>
       </c>
       <c r="K48">
-        <v>51.06159729657636</v>
+        <v>0.01061597296576355</v>
       </c>
       <c r="L48">
         <v>0.001379344719736543</v>
@@ -4706,13 +4706,13 @@
         <v>0.05375000000000796</v>
       </c>
       <c r="U48">
-        <v>0.9999808368545613</v>
+        <v>-1.916314543870534E-05</v>
       </c>
       <c r="V48">
-        <v>1.000019178397453</v>
+        <v>1.917839745302352E-05</v>
       </c>
       <c r="W48">
-        <v>0.9994247914869139</v>
+        <v>-0.0005752085130861229</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -4747,7 +4747,7 @@
         <v>1.043385040701465</v>
       </c>
       <c r="K49">
-        <v>51.06159729657636</v>
+        <v>0.01061597296576355</v>
       </c>
       <c r="L49">
         <v>0.001132046779034683</v>
@@ -4777,13 +4777,13 @@
         <v>0.06750000000000966</v>
       </c>
       <c r="U49">
-        <v>0.9999712547309922</v>
+        <v>-2.87452690077572E-05</v>
       </c>
       <c r="V49">
-        <v>1.000076712118597</v>
+        <v>7.671211859716642E-05</v>
       </c>
       <c r="W49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -4818,7 +4818,7 @@
         <v>1.093650281639652</v>
       </c>
       <c r="K50">
-        <v>52.23653115472344</v>
+        <v>0.02236531154723442</v>
       </c>
       <c r="L50">
         <v>0.0007843949880690156</v>
@@ -4848,13 +4848,13 @@
         <v>0.05125000000001023</v>
       </c>
       <c r="U50">
-        <v>0.9999616718729036</v>
+        <v>-3.832812709636535E-05</v>
       </c>
       <c r="V50">
-        <v>1.000095882792874</v>
+        <v>9.588279287386925E-05</v>
       </c>
       <c r="W50">
-        <v>1.000287769784173</v>
+        <v>0.0002877697841725535</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4889,7 +4889,7 @@
         <v>0.9438333979906463</v>
       </c>
       <c r="K51">
-        <v>48.55526193583736</v>
+        <v>-0.01444738064162637</v>
       </c>
       <c r="L51">
         <v>8.091230570614855E-05</v>
@@ -4919,13 +4919,13 @@
         <v>0.02374999999999261</v>
       </c>
       <c r="U51">
-        <v>0.9999329232066543</v>
+        <v>-6.70767933457217E-05</v>
       </c>
       <c r="V51">
-        <v>0.9999616505599018</v>
+        <v>-3.83494400981732E-05</v>
       </c>
       <c r="W51">
-        <v>0.9991369390103567</v>
+        <v>-0.0008630609896432828</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4960,7 +4960,7 @@
         <v>0.8610582514168794</v>
       </c>
       <c r="K52">
-        <v>46.26713058343714</v>
+        <v>-0.03732869416562862</v>
       </c>
       <c r="L52">
         <v>-0.001003051871110283</v>
@@ -4990,13 +4990,13 @@
         <v>-0.001249999999998863</v>
       </c>
       <c r="U52">
-        <v>0.9998754204559609</v>
+        <v>-0.0001245795440391051</v>
       </c>
       <c r="V52">
-        <v>0.9999232981783316</v>
+        <v>-7.670182166841233E-05</v>
       </c>
       <c r="W52">
-        <v>0.9994241289951052</v>
+        <v>-0.0005758710048947568</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -5031,7 +5031,7 @@
         <v>0.9072166801295322</v>
       </c>
       <c r="K53">
-        <v>47.56757266132534</v>
+        <v>-0.02432427338674659</v>
       </c>
       <c r="L53">
         <v>-0.002139923849409686</v>
@@ -5061,13 +5061,13 @@
         <v>-0.02500000000000568</v>
       </c>
       <c r="U53">
-        <v>0.9998849891698137</v>
+        <v>-0.0001150108301862796</v>
       </c>
       <c r="V53">
-        <v>0.9999424692210331</v>
+        <v>-5.753077896686332E-05</v>
       </c>
       <c r="W53">
-        <v>1.000288101411697</v>
+        <v>0.0002881014116968839</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -5102,7 +5102,7 @@
         <v>1.052980139222154</v>
       </c>
       <c r="K54">
-        <v>51.29032274131566</v>
+        <v>0.01290322741315653</v>
       </c>
       <c r="L54">
         <v>-0.002914302856470894</v>
@@ -5132,13 +5132,13 @@
         <v>-0.03750000000000853</v>
       </c>
       <c r="U54">
-        <v>0.9999137319556007</v>
+        <v>-8.62680443992625E-05</v>
       </c>
       <c r="V54">
-        <v>1.000038356059299</v>
+        <v>3.835605929869423E-05</v>
       </c>
       <c r="W54">
-        <v>1.000864055299539</v>
+        <v>0.0008640552995391459</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -5173,7 +5173,7 @@
         <v>1.001745777916704</v>
       </c>
       <c r="K55">
-        <v>50.04360638438614</v>
+        <v>0.0004360638438614117</v>
       </c>
       <c r="L55">
         <v>-0.003513924886626622</v>
@@ -5203,13 +5203,13 @@
         <v>-0.04625000000000057</v>
       </c>
       <c r="U55">
-        <v>0.9999041383475367</v>
+        <v>-9.5861652463336E-05</v>
       </c>
       <c r="V55">
-        <v>1.000019177294084</v>
+        <v>1.917729408384972E-05</v>
       </c>
       <c r="W55">
-        <v>0.9997122302158274</v>
+        <v>-0.0002877697841725535</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -5244,7 +5244,7 @@
         <v>0.8683256303962726</v>
       </c>
       <c r="K56">
-        <v>46.47613971939679</v>
+        <v>-0.03523860280603208</v>
       </c>
       <c r="L56">
         <v>-0.004270977030928827</v>
@@ -5274,13 +5274,13 @@
         <v>-0.05374999999999375</v>
       </c>
       <c r="U56">
-        <v>0.9998561937357993</v>
+        <v>-0.0001438062642007409</v>
       </c>
       <c r="V56">
-        <v>1.000038353852645</v>
+        <v>3.835385264450153E-05</v>
       </c>
       <c r="W56">
-        <v>0.9991364421416234</v>
+        <v>-0.0008635578583765513</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -5315,7 +5315,7 @@
         <v>0.7941046368901127</v>
       </c>
       <c r="K57">
-        <v>44.26189089319827</v>
+        <v>-0.05738109106801731</v>
       </c>
       <c r="L57">
         <v>-0.005269158846291243</v>
@@ -5345,13 +5345,13 @@
         <v>-0.06875000000000853</v>
       </c>
       <c r="U57">
-        <v>0.9998274076630997</v>
+        <v>-0.0001725923369002569</v>
       </c>
       <c r="V57">
-        <v>0.999789061900744</v>
+        <v>-0.0002109380992559862</v>
       </c>
       <c r="W57">
-        <v>0.9994237971766061</v>
+        <v>-0.0005762028233938787</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -5386,7 +5386,7 @@
         <v>0.7285532564955535</v>
       </c>
       <c r="K58">
-        <v>42.14815214734043</v>
+        <v>-0.07851847852659577</v>
       </c>
       <c r="L58">
         <v>-0.006540216259012008</v>
@@ -5416,13 +5416,13 @@
         <v>-0.07499999999998863</v>
       </c>
       <c r="U58">
-        <v>0.9998177877515008</v>
+        <v>-0.0001822122484992361</v>
       </c>
       <c r="V58">
-        <v>0.9996931162130541</v>
+        <v>-0.0003068837869458774</v>
       </c>
       <c r="W58">
-        <v>0.9994234649754974</v>
+        <v>-0.0005765350245026113</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -5457,7 +5457,7 @@
         <v>0.8154453987164189</v>
       </c>
       <c r="K59">
-        <v>44.91709854193171</v>
+        <v>-0.05082901458068284</v>
       </c>
       <c r="L59">
         <v>-0.00766236620971889</v>
@@ -5487,13 +5487,13 @@
         <v>-0.06750000000000966</v>
       </c>
       <c r="U59">
-        <v>0.9998657138746343</v>
+        <v>-0.0001342861253657013</v>
       </c>
       <c r="V59">
-        <v>0.9997313942556744</v>
+        <v>-0.000268605744325634</v>
       </c>
       <c r="W59">
-        <v>1.000576867608884</v>
+        <v>0.0005768676088835356</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -5528,7 +5528,7 @@
         <v>0.8611781051484859</v>
       </c>
       <c r="K60">
-        <v>46.2705908030108</v>
+        <v>-0.03729409196989203</v>
       </c>
       <c r="L60">
         <v>-0.008490231080132072</v>
@@ -5558,13 +5558,13 @@
         <v>-0.05374999999999375</v>
       </c>
       <c r="U60">
-        <v>0.9999136616110743</v>
+        <v>-8.633838892568857E-05</v>
       </c>
       <c r="V60">
-        <v>0.9997505133667258</v>
+        <v>-0.0002494866332741763</v>
       </c>
       <c r="W60">
-        <v>1.000288267512252</v>
+        <v>0.0002882675122515277</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -5599,7 +5599,7 @@
         <v>0.7221263481512272</v>
       </c>
       <c r="K61">
-        <v>41.93225130818417</v>
+        <v>-0.08067748691815829</v>
       </c>
       <c r="L61">
         <v>-0.009475320046085312</v>
@@ -5629,13 +5629,13 @@
         <v>-0.04749999999998522</v>
       </c>
       <c r="U61">
-        <v>0.9999136541561133</v>
+        <v>-8.634584388667044E-05</v>
       </c>
       <c r="V61">
-        <v>0.9997312550389681</v>
+        <v>-0.0002687449610319081</v>
       </c>
       <c r="W61">
-        <v>0.9988472622478385</v>
+        <v>-0.001152737752161515</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -5670,7 +5670,7 @@
         <v>0.764617637017148</v>
       </c>
       <c r="K62">
-        <v>43.33049953584464</v>
+        <v>-0.06669500464155353</v>
       </c>
       <c r="L62">
         <v>-0.01035376977877419</v>
@@ -5700,13 +5700,13 @@
         <v>-0.05125000000001023</v>
       </c>
       <c r="U62">
-        <v>0.9998944570776124</v>
+        <v>-0.0001055429223876247</v>
       </c>
       <c r="V62">
-        <v>0.9998079877112135</v>
+        <v>-0.0001920122887865139</v>
       </c>
       <c r="W62">
-        <v>1.000288517022504</v>
+        <v>0.0002885170225044309</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -5741,7 +5741,7 @@
         <v>0.7646176370171481</v>
       </c>
       <c r="K63">
-        <v>43.33049953584465</v>
+        <v>-0.06669500464155348</v>
       </c>
       <c r="L63">
         <v>-0.01107407000530798</v>
@@ -5771,13 +5771,13 @@
         <v>-0.05624999999999147</v>
       </c>
       <c r="U63">
-        <v>0.999932829232718</v>
+        <v>-6.717076728202098E-05</v>
       </c>
       <c r="V63">
-        <v>0.9998463606683311</v>
+        <v>-0.0001536393316688978</v>
       </c>
       <c r="W63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -5812,7 +5812,7 @@
         <v>0.6434404081964622</v>
       </c>
       <c r="K64">
-        <v>39.15203770014296</v>
+        <v>-0.1084796229985704</v>
       </c>
       <c r="L64">
         <v>-0.01203166796204415</v>
@@ -5842,13 +5842,13 @@
         <v>-0.06125000000000114</v>
       </c>
       <c r="U64">
-        <v>0.9999232282520034</v>
+        <v>-7.677174799658459E-05</v>
       </c>
       <c r="V64">
-        <v>0.9997695055894896</v>
+        <v>-0.0002304944105103734</v>
       </c>
       <c r="W64">
-        <v>0.9988462647822325</v>
+        <v>-0.001153735217767515</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5883,7 +5883,7 @@
         <v>0.8102623222234395</v>
       </c>
       <c r="K65">
-        <v>44.75938720462577</v>
+        <v>-0.05240612795374233</v>
       </c>
       <c r="L65">
         <v>-0.01260919523583298</v>
@@ -5913,13 +5913,13 @@
         <v>-0.05625000000000568</v>
       </c>
       <c r="U65">
-        <v>0.9999616111788246</v>
+        <v>-3.838882117535025E-05</v>
       </c>
       <c r="V65">
-        <v>0.9998270893371756</v>
+        <v>-0.0001729106628244326</v>
       </c>
       <c r="W65">
-        <v>1.001155067860237</v>
+        <v>0.00115506786023678</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5954,7 +5954,7 @@
         <v>0.8980633296060434</v>
       </c>
       <c r="K66">
-        <v>47.31471893471767</v>
+        <v>-0.02685281065282324</v>
       </c>
       <c r="L66">
         <v>-0.01266416142789029</v>
@@ -5984,13 +5984,13 @@
         <v>-0.04250000000000398</v>
       </c>
       <c r="U66">
-        <v>0.9999424145576</v>
+        <v>-5.758544239997665E-05</v>
       </c>
       <c r="V66">
-        <v>0.9999231375261813</v>
+        <v>-7.686247381866185E-05</v>
       </c>
       <c r="W66">
-        <v>1.000576867608884</v>
+        <v>0.0005768676088835356</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -6025,7 +6025,7 @@
         <v>0.8980633296060434</v>
       </c>
       <c r="K67">
-        <v>47.31471893471767</v>
+        <v>-0.02685281065282324</v>
       </c>
       <c r="L67">
         <v>-0.01235288176755446</v>
@@ -6055,13 +6055,13 @@
         <v>-0.03750000000000853</v>
       </c>
       <c r="U67">
-        <v>0.9999424112413254</v>
+        <v>-5.758875867456492E-05</v>
       </c>
       <c r="V67">
-        <v>0.9999615658089438</v>
+        <v>-3.843419105620249E-05</v>
       </c>
       <c r="W67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -6096,7 +6096,7 @@
         <v>0.9467065469925622</v>
       </c>
       <c r="K68">
-        <v>48.63118935183708</v>
+        <v>-0.01368810648162921</v>
       </c>
       <c r="L68">
         <v>-0.01168967103686826</v>
@@ -6126,13 +6126,13 @@
         <v>-0.03624999999999545</v>
       </c>
       <c r="U68">
-        <v>0.9999520066038914</v>
+        <v>-4.799339610861431E-05</v>
       </c>
       <c r="V68">
-        <v>0.9999615643316998</v>
+        <v>-3.843566830019629E-05</v>
       </c>
       <c r="W68">
-        <v>1.000288267512252</v>
+        <v>0.0002882675122515277</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -6167,7 +6167,7 @@
         <v>0.9467065469925623</v>
       </c>
       <c r="K69">
-        <v>48.63118935183708</v>
+        <v>-0.01368810648162921</v>
       </c>
       <c r="L69">
         <v>-0.01081285776591648</v>
@@ -6197,13 +6197,13 @@
         <v>-0.02374999999999261</v>
       </c>
       <c r="U69">
-        <v>0.9999712025802489</v>
+        <v>-2.879741975114758E-05</v>
       </c>
       <c r="V69">
-        <v>0.999903907135856</v>
+        <v>-9.609286414402618E-05</v>
       </c>
       <c r="W69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -6238,7 +6238,7 @@
         <v>0.898290229108138</v>
       </c>
       <c r="K70">
-        <v>47.32101631952118</v>
+        <v>-0.02678983680478814</v>
       </c>
       <c r="L70">
         <v>-0.009927942235997508</v>
@@ -6268,13 +6268,13 @@
         <v>-0.01124999999998977</v>
       </c>
       <c r="U70">
-        <v>0.999961602334578</v>
+        <v>-3.839766542201861E-05</v>
       </c>
       <c r="V70">
-        <v>0.9999038979011302</v>
+        <v>-9.610209886978804E-05</v>
       </c>
       <c r="W70">
-        <v>0.9997118155619595</v>
+        <v>-0.0002881844380404619</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -6309,7 +6309,7 @@
         <v>0.8982902291081379</v>
       </c>
       <c r="K71">
-        <v>47.32101631952118</v>
+        <v>-0.02678983680478814</v>
       </c>
       <c r="L71">
         <v>-0.009058339154740809</v>
@@ -6339,13 +6339,13 @@
         <v>0</v>
       </c>
       <c r="U71">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="V71">
-        <v>0.9999615554658514</v>
+        <v>-3.844453414858506E-05</v>
       </c>
       <c r="W71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -6380,7 +6380,7 @@
         <v>0.9549570914986567</v>
       </c>
       <c r="K72">
-        <v>48.84798217062622</v>
+        <v>-0.0115201782937378</v>
       </c>
       <c r="L72">
         <v>-0.008115535684834099</v>
@@ -6410,13 +6410,13 @@
         <v>0.01874999999999716</v>
       </c>
       <c r="U72">
-        <v>0.9999040021503519</v>
+        <v>-9.599784964808844E-05</v>
       </c>
       <c r="V72">
-        <v>1.000019223006094</v>
+        <v>1.922300609402683E-05</v>
       </c>
       <c r="W72">
-        <v>1.000288267512252</v>
+        <v>0.0002882675122515277</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -6451,7 +6451,7 @@
         <v>0.9549570914986568</v>
       </c>
       <c r="K73">
-        <v>48.84798217062622</v>
+        <v>-0.01152017829373775</v>
       </c>
       <c r="L73">
         <v>-0.00715887432207464</v>
@@ -6481,13 +6481,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U73">
-        <v>0.9998751908140441</v>
+        <v>-0.0001248091859559208</v>
       </c>
       <c r="V73">
-        <v>1.00005766790973</v>
+        <v>5.76679097303856E-05</v>
       </c>
       <c r="W73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -6522,7 +6522,7 @@
         <v>1.017745858690323</v>
       </c>
       <c r="K74">
-        <v>50.43974464410105</v>
+        <v>0.004397446441010588</v>
       </c>
       <c r="L74">
         <v>-0.00612377704648106</v>
@@ -6552,13 +6552,13 @@
         <v>0.02499999999999147</v>
       </c>
       <c r="U74">
-        <v>0.9998847771397844</v>
+        <v>-0.0001152228602155914</v>
       </c>
       <c r="V74">
-        <v>1.000038443056223</v>
+        <v>3.844305622302535E-05</v>
       </c>
       <c r="W74">
-        <v>1.00028818443804</v>
+        <v>0.0002881844380402399</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6593,7 +6593,7 @@
         <v>0.9546497720712112</v>
       </c>
       <c r="K75">
-        <v>48.83993980464505</v>
+        <v>-0.01160060195354951</v>
       </c>
       <c r="L75">
         <v>-0.005189699776382828</v>
@@ -6623,13 +6623,13 @@
         <v>0.02625000000000455</v>
       </c>
       <c r="U75">
-        <v>0.9998751608504428</v>
+        <v>-0.0001248391495571877</v>
       </c>
       <c r="V75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W75">
-        <v>0.9997118985883031</v>
+        <v>-0.0002881014116968839</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -6664,7 +6664,7 @@
         <v>1.15042634846154</v>
       </c>
       <c r="K76">
-        <v>53.49759359508309</v>
+        <v>0.03497593595083093</v>
       </c>
       <c r="L76">
         <v>-0.004042684828497229</v>
@@ -6694,13 +6694,13 @@
         <v>0.03000000000000114</v>
       </c>
       <c r="U76">
-        <v>0.9999327705265989</v>
+        <v>-6.722947340109808E-05</v>
       </c>
       <c r="V76">
-        <v>1.000134545524439</v>
+        <v>0.0001345455244394778</v>
       </c>
       <c r="W76">
-        <v>1.000864553314121</v>
+        <v>0.0008645533141209416</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -6735,7 +6735,7 @@
         <v>0.9024550391207727</v>
       </c>
       <c r="K77">
-        <v>47.43633991675545</v>
+        <v>-0.02563660083244551</v>
       </c>
       <c r="L77">
         <v>-0.003244690747943842</v>
@@ -6765,13 +6765,13 @@
         <v>0.02375000000000682</v>
       </c>
       <c r="U77">
-        <v>0.9999231611502775</v>
+        <v>-7.683884972253807E-05</v>
       </c>
       <c r="V77">
-        <v>1.000038436406965</v>
+        <v>3.84364069645482E-05</v>
       </c>
       <c r="W77">
-        <v>0.9988482579902103</v>
+        <v>-0.001151742009789736</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -6806,7 +6806,7 @@
         <v>0.9024550391207729</v>
       </c>
       <c r="K78">
-        <v>47.43633991675546</v>
+        <v>-0.0256366008324454</v>
       </c>
       <c r="L78">
         <v>-0.002697204453724011</v>
@@ -6836,13 +6836,13 @@
         <v>0.02125000000000909</v>
       </c>
       <c r="U78">
-        <v>0.9999423664342114</v>
+        <v>-5.763356578858403E-05</v>
       </c>
       <c r="V78">
-        <v>1.000038434929664</v>
+        <v>3.843492966404405E-05</v>
       </c>
       <c r="W78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6877,7 +6877,7 @@
         <v>0.8516069528984759</v>
       </c>
       <c r="K79">
-        <v>45.99285780199648</v>
+        <v>-0.04007142198003522</v>
       </c>
       <c r="L79">
         <v>-0.002431493221478333</v>
@@ -6907,13 +6907,13 @@
         <v>0.01749999999999829</v>
       </c>
       <c r="U79">
-        <v>0.9999327569644573</v>
+        <v>-6.724303554273003E-05</v>
       </c>
       <c r="V79">
-        <v>1.000096083631193</v>
+        <v>9.608363119251173E-05</v>
       </c>
       <c r="W79">
-        <v>0.9997117324877487</v>
+        <v>-0.0002882675122513056</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6948,7 +6948,7 @@
         <v>1.029535932071071</v>
       </c>
       <c r="K80">
-        <v>50.72765235649045</v>
+        <v>0.007276523564904491</v>
       </c>
       <c r="L80">
         <v>-0.002029786249365791</v>
@@ -6978,13 +6978,13 @@
         <v>0.01000000000000512</v>
       </c>
       <c r="U80">
-        <v>0.9999519660303767</v>
+        <v>-4.803396962327344E-05</v>
       </c>
       <c r="V80">
-        <v>1.000076859520012</v>
+        <v>7.685952001246221E-05</v>
       </c>
       <c r="W80">
-        <v>1.000865051903114</v>
+        <v>0.0008650519031141446</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -7019,7 +7019,7 @@
         <v>0.7846139107080692</v>
       </c>
       <c r="K81">
-        <v>43.96547096266683</v>
+        <v>-0.06034529037333164</v>
       </c>
       <c r="L81">
         <v>-0.002088558121116405</v>
@@ -7049,13 +7049,13 @@
         <v>0.001249999999998863</v>
       </c>
       <c r="U81">
-        <v>0.9999327492122049</v>
+        <v>-6.725078779512561E-05</v>
       </c>
       <c r="V81">
-        <v>0.9999423597901897</v>
+        <v>-5.76402098102502E-05</v>
       </c>
       <c r="W81">
-        <v>0.9985594929415152</v>
+        <v>-0.001440507058484752</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -7090,7 +7090,7 @@
         <v>0.8847804599406758</v>
       </c>
       <c r="K82">
-        <v>46.9434227882713</v>
+        <v>-0.030565772117287</v>
       </c>
       <c r="L82">
         <v>-0.002205103377833292</v>
@@ -7120,13 +7120,13 @@
         <v>-0.004999999999995453</v>
       </c>
       <c r="U82">
-        <v>0.9999711762953853</v>
+        <v>-2.882370461465555E-05</v>
       </c>
       <c r="V82">
-        <v>0.9999807854892014</v>
+        <v>-1.921451079855974E-05</v>
       </c>
       <c r="W82">
-        <v>1.000577034045009</v>
+        <v>0.0005770340450086398</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -7161,7 +7161,7 @@
         <v>0.9374996963788711</v>
       </c>
       <c r="K83">
-        <v>48.38708868605399</v>
+        <v>-0.01612911313946014</v>
       </c>
       <c r="L83">
         <v>-0.002236262623701843</v>
@@ -7191,13 +7191,13 @@
         <v>-0.00750000000000739</v>
       </c>
       <c r="U83">
-        <v>0.9999711754645555</v>
+        <v>-2.882453544450492E-05</v>
       </c>
       <c r="V83">
-        <v>0.9999807851199967</v>
+        <v>-1.92148800033376E-05</v>
       </c>
       <c r="W83">
-        <v>1.000288350634371</v>
+        <v>0.0002883506343713815</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -7232,7 +7232,7 @@
         <v>0.9929936294717476</v>
       </c>
       <c r="K84">
-        <v>49.82422496427875</v>
+        <v>-0.00175775035721254</v>
       </c>
       <c r="L84">
         <v>-0.002100622317374713</v>
@@ -7262,13 +7262,13 @@
         <v>-0.01500000000000057</v>
       </c>
       <c r="U84">
-        <v>0.9999519577227961</v>
+        <v>-4.804227720389687E-05</v>
       </c>
       <c r="V84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W84">
-        <v>1.000288267512252</v>
+        <v>0.0002882675122515277</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -7303,7 +7303,7 @@
         <v>1.05140829588526</v>
       </c>
       <c r="K85">
-        <v>51.25300009725943</v>
+        <v>0.01253000097259427</v>
       </c>
       <c r="L85">
         <v>-0.001759972761733584</v>
@@ -7333,13 +7333,13 @@
         <v>-0.01125000000000398</v>
       </c>
       <c r="U85">
-        <v>0.9999711732487745</v>
+        <v>-2.882675122550804E-05</v>
       </c>
       <c r="V85">
-        <v>1.000038430498444</v>
+        <v>3.84304984435424E-05</v>
       </c>
       <c r="W85">
-        <v>1.00028818443804</v>
+        <v>0.0002881844380402399</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -7374,7 +7374,7 @@
         <v>1.1128974184258</v>
       </c>
       <c r="K86">
-        <v>52.6716256416725</v>
+        <v>0.02671625641672504</v>
       </c>
       <c r="L86">
         <v>-0.001205463980881998</v>
@@ -7404,13 +7404,13 @@
         <v>-0.00750000000000739</v>
       </c>
       <c r="U86">
-        <v>1.000009609194077</v>
+        <v>9.609194077109251E-06</v>
       </c>
       <c r="V86">
-        <v>1.000057643532396</v>
+        <v>5.764353239579023E-05</v>
       </c>
       <c r="W86">
-        <v>1.000288101411697</v>
+        <v>0.0002881014116968839</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -7445,7 +7445,7 @@
         <v>1.307073594869656</v>
       </c>
       <c r="K87">
-        <v>56.65504549903629</v>
+        <v>0.06655045499036294</v>
       </c>
       <c r="L87">
         <v>-0.0002374895725659326</v>
@@ -7475,13 +7475,13 @@
         <v>0.002499999999997726</v>
       </c>
       <c r="U87">
-        <v>1.000057654610447</v>
+        <v>5.765461044693332E-05</v>
       </c>
       <c r="V87">
-        <v>1.000096067016351</v>
+        <v>9.606701635056503E-05</v>
       </c>
       <c r="W87">
-        <v>1.000864055299539</v>
+        <v>0.0008640552995391459</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -7516,7 +7516,7 @@
         <v>1.443337578339044</v>
       </c>
       <c r="K88">
-        <v>59.07237670040708</v>
+        <v>0.09072376700407081</v>
       </c>
       <c r="L88">
         <v>0.00113005008019099</v>
@@ -7546,13 +7546,13 @@
         <v>0.008750000000006253</v>
       </c>
       <c r="U88">
-        <v>1.000096085477641</v>
+        <v>9.60854776408393E-05</v>
       </c>
       <c r="V88">
-        <v>1.000134480903712</v>
+        <v>0.00013448090371182</v>
       </c>
       <c r="W88">
-        <v>1.000575539568345</v>
+        <v>0.000575539568345329</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -7587,7 +7587,7 @@
         <v>1.346751413916242</v>
       </c>
       <c r="K89">
-        <v>57.38790252474134</v>
+        <v>0.0738790252474133</v>
       </c>
       <c r="L89">
         <v>0.002543412816517898</v>
@@ -7617,13 +7617,13 @@
         <v>0.02624999999999034</v>
       </c>
       <c r="U89">
-        <v>1.000067253372276</v>
+        <v>6.725337227631023E-05</v>
       </c>
       <c r="V89">
-        <v>1.000096044872164</v>
+        <v>9.604487216408053E-05</v>
       </c>
       <c r="W89">
-        <v>0.9997123957434568</v>
+        <v>-0.0002876042565431725</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -7658,7 +7658,7 @@
         <v>1.346751413916242</v>
       </c>
       <c r="K90">
-        <v>57.38790252474134</v>
+        <v>0.0738790252474133</v>
       </c>
       <c r="L90">
         <v>0.003885140636669988</v>
@@ -7688,13 +7688,13 @@
         <v>0.04000000000000625</v>
       </c>
       <c r="U90">
-        <v>1.000057641871055</v>
+        <v>5.76418710551696E-05</v>
       </c>
       <c r="V90">
-        <v>1.000115242778119</v>
+        <v>0.0001152427781194731</v>
       </c>
       <c r="W90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -7729,7 +7729,7 @@
         <v>1.346751413916242</v>
       </c>
       <c r="K91">
-        <v>57.38790252474134</v>
+        <v>0.0738790252474133</v>
       </c>
       <c r="L91">
         <v>0.005083740006002624</v>
@@ -7759,13 +7759,13 @@
         <v>0.04999999999999716</v>
       </c>
       <c r="U91">
-        <v>1.000096064247769</v>
+        <v>9.606424776875677E-05</v>
       </c>
       <c r="V91">
-        <v>1.000057614749376</v>
+        <v>5.761474937560074E-05</v>
       </c>
       <c r="W91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -7800,7 +7800,7 @@
         <v>1.424802002982938</v>
       </c>
       <c r="K92">
-        <v>58.75951938468288</v>
+        <v>0.08759519384682879</v>
       </c>
       <c r="L92">
         <v>0.006205586437079736</v>
@@ -7830,13 +7830,13 @@
         <v>0.0625</v>
       </c>
       <c r="U92">
-        <v>1.000096055020316</v>
+        <v>9.605502031573288E-05</v>
       </c>
       <c r="V92">
-        <v>1.000153630480287</v>
+        <v>0.0001536304802873811</v>
       </c>
       <c r="W92">
-        <v>1.000287686996548</v>
+        <v>0.0002876869965477979</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7871,7 +7871,7 @@
         <v>1.58911903259692</v>
       </c>
       <c r="K93">
-        <v>61.37682403126182</v>
+        <v>0.1137682403126182</v>
       </c>
       <c r="L93">
         <v>0.007396601124812632</v>
@@ -7901,13 +7901,13 @@
         <v>0.06999999999999318</v>
       </c>
       <c r="U93">
-        <v>1.000115254953562</v>
+        <v>0.0001152549535619052</v>
       </c>
       <c r="V93">
-        <v>1.000192008601985</v>
+        <v>0.0001920086019853162</v>
       </c>
       <c r="W93">
-        <v>1.000575208513086</v>
+        <v>0.0005752085130859008</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7942,7 +7942,7 @@
         <v>1.462627163667176</v>
       </c>
       <c r="K94">
-        <v>59.39295989447025</v>
+        <v>0.09392959894470254</v>
       </c>
       <c r="L94">
         <v>0.008421620638183467</v>
@@ -7972,13 +7972,13 @@
         <v>0.07374999999998977</v>
       </c>
       <c r="U94">
-        <v>1.000144052089236</v>
+        <v>0.0001440520892355135</v>
       </c>
       <c r="V94">
-        <v>1.00019197174176</v>
+        <v>0.0001919717417595557</v>
       </c>
       <c r="W94">
-        <v>0.9997125610807704</v>
+        <v>-0.0002874389192295546</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -8013,7 +8013,7 @@
         <v>1.546415308535046</v>
       </c>
       <c r="K95">
-        <v>60.72910822330469</v>
+        <v>0.1072910822330468</v>
       </c>
       <c r="L95">
         <v>0.009354887298413576</v>
@@ -8043,13 +8043,13 @@
         <v>0.07000000000000739</v>
       </c>
       <c r="U95">
-        <v>1.000115225072976</v>
+        <v>0.0001152250729758997</v>
       </c>
       <c r="V95">
-        <v>1.000153547916547</v>
+        <v>0.000153547916546648</v>
       </c>
       <c r="W95">
-        <v>1.000287521564117</v>
+        <v>0.0002875215641171547</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -8084,7 +8084,7 @@
         <v>1.546415308535046</v>
       </c>
       <c r="K96">
-        <v>60.72910822330469</v>
+        <v>0.1072910822330468</v>
       </c>
       <c r="L96">
         <v>0.01013889867450282</v>
@@ -8114,13 +8114,13 @@
         <v>0.06499999999999773</v>
       </c>
       <c r="U96">
-        <v>1.000096009831407</v>
+        <v>9.600983140689578E-05</v>
       </c>
       <c r="V96">
-        <v>1.000249477057706</v>
+        <v>0.0002494770577061711</v>
       </c>
       <c r="W96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -8155,7 +8155,7 @@
         <v>1.304243285586245</v>
       </c>
       <c r="K97">
-        <v>56.60180475493583</v>
+        <v>0.06601804754935836</v>
       </c>
       <c r="L97">
         <v>0.01053571233122962</v>
@@ -8185,13 +8185,13 @@
         <v>0.05374999999999375</v>
       </c>
       <c r="U97">
-        <v>1.000076800491523</v>
+        <v>7.680049152303248E-05</v>
       </c>
       <c r="V97">
-        <v>1.000172671808449</v>
+        <v>0.0001726718084493761</v>
       </c>
       <c r="W97">
-        <v>0.9994251221615408</v>
+        <v>-0.0005748778384592201</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -8226,7 +8226,7 @@
         <v>1.551509900337005</v>
       </c>
       <c r="K98">
-        <v>60.80752028953838</v>
+        <v>0.1080752028953839</v>
       </c>
       <c r="L98">
         <v>0.01094891989886358</v>
@@ -8256,13 +8256,13 @@
         <v>0.04874999999999829</v>
       </c>
       <c r="U98">
-        <v>1.000095993242076</v>
+        <v>9.599324207587578E-05</v>
       </c>
       <c r="V98">
-        <v>1.000211006886498</v>
+        <v>0.0002110068864975556</v>
       </c>
       <c r="W98">
-        <v>1.000862812769629</v>
+        <v>0.0008628127696288512</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -8297,7 +8297,7 @@
         <v>1.551509900337005</v>
       </c>
       <c r="K99">
-        <v>60.80752028953837</v>
+        <v>0.1080752028953837</v>
       </c>
       <c r="L99">
         <v>0.0113057361485206</v>
@@ -8327,13 +8327,13 @@
         <v>0.04500000000001592</v>
       </c>
       <c r="U99">
-        <v>1.000095984028258</v>
+        <v>9.598402825750085E-05</v>
       </c>
       <c r="V99">
-        <v>1.000191783974531</v>
+        <v>0.0001917839745309013</v>
       </c>
       <c r="W99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -8368,7 +8368,7 @@
         <v>1.551509900337005</v>
       </c>
       <c r="K100">
-        <v>60.80752028953838</v>
+        <v>0.1080752028953839</v>
       </c>
       <c r="L100">
         <v>0.01156437974185211</v>
@@ -8398,13 +8398,13 @@
         <v>0.03999999999999204</v>
       </c>
       <c r="U100">
-        <v>1.000105572297829</v>
+        <v>0.0001055722978291485</v>
       </c>
       <c r="V100">
-        <v>1.000172572480442</v>
+        <v>0.0001725724804417794</v>
       </c>
       <c r="W100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -8439,7 +8439,7 @@
         <v>1.204214817763839</v>
       </c>
       <c r="K101">
-        <v>54.63237104020138</v>
+        <v>0.04632371040201377</v>
       </c>
       <c r="L101">
         <v>0.01139034260699747</v>
@@ -8469,13 +8469,13 @@
         <v>0.02750000000000341</v>
       </c>
       <c r="U101">
-        <v>1.000076771747997</v>
+        <v>7.677174799658459E-05</v>
       </c>
       <c r="V101">
-        <v>1.000095857057955</v>
+        <v>9.585705795500665E-05</v>
       </c>
       <c r="W101">
-        <v>0.9991379310344829</v>
+        <v>-0.0008620689655171043</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -8510,7 +8510,7 @@
         <v>1.204214817763839</v>
       </c>
       <c r="K102">
-        <v>54.63237104020138</v>
+        <v>0.04632371040201377</v>
       </c>
       <c r="L102">
         <v>0.01092385218594646</v>
@@ -8540,13 +8540,13 @@
         <v>0.01875000000001137</v>
       </c>
       <c r="U102">
-        <v>1.000067170122729</v>
+        <v>6.717012272949852E-05</v>
       </c>
       <c r="V102">
-        <v>1.000038339148104</v>
+        <v>3.833914810447148E-05</v>
       </c>
       <c r="W102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -8581,7 +8581,7 @@
         <v>1.28689008694138</v>
       </c>
       <c r="K103">
-        <v>56.27249399915593</v>
+        <v>0.06272493999155937</v>
       </c>
       <c r="L103">
         <v>0.01037501121635653</v>
@@ -8611,13 +8611,13 @@
         <v>0.01250000000000284</v>
       </c>
       <c r="U103">
-        <v>1.000076760698522</v>
+        <v>7.676069852213807E-05</v>
       </c>
       <c r="V103">
-        <v>1.000019168839135</v>
+        <v>1.916883913466449E-05</v>
       </c>
       <c r="W103">
-        <v>1.000287604256543</v>
+        <v>0.0002876042565429504</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -8652,7 +8652,7 @@
         <v>1.28689008694138</v>
       </c>
       <c r="K104">
-        <v>56.27249399915594</v>
+        <v>0.06272493999155937</v>
       </c>
       <c r="L104">
         <v>0.009773484547619685</v>
@@ -8682,13 +8682,13 @@
         <v>0.008749999999992042</v>
       </c>
       <c r="U104">
-        <v>1.000067160455923</v>
+        <v>6.716045592347619E-05</v>
       </c>
       <c r="V104">
-        <v>1.000038336943396</v>
+        <v>3.83369433958336E-05</v>
       </c>
       <c r="W104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -8723,7 +8723,7 @@
         <v>1.08762252932286</v>
       </c>
       <c r="K105">
-        <v>52.09862003528198</v>
+        <v>0.02098620035281973</v>
       </c>
       <c r="L105">
         <v>0.008933193908676633</v>
@@ -8753,13 +8753,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U105">
-        <v>1.000057562239171</v>
+        <v>5.756223917097181E-05</v>
       </c>
       <c r="V105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W105">
-        <v>0.9994249568717652</v>
+        <v>-0.0005750431282347535</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -8794,7 +8794,7 @@
         <v>1.08762252932286</v>
       </c>
       <c r="K106">
-        <v>52.09862003528198</v>
+        <v>0.02098620035281973</v>
       </c>
       <c r="L106">
         <v>0.007969344559265353</v>
@@ -8824,13 +8824,13 @@
         <v>-0.003749999999996589</v>
       </c>
       <c r="U106">
-        <v>1.000028779462976</v>
+        <v>2.87794629756366E-05</v>
       </c>
       <c r="V106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8865,7 +8865,7 @@
         <v>1.259195128983198</v>
       </c>
       <c r="K107">
-        <v>55.7364484735733</v>
+        <v>0.05736448473573308</v>
       </c>
       <c r="L107">
         <v>0.007172654139478669</v>
@@ -8895,13 +8895,13 @@
         <v>-0.01125000000000398</v>
       </c>
       <c r="U107">
-        <v>1.000086335904224</v>
+        <v>8.633590422446602E-05</v>
       </c>
       <c r="V107">
-        <v>1.000019167736865</v>
+        <v>1.916773686527762E-05</v>
       </c>
       <c r="W107">
-        <v>1.000575373993096</v>
+        <v>0.0005753739930955959</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8936,7 +8936,7 @@
         <v>1.066569719067951</v>
       </c>
       <c r="K108">
-        <v>51.61063327439963</v>
+        <v>0.01610633274399631</v>
       </c>
       <c r="L108">
         <v>0.00629231891058404</v>
@@ -8966,13 +8966,13 @@
         <v>-0.01999999999999602</v>
       </c>
       <c r="U108">
-        <v>1.000067144350762</v>
+        <v>6.714435076227154E-05</v>
       </c>
       <c r="V108">
-        <v>0.9999424978915893</v>
+        <v>-5.750210841071191E-05</v>
       </c>
       <c r="W108">
-        <v>0.9994249568717652</v>
+        <v>-0.0005750431282347535</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -9007,7 +9007,7 @@
         <v>1.066569719067951</v>
       </c>
       <c r="K109">
-        <v>51.61063327439963</v>
+        <v>0.01610633274399631</v>
       </c>
       <c r="L109">
         <v>0.005394529445915351</v>
@@ -9037,13 +9037,13 @@
         <v>-0.01874999999999716</v>
       </c>
       <c r="U109">
-        <v>1.000076731248801</v>
+        <v>7.673124880103188E-05</v>
       </c>
       <c r="V109">
-        <v>0.9999616630566045</v>
+        <v>-3.833694339550053E-05</v>
       </c>
       <c r="W109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -9078,7 +9078,7 @@
         <v>0.983239477287471</v>
       </c>
       <c r="K110">
-        <v>49.57744581770194</v>
+        <v>-0.004225541822980627</v>
       </c>
       <c r="L110">
         <v>0.004418992700839056</v>
@@ -9108,13 +9108,13 @@
         <v>-0.01999999999999602</v>
       </c>
       <c r="U110">
-        <v>1.000038362680784</v>
+        <v>3.836268078427629E-05</v>
       </c>
       <c r="V110">
-        <v>0.999923323173654</v>
+        <v>-7.667682634604489E-05</v>
       </c>
       <c r="W110">
-        <v>0.9997123130034523</v>
+        <v>-0.0002876869965476869</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -9149,7 +9149,7 @@
         <v>0.9832394772874711</v>
       </c>
       <c r="K111">
-        <v>49.57744581770194</v>
+        <v>-0.004225541822980627</v>
       </c>
       <c r="L111">
         <v>0.003442455441359571</v>
@@ -9179,13 +9179,13 @@
         <v>-0.02250000000000796</v>
       </c>
       <c r="U111">
-        <v>1.000086312720577</v>
+        <v>8.631272057679773E-05</v>
       </c>
       <c r="V111">
-        <v>0.9999233172938672</v>
+        <v>-7.668270613281347E-05</v>
       </c>
       <c r="W111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -9220,7 +9220,7 @@
         <v>1.069809230977643</v>
       </c>
       <c r="K112">
-        <v>51.68636872260613</v>
+        <v>0.01686368722606124</v>
       </c>
       <c r="L112">
         <v>0.002619770141709374</v>
@@ -9250,13 +9250,13 @@
         <v>-0.02375000000000682</v>
       </c>
       <c r="U112">
-        <v>1.000076715796742</v>
+        <v>7.671579674184414E-05</v>
       </c>
       <c r="V112">
-        <v>0.9999808278532949</v>
+        <v>-1.917214670510425E-05</v>
       </c>
       <c r="W112">
-        <v>1.000287769784173</v>
+        <v>0.0002877697841725535</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -9291,7 +9291,7 @@
         <v>1.069809230977643</v>
       </c>
       <c r="K113">
-        <v>51.68636872260613</v>
+        <v>0.01686368722606124</v>
       </c>
       <c r="L113">
         <v>0.001933170559244827</v>
@@ -9321,13 +9321,13 @@
         <v>-0.02249999999999375</v>
       </c>
       <c r="U113">
-        <v>1.000067121172894</v>
+        <v>6.712117289442432E-05</v>
       </c>
       <c r="V113">
-        <v>0.9999233099428656</v>
+        <v>-7.669005713439869E-05</v>
       </c>
       <c r="W113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -9362,7 +9362,7 @@
         <v>0.9761726383352417</v>
       </c>
       <c r="K114">
-        <v>49.39713360051299</v>
+        <v>-0.00602866399487012</v>
       </c>
       <c r="L114">
         <v>0.001260974740487275</v>
@@ -9392,13 +9392,13 @@
         <v>-0.01874999999999716</v>
       </c>
       <c r="U114">
-        <v>1.000047940477104</v>
+        <v>4.794047710365845E-05</v>
       </c>
       <c r="V114">
-        <v>0.9999041300763125</v>
+        <v>-9.586992368748604E-05</v>
       </c>
       <c r="W114">
-        <v>0.9997123130034523</v>
+        <v>-0.0002876869965476869</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -9433,7 +9433,7 @@
         <v>0.9761726383352419</v>
       </c>
       <c r="K115">
-        <v>49.39713360051299</v>
+        <v>-0.006028663994870065</v>
       </c>
       <c r="L115">
         <v>0.0006357479777580539</v>
@@ -9463,13 +9463,13 @@
         <v>-0.02000000000001023</v>
       </c>
       <c r="U115">
-        <v>1.000038350543139</v>
+        <v>3.835054313938713E-05</v>
       </c>
       <c r="V115">
-        <v>0.9999041208843891</v>
+        <v>-9.587911561093065E-05</v>
       </c>
       <c r="W115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -9504,7 +9504,7 @@
         <v>0.889870988478991</v>
       </c>
       <c r="K116">
-        <v>47.08633519979998</v>
+        <v>-0.02913664800200017</v>
       </c>
       <c r="L116">
         <v>-2.824709699566126E-05</v>
@@ -9534,13 +9534,13 @@
         <v>-0.01749999999999829</v>
       </c>
       <c r="U116">
-        <v>1.000019174536216</v>
+        <v>1.917453621591569E-05</v>
       </c>
       <c r="V116">
-        <v>0.9999424670144216</v>
+        <v>-5.753298557842346E-05</v>
       </c>
       <c r="W116">
-        <v>0.9997122302158274</v>
+        <v>-0.0002877697841725535</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -9575,7 +9575,7 @@
         <v>0.8141089914244261</v>
       </c>
       <c r="K117">
-        <v>44.876520389505</v>
+        <v>-0.05123479610494996</v>
       </c>
       <c r="L117">
         <v>-0.0007780664396356252</v>
@@ -9605,13 +9605,13 @@
         <v>-0.01999999999999602</v>
       </c>
       <c r="U117">
-        <v>0.9999808258314399</v>
+        <v>-1.9174168560121E-05</v>
       </c>
       <c r="V117">
-        <v>0.9999232849389157</v>
+        <v>-7.671506108430926E-05</v>
       </c>
       <c r="W117">
-        <v>0.999712147380541</v>
+        <v>-0.0002878526194589615</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -9646,7 +9646,7 @@
         <v>0.6903685273053466</v>
       </c>
       <c r="K118">
-        <v>40.84130271911049</v>
+        <v>-0.09158697280889505</v>
       </c>
       <c r="L118">
         <v>-0.001738774490352374</v>
@@ -9676,13 +9676,13 @@
         <v>-0.02250000000000796</v>
       </c>
       <c r="U118">
-        <v>0.9999424763913524</v>
+        <v>-5.752360864763606E-05</v>
       </c>
       <c r="V118">
-        <v>0.999865738343211</v>
+        <v>-0.0001342616567889809</v>
       </c>
       <c r="W118">
-        <v>0.9994241289951052</v>
+        <v>-0.0005758710048947568</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -9717,7 +9717,7 @@
         <v>0.639231687714539</v>
       </c>
       <c r="K119">
-        <v>38.99581081218439</v>
+        <v>-0.1100418918781561</v>
       </c>
       <c r="L119">
         <v>-0.002864477487973229</v>
@@ -9747,13 +9747,13 @@
         <v>-0.02499999999999147</v>
       </c>
       <c r="U119">
-        <v>0.9999424730821963</v>
+        <v>-5.752691780369634E-05</v>
       </c>
       <c r="V119">
-        <v>0.999846537502398</v>
+        <v>-0.0001534624976019527</v>
       </c>
       <c r="W119">
-        <v>0.9997118985883031</v>
+        <v>-0.0002881014116968839</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -9788,7 +9788,7 @@
         <v>0.5929956310039369</v>
       </c>
       <c r="K120">
-        <v>37.22518878662708</v>
+        <v>-0.1277481121337292</v>
       </c>
       <c r="L120">
         <v>-0.004112788335709608</v>
@@ -9818,13 +9818,13 @@
         <v>-0.03125</v>
       </c>
       <c r="U120">
-        <v>0.9999328814014361</v>
+        <v>-6.711859856389779E-05</v>
       </c>
       <c r="V120">
-        <v>0.9998656997045392</v>
+        <v>-0.0001343002954607986</v>
       </c>
       <c r="W120">
-        <v>0.9997118155619595</v>
+        <v>-0.0002881844380404619</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9859,7 +9859,7 @@
         <v>0.4545594599828937</v>
       </c>
       <c r="K121">
-        <v>31.25066196938003</v>
+        <v>-0.1874933803061997</v>
       </c>
       <c r="L121">
         <v>-0.005759972260152473</v>
@@ -9889,13 +9889,13 @@
         <v>-0.04499999999998749</v>
       </c>
       <c r="U121">
-        <v>0.9998945208369294</v>
+        <v>-0.0001054791630705765</v>
       </c>
       <c r="V121">
-        <v>0.9997889283315744</v>
+        <v>-0.0002110716684255998</v>
       </c>
       <c r="W121">
-        <v>0.9988469299509946</v>
+        <v>-0.001153070049005445</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9930,7 +9930,7 @@
         <v>0.4545594599828937</v>
       </c>
       <c r="K122">
-        <v>31.25066196938003</v>
+        <v>-0.1874933803061997</v>
       </c>
       <c r="L122">
         <v>-0.00752305710810944</v>
@@ -9960,13 +9960,13 @@
         <v>-0.05624999999999147</v>
       </c>
       <c r="U122">
-        <v>0.9998849196835292</v>
+        <v>-0.0001150803164707837</v>
       </c>
       <c r="V122">
-        <v>0.9997504990019961</v>
+        <v>-0.0002495009980039153</v>
       </c>
       <c r="W122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -10001,7 +10001,7 @@
         <v>0.3611418600915369</v>
       </c>
       <c r="K123">
-        <v>26.53227196078227</v>
+        <v>-0.2346772803921773</v>
       </c>
       <c r="L123">
         <v>-0.009635921305467454</v>
@@ -10031,13 +10031,13 @@
         <v>-0.06999999999999318</v>
       </c>
       <c r="U123">
-        <v>0.9998273596577885</v>
+        <v>-0.0001726403422115386</v>
       </c>
       <c r="V123">
-        <v>0.9997120423873607</v>
+        <v>-0.0002879576126393335</v>
       </c>
       <c r="W123">
-        <v>0.9988455988455989</v>
+        <v>-0.00115440115440113</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -10072,7 +10072,7 @@
         <v>0.415224067333905</v>
       </c>
       <c r="K124">
-        <v>29.33981105310993</v>
+        <v>-0.2066018894689007</v>
       </c>
       <c r="L124">
         <v>-0.01168656868534123</v>
@@ -10102,13 +10102,13 @@
         <v>-0.08249999999999602</v>
       </c>
       <c r="U124">
-        <v>0.9998465154204039</v>
+        <v>-0.0001534845795960749</v>
       </c>
       <c r="V124">
-        <v>0.9997311621476302</v>
+        <v>-0.0002688378523697521</v>
       </c>
       <c r="W124">
-        <v>1.000288933834152</v>
+        <v>0.0002889338341518499</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -10143,7 +10143,7 @@
         <v>0.4721527065364381</v>
       </c>
       <c r="K125">
-        <v>32.07226427258901</v>
+        <v>-0.1792773572741099</v>
       </c>
       <c r="L125">
         <v>-0.01342187089685213</v>
@@ -10173,13 +10173,13 @@
         <v>-0.09125000000000227</v>
       </c>
       <c r="U125">
-        <v>0.9998464918592714</v>
+        <v>-0.0001535081407285643</v>
       </c>
       <c r="V125">
-        <v>0.9997695055894896</v>
+        <v>-0.0002304944105103734</v>
       </c>
       <c r="W125">
-        <v>1.000288850375506</v>
+        <v>0.0002888503755056337</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -10214,7 +10214,7 @@
         <v>0.532077589907483</v>
       </c>
       <c r="K126">
-        <v>34.72915428125368</v>
+        <v>-0.1527084571874632</v>
       </c>
       <c r="L126">
         <v>-0.01470216815153843</v>
@@ -10244,13 +10244,13 @@
         <v>-0.09499999999999886</v>
       </c>
       <c r="U126">
-        <v>0.9998560640227226</v>
+        <v>-0.0001439359772773541</v>
       </c>
       <c r="V126">
-        <v>0.999788664745437</v>
+        <v>-0.000211335254562961</v>
       </c>
       <c r="W126">
-        <v>1.000288766965059</v>
+        <v>0.0002887669650590841</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -10285,7 +10285,7 @@
         <v>0.532077589907483</v>
       </c>
       <c r="K127">
-        <v>34.72915428125368</v>
+        <v>-0.1527084571874632</v>
       </c>
       <c r="L127">
         <v>-0.01557188885407568</v>
@@ -10315,13 +10315,13 @@
         <v>-0.09624999999999773</v>
       </c>
       <c r="U127">
-        <v>0.9998752375285513</v>
+        <v>-0.0001247624714486584</v>
       </c>
       <c r="V127">
-        <v>0.9997694037164434</v>
+        <v>-0.0002305962835565945</v>
       </c>
       <c r="W127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -10356,7 +10356,7 @@
         <v>0.5984763526454828</v>
       </c>
       <c r="K128">
-        <v>37.44042579391323</v>
+        <v>-0.1255957420608677</v>
       </c>
       <c r="L128">
         <v>-0.01597605746279164</v>
@@ -10386,13 +10386,13 @@
         <v>-0.09250000000000114</v>
       </c>
       <c r="U128">
-        <v>0.9998560253395403</v>
+        <v>-0.0001439746604596781</v>
       </c>
       <c r="V128">
-        <v>0.9997885713187386</v>
+        <v>-0.0002114286812614496</v>
       </c>
       <c r="W128">
-        <v>1.000288683602771</v>
+        <v>0.0002886836027713446</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -10427,7 +10427,7 @@
         <v>0.5593794048721862</v>
       </c>
       <c r="K129">
-        <v>35.87192463389214</v>
+        <v>-0.1412807536610787</v>
       </c>
       <c r="L129">
         <v>-0.01611915476045994</v>
@@ -10457,13 +10457,13 @@
         <v>-0.08000000000001251</v>
       </c>
       <c r="U129">
-        <v>0.9998464049150425</v>
+        <v>-0.0001535950849574919</v>
       </c>
       <c r="V129">
-        <v>0.9997885266071977</v>
+        <v>-0.0002114733928022527</v>
       </c>
       <c r="W129">
-        <v>0.9997113997113998</v>
+        <v>-0.000288600288600227</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -10498,7 +10498,7 @@
         <v>0.5233882158770833</v>
       </c>
       <c r="K130">
-        <v>34.3568507634638</v>
+        <v>-0.156431492365362</v>
       </c>
       <c r="L130">
         <v>-0.01614122501530767</v>
@@ -10528,13 +10528,13 @@
         <v>-0.07000000000000739</v>
       </c>
       <c r="U130">
-        <v>0.9998367801524665</v>
+        <v>-0.0001632198475335356</v>
       </c>
       <c r="V130">
-        <v>0.9997692529564466</v>
+        <v>-0.0002307470435534142</v>
       </c>
       <c r="W130">
-        <v>0.9997113163972287</v>
+        <v>-0.0002886836027713446</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -10569,7 +10569,7 @@
         <v>0.5233882158770834</v>
       </c>
       <c r="K131">
-        <v>34.35685076346381</v>
+        <v>-0.1564314923653619</v>
       </c>
       <c r="L131">
         <v>-0.01602990479684398</v>
@@ -10599,13 +10599,13 @@
         <v>-0.04999999999999716</v>
       </c>
       <c r="U131">
-        <v>0.9998655617119758</v>
+        <v>-0.0001344382880241746</v>
       </c>
       <c r="V131">
-        <v>0.9997884330582962</v>
+        <v>-0.0002115669417037669</v>
       </c>
       <c r="W131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -10640,7 +10640,7 @@
         <v>0.737265059262298</v>
       </c>
       <c r="K132">
-        <v>42.43825979988142</v>
+        <v>-0.07561740200118577</v>
       </c>
       <c r="L132">
         <v>-0.01547186443445572</v>
@@ -10670,13 +10670,13 @@
         <v>-0.03000000000000114</v>
       </c>
       <c r="U132">
-        <v>0.9998943557139151</v>
+        <v>-0.0001056442860849494</v>
       </c>
       <c r="V132">
-        <v>0.9998653380016158</v>
+        <v>-0.000134661998384189</v>
       </c>
       <c r="W132">
-        <v>1.000866300895177</v>
+        <v>0.0008663008951774742</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -10711,7 +10711,7 @@
         <v>0.6857995690766638</v>
       </c>
       <c r="K133">
-        <v>40.68096715983182</v>
+        <v>-0.09319032840168184</v>
       </c>
       <c r="L133">
         <v>-0.01472722206984667</v>
@@ -10741,13 +10741,13 @@
         <v>-0.01500000000000057</v>
       </c>
       <c r="U133">
-        <v>0.9998751344705703</v>
+        <v>-0.0001248655294296963</v>
       </c>
       <c r="V133">
-        <v>0.9998845598845599</v>
+        <v>-0.0001154401154400686</v>
       </c>
       <c r="W133">
-        <v>0.9997114829774957</v>
+        <v>-0.0002885170225043199</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -10782,7 +10782,7 @@
         <v>0.832759470444104</v>
       </c>
       <c r="K134">
-        <v>45.43746650193625</v>
+        <v>-0.04562533498063748</v>
       </c>
       <c r="L134">
         <v>-0.01365344028498502</v>
@@ -10812,13 +10812,13 @@
         <v>-0.002499999999997726</v>
       </c>
       <c r="U134">
-        <v>0.9998943313576499</v>
+        <v>-0.0001056686423500652</v>
       </c>
       <c r="V134">
-        <v>0.9999422732783004</v>
+        <v>-5.772672169956916E-05</v>
       </c>
       <c r="W134">
-        <v>1.000577200577201</v>
+        <v>0.0005772005772006761</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10853,7 +10853,7 @@
         <v>0.7729721489838488</v>
       </c>
       <c r="K135">
-        <v>43.59753476256611</v>
+        <v>-0.06402465237433896</v>
       </c>
       <c r="L135">
         <v>-0.01250378186846455</v>
@@ -10883,13 +10883,13 @@
         <v>0.007499999999993179</v>
       </c>
       <c r="U135">
-        <v>0.9999039274460073</v>
+        <v>-9.607255399268766E-05</v>
       </c>
       <c r="V135">
-        <v>0.9999422699457339</v>
+        <v>-5.773005426612521E-05</v>
       </c>
       <c r="W135">
-        <v>0.999711566195558</v>
+        <v>-0.0002884338044419898</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10924,7 +10924,7 @@
         <v>0.7729721489838488</v>
       </c>
       <c r="K136">
-        <v>43.59753476256611</v>
+        <v>-0.06402465237433896</v>
       </c>
       <c r="L136">
         <v>-0.01133583047131619</v>
@@ -10954,13 +10954,13 @@
         <v>0.01375000000000171</v>
       </c>
       <c r="U136">
-        <v>0.9999039182151849</v>
+        <v>-9.608178481512741E-05</v>
       </c>
       <c r="V136">
-        <v>1.000019244462406</v>
+        <v>1.924446240586519E-05</v>
       </c>
       <c r="W136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10995,7 +10995,7 @@
         <v>1.011623315086312</v>
       </c>
       <c r="K137">
-        <v>50.28890386682095</v>
+        <v>0.002889038668209554</v>
       </c>
       <c r="L137">
         <v>-0.009874975499772447</v>
@@ -11025,13 +11025,13 @@
         <v>0.02124999999999488</v>
       </c>
       <c r="U137">
-        <v>0.9999135180843293</v>
+        <v>-8.648191567073304E-05</v>
       </c>
       <c r="V137">
-        <v>1.000076976368255</v>
+        <v>7.69763682553215E-05</v>
       </c>
       <c r="W137">
-        <v>1.000865551067513</v>
+        <v>0.0008655510675130706</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -11066,7 +11066,7 @@
         <v>1.011623315086312</v>
       </c>
       <c r="K138">
-        <v>50.28890386682095</v>
+        <v>0.002889038668209554</v>
       </c>
       <c r="L138">
         <v>-0.008293669069991181</v>
@@ -11096,13 +11096,13 @@
         <v>0.03125</v>
       </c>
       <c r="U138">
-        <v>0.999932730470214</v>
+        <v>-6.726952978597378E-05</v>
       </c>
       <c r="V138">
-        <v>1.000153940886699</v>
+        <v>0.0001539408866992886</v>
       </c>
       <c r="W138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -11137,7 +11137,7 @@
         <v>1.011623315086313</v>
       </c>
       <c r="K139">
-        <v>50.28890386682096</v>
+        <v>0.002889038668209554</v>
       </c>
       <c r="L139">
         <v>-0.006709874645789546</v>
@@ -11167,13 +11167,13 @@
         <v>0.03624999999999545</v>
       </c>
       <c r="U139">
-        <v>0.9999327259447199</v>
+        <v>-6.727405528006436E-05</v>
       </c>
       <c r="V139">
-        <v>1.000134677543482</v>
+        <v>0.0001346775434818426</v>
       </c>
       <c r="W139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -11208,7 +11208,7 @@
         <v>0.791350212793225</v>
       </c>
       <c r="K140">
-        <v>44.17618660726787</v>
+        <v>-0.05823813392732136</v>
       </c>
       <c r="L140">
         <v>-0.005516031429488912</v>
@@ -11238,13 +11238,13 @@
         <v>0.03125</v>
       </c>
       <c r="U140">
-        <v>0.9999134989667932</v>
+        <v>-8.650103320684277E-05</v>
       </c>
       <c r="V140">
-        <v>1.000057711174807</v>
+        <v>5.771117480701804E-05</v>
       </c>
       <c r="W140">
-        <v>0.9991351974632459</v>
+        <v>-0.000864802536754139</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -11279,7 +11279,7 @@
         <v>0.7913502127932249</v>
       </c>
       <c r="K141">
-        <v>44.17618660726786</v>
+        <v>-0.05823813392732141</v>
       </c>
       <c r="L141">
         <v>-0.004614462099936587</v>
@@ -11309,13 +11309,13 @@
         <v>0.03000000000000114</v>
       </c>
       <c r="U141">
-        <v>0.9999134914837172</v>
+        <v>-8.650851628277945E-05</v>
       </c>
       <c r="V141">
-        <v>1.00003847189628</v>
+        <v>3.847189627981251E-05</v>
       </c>
       <c r="W141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -11350,7 +11350,7 @@
         <v>0.9521939549243421</v>
       </c>
       <c r="K142">
-        <v>48.77558157182413</v>
+        <v>-0.01224418428175866</v>
       </c>
       <c r="L142">
         <v>-0.003720606095205003</v>
@@ -11380,13 +11380,13 @@
         <v>0.02750000000000341</v>
       </c>
       <c r="U142">
-        <v>0.9999230968883079</v>
+        <v>-7.690311169206154E-05</v>
       </c>
       <c r="V142">
-        <v>1.0000769408325</v>
+        <v>7.694083249965011E-05</v>
       </c>
       <c r="W142">
-        <v>1.000577034045009</v>
+        <v>0.0005770340450086398</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -11421,7 +11421,7 @@
         <v>0.9521939549243422</v>
       </c>
       <c r="K143">
-        <v>48.77558157182413</v>
+        <v>-0.01224418428175866</v>
       </c>
       <c r="L143">
         <v>-0.002874822628502584</v>
@@ -11451,13 +11451,13 @@
         <v>0.0274999999999892</v>
       </c>
       <c r="U143">
-        <v>0.9999230909737643</v>
+        <v>-7.690902623569418E-05</v>
       </c>
       <c r="V143">
-        <v>1.000057701184798</v>
+        <v>5.770118479753172E-05</v>
       </c>
       <c r="W143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -11492,7 +11492,7 @@
         <v>1.130414167812007</v>
       </c>
       <c r="K144">
-        <v>53.06077029017193</v>
+        <v>0.03060770290171932</v>
       </c>
       <c r="L144">
         <v>-0.001891546085306385</v>
@@ -11522,13 +11522,13 @@
         <v>0.03124999999998579</v>
       </c>
       <c r="U144">
-        <v>0.9999519281614445</v>
+        <v>-4.807183855548569E-05</v>
       </c>
       <c r="V144">
-        <v>1.000115395711126</v>
+        <v>0.0001153957111261761</v>
       </c>
       <c r="W144">
-        <v>1.000576701268743</v>
+        <v>0.0005767012687429851</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -11563,7 +11563,7 @@
         <v>0.9518473850710318</v>
       </c>
       <c r="K145">
-        <v>48.76648616850708</v>
+        <v>-0.01233513831492922</v>
       </c>
       <c r="L145">
         <v>-0.001090774944966949</v>
@@ -11593,13 +11593,13 @@
         <v>0.02375000000000682</v>
       </c>
       <c r="U145">
-        <v>0.9999326961906044</v>
+        <v>-6.730380939556913E-05</v>
       </c>
       <c r="V145">
-        <v>1.000096151997077</v>
+        <v>9.615199707679878E-05</v>
       </c>
       <c r="W145">
-        <v>0.9994236311239192</v>
+        <v>-0.0005763688760808128</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -11634,7 +11634,7 @@
         <v>1.118127178633778</v>
       </c>
       <c r="K146">
-        <v>52.78848172634213</v>
+        <v>0.02788481726342129</v>
       </c>
       <c r="L146">
         <v>-0.0002375903273889585</v>
@@ -11664,13 +11664,13 @@
         <v>0.01749999999999829</v>
       </c>
       <c r="U146">
-        <v>0.9999615380917124</v>
+        <v>-3.846190828760143E-05</v>
       </c>
       <c r="V146">
-        <v>1.000134599853863</v>
+        <v>0.0001345998538631044</v>
       </c>
       <c r="W146">
-        <v>1.000576701268743</v>
+        <v>0.0005767012687429851</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -11705,7 +11705,7 @@
         <v>1.118127178633778</v>
       </c>
       <c r="K147">
-        <v>52.78848172634213</v>
+        <v>0.02788481726342129</v>
       </c>
       <c r="L147">
         <v>0.000593837974671497</v>
@@ -11735,13 +11735,13 @@
         <v>0.01125000000001819</v>
       </c>
       <c r="U147">
-        <v>0.9999711524592529</v>
+        <v>-2.884754074705675E-05</v>
       </c>
       <c r="V147">
-        <v>1.00007690385096</v>
+        <v>7.690385096026375E-05</v>
       </c>
       <c r="W147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -11776,7 +11776,7 @@
         <v>0.9441699635367794</v>
       </c>
       <c r="K148">
-        <v>48.56416780656213</v>
+        <v>-0.01435832193437869</v>
       </c>
       <c r="L148">
         <v>0.001146880236135266</v>
@@ -11806,13 +11806,13 @@
         <v>0.01375000000000171</v>
       </c>
       <c r="U148">
-        <v>0.9999711516270481</v>
+        <v>-2.884837295191733E-05</v>
       </c>
       <c r="V148">
-        <v>1.00005767345291</v>
+        <v>5.767345290963455E-05</v>
       </c>
       <c r="W148">
-        <v>0.9994236311239192</v>
+        <v>-0.0005763688760808128</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11847,7 +11847,7 @@
         <v>1.107937432475853</v>
       </c>
       <c r="K149">
-        <v>52.56026177088843</v>
+        <v>0.02560261770888428</v>
       </c>
       <c r="L149">
         <v>0.00170188589804027</v>
@@ -11877,13 +11877,13 @@
         <v>0.01750000000001251</v>
       </c>
       <c r="U149">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V149">
-        <v>1.000057670126874</v>
+        <v>5.767012687440953E-05</v>
       </c>
       <c r="W149">
-        <v>1.000576701268743</v>
+        <v>0.0005767012687429851</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11918,7 +11918,7 @@
         <v>1.020018559933124</v>
       </c>
       <c r="K150">
-        <v>50.49550435649923</v>
+        <v>0.004955043564992323</v>
       </c>
       <c r="L150">
         <v>0.002111481306299079</v>
@@ -11948,13 +11948,13 @@
         <v>0.01750000000001251</v>
       </c>
       <c r="U150">
-        <v>0.9999999999999998</v>
+        <v>-2.220446049250313E-16</v>
       </c>
       <c r="V150">
-        <v>1.000057666801222</v>
+        <v>5.766680122243351E-05</v>
       </c>
       <c r="W150">
-        <v>0.9997118155619595</v>
+        <v>-0.0002881844380404619</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11989,7 +11989,7 @@
         <v>1.020018559933124</v>
       </c>
       <c r="K151">
-        <v>50.49550435649923</v>
+        <v>0.004955043564992323</v>
       </c>
       <c r="L151">
         <v>0.00239918579168758</v>
@@ -12019,13 +12019,13 @@
         <v>0.01625000000001364</v>
       </c>
       <c r="U151">
-        <v>1.000038465606939</v>
+        <v>3.846560693943069E-05</v>
       </c>
       <c r="V151">
-        <v>1.000057663475954</v>
+        <v>5.76634759543726E-05</v>
       </c>
       <c r="W151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -12060,7 +12060,7 @@
         <v>1.020018559933124</v>
       </c>
       <c r="K152">
-        <v>50.49550435649924</v>
+        <v>0.004955043564992434</v>
       </c>
       <c r="L152">
         <v>0.002585970280516103</v>
@@ -12090,13 +12090,13 @@
         <v>0.01000000000000512</v>
       </c>
       <c r="U152">
-        <v>1.000038464127393</v>
+        <v>3.846412739294536E-05</v>
       </c>
       <c r="V152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -12131,7 +12131,7 @@
         <v>1.112572744457358</v>
       </c>
       <c r="K153">
-        <v>52.66435190818184</v>
+        <v>0.02664351908181839</v>
       </c>
       <c r="L153">
         <v>0.002795304930863247</v>
@@ -12161,13 +12161,13 @@
         <v>0.01375000000001592</v>
       </c>
       <c r="U153">
-        <v>1.000086540957912</v>
+        <v>8.654095791227334E-05</v>
       </c>
       <c r="V153">
-        <v>1.000019220050356</v>
+        <v>1.92200503563722E-05</v>
       </c>
       <c r="W153">
-        <v>1.000288267512252</v>
+        <v>0.0002882675122515277</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -12202,7 +12202,7 @@
         <v>1.013802565779181</v>
       </c>
       <c r="K154">
-        <v>50.34269908117434</v>
+        <v>0.003426990811743358</v>
       </c>
       <c r="L154">
         <v>0.002889760695090714</v>
@@ -12232,13 +12232,13 @@
         <v>0.01125000000000398</v>
       </c>
       <c r="U154">
-        <v>1.000067303809396</v>
+        <v>6.730380939568015E-05</v>
       </c>
       <c r="V154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W154">
-        <v>0.9997118155619595</v>
+        <v>-0.0002881844380404619</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -12273,7 +12273,7 @@
         <v>1.107251384881461</v>
       </c>
       <c r="K155">
-        <v>52.54481704581949</v>
+        <v>0.02544817045819481</v>
       </c>
       <c r="L155">
         <v>0.003003084690768066</v>
@@ -12303,13 +12303,13 @@
         <v>0.01000000000000512</v>
       </c>
       <c r="U155">
-        <v>1.000067299279898</v>
+        <v>6.729927989779227E-05</v>
       </c>
       <c r="V155">
-        <v>1.000076878723813</v>
+        <v>7.687872381345606E-05</v>
       </c>
       <c r="W155">
-        <v>1.000288267512252</v>
+        <v>0.0002882675122515277</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -12344,7 +12344,7 @@
         <v>1.0080885582317</v>
       </c>
       <c r="K156">
-        <v>50.20139944024238</v>
+        <v>0.00201399440242378</v>
       </c>
       <c r="L156">
         <v>0.003004669136939247</v>
@@ -12374,13 +12374,13 @@
         <v>0.008750000000006253</v>
       </c>
       <c r="U156">
-        <v>1.000048067679292</v>
+        <v>4.80676792924406E-05</v>
       </c>
       <c r="V156">
-        <v>1.000057654610447</v>
+        <v>5.765461044693332E-05</v>
       </c>
       <c r="W156">
-        <v>0.9997118155619595</v>
+        <v>-0.0002881844380404619</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -12415,7 +12415,7 @@
         <v>0.8481721383993804</v>
       </c>
       <c r="K157">
-        <v>45.89248592038318</v>
+        <v>-0.0410751407961682</v>
       </c>
       <c r="L157">
         <v>0.002717518724404572</v>
@@ -12445,13 +12445,13 @@
         <v>0</v>
       </c>
       <c r="U157">
-        <v>1.000028839221341</v>
+        <v>2.883922134122585E-05</v>
       </c>
       <c r="V157">
-        <v>0.9999807829044718</v>
+        <v>-1.921709552821227E-05</v>
       </c>
       <c r="W157">
-        <v>0.9994234649754974</v>
+        <v>-0.0005765350245026113</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -12486,7 +12486,7 @@
         <v>0.8481721383993805</v>
       </c>
       <c r="K158">
-        <v>45.89248592038319</v>
+        <v>-0.04107514079616814</v>
       </c>
       <c r="L158">
         <v>0.002263871062842754</v>
@@ -12516,13 +12516,13 @@
         <v>-0.003749999999996589</v>
       </c>
       <c r="U158">
-        <v>1.000019225593109</v>
+        <v>1.92255931092955E-05</v>
       </c>
       <c r="V158">
-        <v>0.9999807825351681</v>
+        <v>-1.9217464831911E-05</v>
       </c>
       <c r="W158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -12557,7 +12557,7 @@
         <v>0.8481721383993804</v>
       </c>
       <c r="K159">
-        <v>45.89248592038318</v>
+        <v>-0.0410751407961682</v>
       </c>
       <c r="L159">
         <v>0.001730034721318709</v>
@@ -12587,13 +12587,13 @@
         <v>-0.007499999999993179</v>
       </c>
       <c r="U159">
-        <v>1.00002883783524</v>
+        <v>2.883783523999206E-05</v>
       </c>
       <c r="V159">
-        <v>0.9999423464975497</v>
+        <v>-5.765350245034995E-05</v>
       </c>
       <c r="W159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -12628,7 +12628,7 @@
         <v>1.033194217543838</v>
       </c>
       <c r="K160">
-        <v>50.81630710085182</v>
+        <v>0.008163071008518208</v>
       </c>
       <c r="L160">
         <v>0.001385330541682166</v>
@@ -12658,13 +12658,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U160">
-        <v>1.000057674007286</v>
+        <v>5.767400728595717E-05</v>
       </c>
       <c r="V160">
-        <v>1.000019218942189</v>
+        <v>1.921894218948061E-05</v>
       </c>
       <c r="W160">
-        <v>1.000576867608884</v>
+        <v>0.0005768676088835356</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -12699,7 +12699,7 @@
         <v>0.9415099403354009</v>
       </c>
       <c r="K161">
-        <v>48.49369662113359</v>
+        <v>-0.01506303378866414</v>
       </c>
       <c r="L161">
         <v>0.001067130197810978</v>
@@ -12729,13 +12729,13 @@
         <v>-0.01125000000000398</v>
       </c>
       <c r="U161">
-        <v>1.000048058900989</v>
+        <v>4.805890098924515E-05</v>
       </c>
       <c r="V161">
-        <v>0.9999615628543423</v>
+        <v>-3.843714565765488E-05</v>
       </c>
       <c r="W161">
-        <v>0.9997117324877487</v>
+        <v>-0.0002882675122513056</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -12770,7 +12770,7 @@
         <v>1.034919063077099</v>
       </c>
       <c r="K162">
-        <v>50.85799636237856</v>
+        <v>0.008579963623785658</v>
       </c>
       <c r="L162">
         <v>0.0008863685443089882</v>
@@ -12800,13 +12800,13 @@
         <v>-0.01000000000000512</v>
       </c>
       <c r="U162">
-        <v>1.000028833954865</v>
+        <v>2.883395486508178E-05</v>
       </c>
       <c r="V162">
-        <v>0.9999807806884355</v>
+        <v>-1.921931156445567E-05</v>
       </c>
       <c r="W162">
-        <v>1.000288350634371</v>
+        <v>0.0002883506343713815</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12841,7 +12841,7 @@
         <v>0.9422699960106005</v>
       </c>
       <c r="K163">
-        <v>48.51385224227383</v>
+        <v>-0.01486147757726175</v>
       </c>
       <c r="L163">
         <v>0.000692168992383724</v>
@@ -12871,13 +12871,13 @@
         <v>-0.01250000000000284</v>
       </c>
       <c r="U163">
-        <v>1.000028833123492</v>
+        <v>2.883312349211131E-05</v>
       </c>
       <c r="V163">
-        <v>1</v>
+        <v>4.440892098500626E-16</v>
       </c>
       <c r="W163">
-        <v>0.9997117324877487</v>
+        <v>-0.0002882675122513056</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12912,7 +12912,7 @@
         <v>0.861122351053689</v>
       </c>
       <c r="K164">
-        <v>46.26898121803534</v>
+        <v>-0.03731018781964662</v>
       </c>
       <c r="L164">
         <v>0.0003946947162880421</v>
@@ -12942,13 +12942,13 @@
         <v>-0.01624999999998522</v>
       </c>
       <c r="U164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V164">
-        <v>0.9999423409571399</v>
+        <v>-5.765904286014756E-05</v>
       </c>
       <c r="W164">
-        <v>0.9997116493656286</v>
+        <v>-0.0002883506343713815</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12983,7 +12983,7 @@
         <v>0.7289592553461753</v>
       </c>
       <c r="K165">
-        <v>42.16173707345243</v>
+        <v>-0.07838262926547573</v>
       </c>
       <c r="L165">
         <v>-0.000157803021420916</v>
@@ -13013,13 +13013,13 @@
         <v>-0.01500000000001478</v>
       </c>
       <c r="U165">
-        <v>0.9999903892359443</v>
+        <v>-9.610764055700827E-06</v>
       </c>
       <c r="V165">
-        <v>0.9999231168431777</v>
+        <v>-7.688315682230495E-05</v>
       </c>
       <c r="W165">
-        <v>0.9994231323911161</v>
+        <v>-0.0005768676088838687</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -13054,7 +13054,7 @@
         <v>0.8097370030976381</v>
       </c>
       <c r="K166">
-        <v>44.7433523054262</v>
+        <v>-0.05256647694573802</v>
       </c>
       <c r="L166">
         <v>-0.0007240327395236023</v>
@@ -13084,13 +13084,13 @@
         <v>-0.01375000000000171</v>
       </c>
       <c r="U166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V166">
-        <v>0.9999423331987772</v>
+        <v>-5.766680122276657E-05</v>
       </c>
       <c r="W166">
-        <v>1.0002886002886</v>
+        <v>0.000288600288600227</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -13125,7 +13125,7 @@
         <v>0.8097370030976381</v>
       </c>
       <c r="K167">
-        <v>44.7433523054262</v>
+        <v>-0.05256647694573802</v>
       </c>
       <c r="L167">
         <v>-0.00125987235911057</v>
@@ -13155,13 +13155,13 @@
         <v>-0.01250000000000284</v>
       </c>
       <c r="U167">
-        <v>0.9999711674307298</v>
+        <v>-2.883256927022071E-05</v>
       </c>
       <c r="V167">
-        <v>0.9999423298731258</v>
+        <v>-5.767012687418749E-05</v>
       </c>
       <c r="W167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -13196,7 +13196,7 @@
         <v>0.9887458623807217</v>
       </c>
       <c r="K168">
-        <v>49.71705440518664</v>
+        <v>-0.002829455948133552</v>
       </c>
       <c r="L168">
         <v>-0.001528597435255172</v>
@@ -13226,13 +13226,13 @@
         <v>-0.01375000000000171</v>
       </c>
       <c r="U168">
-        <v>0.9999903888664627</v>
+        <v>-9.611133537257288E-06</v>
       </c>
       <c r="V168">
-        <v>0.9999615510313935</v>
+        <v>-3.844896860649705E-05</v>
       </c>
       <c r="W168">
-        <v>1.000577034045009</v>
+        <v>0.0005770340450086398</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -13267,7 +13267,7 @@
         <v>1.177176240573441</v>
       </c>
       <c r="K169">
-        <v>54.06894575807917</v>
+        <v>0.04068945758079179</v>
       </c>
       <c r="L169">
         <v>-0.001402821572085317</v>
@@ -13297,13 +13297,13 @@
         <v>-0.008750000000006253</v>
       </c>
       <c r="U169">
-        <v>1.000009611225912</v>
+        <v>9.611225912031784E-06</v>
       </c>
       <c r="V169">
-        <v>1.000019225223493</v>
+        <v>1.922522349318001E-05</v>
       </c>
       <c r="W169">
-        <v>1.000576701268743</v>
+        <v>0.0005767012687429851</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -13338,7 +13338,7 @@
         <v>1.070964529363435</v>
       </c>
       <c r="K170">
-        <v>51.71332073430654</v>
+        <v>0.01713320734306534</v>
       </c>
       <c r="L170">
         <v>-0.00114593314947946</v>
@@ -13368,13 +13368,13 @@
         <v>-0.008750000000006253</v>
       </c>
       <c r="U170">
-        <v>1.000028833400611</v>
+        <v>2.883340061110573E-05</v>
       </c>
       <c r="V170">
-        <v>0.9999807751461088</v>
+        <v>-1.922485389116435E-05</v>
       </c>
       <c r="W170">
-        <v>0.9997118155619595</v>
+        <v>-0.0002881844380404619</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -13409,7 +13409,7 @@
         <v>1.165939094275847</v>
       </c>
       <c r="K171">
-        <v>53.83065005646722</v>
+        <v>0.03830650056467222</v>
       </c>
       <c r="L171">
         <v>-0.0007168094455596073</v>
@@ -13439,13 +13439,13 @@
         <v>-0.003749999999982379</v>
       </c>
       <c r="U171">
-        <v>1.000038443425694</v>
+        <v>3.844342569370163E-05</v>
       </c>
       <c r="V171">
-        <v>1.000019225223493</v>
+        <v>1.922522349318001E-05</v>
       </c>
       <c r="W171">
-        <v>1.000288267512252</v>
+        <v>0.0002882675122515277</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -13480,7 +13480,7 @@
         <v>1.059970430624688</v>
       </c>
       <c r="K172">
-        <v>51.45561387030448</v>
+        <v>0.01455613870304484</v>
       </c>
       <c r="L172">
         <v>-0.0003130670394537914</v>
@@ -13510,13 +13510,13 @@
         <v>0.001249999999998863</v>
       </c>
       <c r="U172">
-        <v>1.000009610486963</v>
+        <v>9.610486963351761E-06</v>
       </c>
       <c r="V172">
-        <v>1.000038449707782</v>
+        <v>3.84497077823287E-05</v>
       </c>
       <c r="W172">
-        <v>0.9997118155619595</v>
+        <v>-0.0002881844380404619</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -13551,7 +13551,7 @@
         <v>1.059970430624688</v>
       </c>
       <c r="K173">
-        <v>51.45561387030448</v>
+        <v>0.01455613870304484</v>
       </c>
       <c r="L173">
         <v>5.070917469777792E-05</v>
@@ -13581,13 +13581,13 @@
         <v>0.008750000000006253</v>
       </c>
       <c r="U173">
-        <v>1.000009610394603</v>
+        <v>9.610394602788119E-06</v>
       </c>
       <c r="V173">
-        <v>1.000038448229459</v>
+        <v>3.844822945886506E-05</v>
       </c>
       <c r="W173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -13622,7 +13622,7 @@
         <v>1.160676207115067</v>
       </c>
       <c r="K174">
-        <v>53.71819263307393</v>
+        <v>0.03718192633073936</v>
       </c>
       <c r="L174">
         <v>0.0004719008557145495</v>
@@ -13652,13 +13652,13 @@
         <v>0.01500000000000057</v>
       </c>
       <c r="U174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V174">
-        <v>1.000057670126875</v>
+        <v>5.767012687463158E-05</v>
       </c>
       <c r="W174">
-        <v>1.000288267512252</v>
+        <v>0.0002882675122515277</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -13693,7 +13693,7 @@
         <v>1.160676207115067</v>
       </c>
       <c r="K175">
-        <v>53.71819263307393</v>
+        <v>0.03718192633073936</v>
       </c>
       <c r="L175">
         <v>0.0008993135874667376</v>
@@ -13723,13 +13723,13 @@
         <v>0.02124999999999488</v>
       </c>
       <c r="U175">
-        <v>1.000019220604488</v>
+        <v>1.922060448800167E-05</v>
       </c>
       <c r="V175">
-        <v>1.000019222267074</v>
+        <v>1.922226707429253E-05</v>
       </c>
       <c r="W175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -13764,7 +13764,7 @@
         <v>1.272261555026766</v>
       </c>
       <c r="K176">
-        <v>55.99098185735838</v>
+        <v>0.0599098185735838</v>
       </c>
       <c r="L176">
         <v>0.001404972095492162</v>
@@ -13794,13 +13794,13 @@
         <v>0.02625000000001876</v>
       </c>
       <c r="U176">
-        <v>1.000009610117532</v>
+        <v>9.610117531755336E-06</v>
       </c>
       <c r="V176">
-        <v>1.000057665692757</v>
+        <v>5.766569275711397E-05</v>
       </c>
       <c r="W176">
-        <v>1.00028818443804</v>
+        <v>0.0002881844380402399</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -13835,7 +13835,7 @@
         <v>1.507178076946132</v>
       </c>
       <c r="K177">
-        <v>60.11452041659322</v>
+        <v>0.1011452041659322</v>
       </c>
       <c r="L177">
         <v>0.002130668877989382</v>
@@ -13865,13 +13865,13 @@
         <v>0.02750000000000341</v>
       </c>
       <c r="U177">
-        <v>1.000028830075535</v>
+        <v>2.883007553489136E-05</v>
       </c>
       <c r="V177">
-        <v>1.000076883156823</v>
+        <v>7.6883156822527E-05</v>
       </c>
       <c r="W177">
-        <v>1.000576202823394</v>
+        <v>0.0005762028233937677</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13906,7 +13906,7 @@
         <v>1.754458626335026</v>
       </c>
       <c r="K178">
-        <v>63.69522524538477</v>
+        <v>0.1369522524538477</v>
       </c>
       <c r="L178">
         <v>0.003145617833322046</v>
@@ -13936,13 +13936,13 @@
         <v>0.0350000000000108</v>
       </c>
       <c r="U178">
-        <v>1.000067268236899</v>
+        <v>6.72682368993982E-05</v>
       </c>
       <c r="V178">
-        <v>1.00013453518095</v>
+        <v>0.0001345351809498574</v>
       </c>
       <c r="W178">
-        <v>1.000575871004895</v>
+        <v>0.0005758710048950899</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13977,7 +13977,7 @@
         <v>1.754458626335026</v>
       </c>
       <c r="K179">
-        <v>63.69522524538477</v>
+        <v>0.1369522524538477</v>
       </c>
       <c r="L179">
         <v>0.004259606651406163</v>
@@ -14007,13 +14007,13 @@
         <v>0.03875000000000739</v>
       </c>
       <c r="U179">
-        <v>1.000048045508706</v>
+        <v>4.804550870574076E-05</v>
       </c>
       <c r="V179">
-        <v>1.000153733809908</v>
+        <v>0.0001537338099080188</v>
       </c>
       <c r="W179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -14048,7 +14048,7 @@
         <v>1.754458626335026</v>
       </c>
       <c r="K180">
-        <v>63.69522524538477</v>
+        <v>0.1369522524538477</v>
       </c>
       <c r="L180">
         <v>0.005347015441101978</v>
@@ -14078,13 +14078,13 @@
         <v>0.04375000000000284</v>
       </c>
       <c r="U180">
-        <v>1.000057651840535</v>
+        <v>5.765184053485584E-05</v>
       </c>
       <c r="V180">
-        <v>1.000192137724321</v>
+        <v>0.0001921377243208067</v>
       </c>
       <c r="W180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -14119,7 +14119,7 @@
         <v>1.533338984168801</v>
       </c>
       <c r="K181">
-        <v>60.52640383899891</v>
+        <v>0.1052640383899891</v>
       </c>
       <c r="L181">
         <v>0.006224490339894178</v>
@@ -14149,13 +14149,13 @@
         <v>0.04500000000001592</v>
       </c>
       <c r="U181">
-        <v>1.000048040430827</v>
+        <v>4.804043082673459E-05</v>
       </c>
       <c r="V181">
-        <v>1.000153680651606</v>
+        <v>0.0001536806516060363</v>
       </c>
       <c r="W181">
-        <v>0.9997122302158274</v>
+        <v>-0.0002877697841725535</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -14190,7 +14190,7 @@
         <v>1.533338984168801</v>
       </c>
       <c r="K182">
-        <v>60.5264038389989</v>
+        <v>0.105264038389989</v>
       </c>
       <c r="L182">
         <v>0.006896137758984676</v>
@@ -14220,13 +14220,13 @@
         <v>0.04500000000000171</v>
       </c>
       <c r="U182">
-        <v>1.000048038123054</v>
+        <v>4.803812305431698E-05</v>
       </c>
       <c r="V182">
-        <v>1.000153657037492</v>
+        <v>0.0001536570374922608</v>
       </c>
       <c r="W182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -14261,7 +14261,7 @@
         <v>1.672987711177769</v>
       </c>
       <c r="K183">
-        <v>62.58867948332688</v>
+        <v>0.1258867948332688</v>
       </c>
       <c r="L183">
         <v>0.007480091508649514</v>
@@ -14291,13 +14291,13 @@
         <v>0.04625000000000057</v>
       </c>
       <c r="U183">
-        <v>1.000048035815504</v>
+        <v>4.803581550416602E-05</v>
       </c>
       <c r="V183">
-        <v>1.000134429251805</v>
+        <v>0.0001344292518050683</v>
       </c>
       <c r="W183">
-        <v>1.000287852619459</v>
+        <v>0.0002878526194587394</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -14332,7 +14332,7 @@
         <v>1.458578609990703</v>
       </c>
       <c r="K184">
-        <v>59.32609207871612</v>
+        <v>0.09326092078716119</v>
       </c>
       <c r="L184">
         <v>0.007841445447252033</v>
@@ -14362,13 +14362,13 @@
         <v>0.04625000000000057</v>
       </c>
       <c r="U184">
-        <v>1.000048033508175</v>
+        <v>4.803350817517149E-05</v>
       </c>
       <c r="V184">
-        <v>1.000076806390292</v>
+        <v>7.680639029183922E-05</v>
       </c>
       <c r="W184">
-        <v>0.9997122302158274</v>
+        <v>-0.0002877697841725535</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -14403,7 +14403,7 @@
         <v>1.148659607731868</v>
       </c>
       <c r="K185">
-        <v>53.45935687525662</v>
+        <v>0.03459356875256625</v>
       </c>
       <c r="L185">
         <v>0.00780643954234755</v>
@@ -14433,13 +14433,13 @@
         <v>0.04124999999999091</v>
       </c>
       <c r="U185">
-        <v>1.000019212480427</v>
+        <v>1.921248042724422E-05</v>
       </c>
       <c r="V185">
-        <v>1.000057600368642</v>
+        <v>5.760036864232987E-05</v>
       </c>
       <c r="W185">
-        <v>0.9994242947610822</v>
+        <v>-0.0005757052389178119</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -14474,7 +14474,7 @@
         <v>1.148659607731868</v>
       </c>
       <c r="K186">
-        <v>53.45935687525662</v>
+        <v>0.03459356875256625</v>
       </c>
       <c r="L186">
         <v>0.007505153862861789</v>
@@ -14504,13 +14504,13 @@
         <v>0.03000000000001535</v>
       </c>
       <c r="U186">
-        <v>1.000028818166972</v>
+        <v>2.881816697231088E-05</v>
       </c>
       <c r="V186">
-        <v>1.00003839803402</v>
+        <v>3.839803402039266E-05</v>
       </c>
       <c r="W186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -14545,7 +14545,7 @@
         <v>1.148659607731869</v>
       </c>
       <c r="K187">
-        <v>53.45935687525662</v>
+        <v>0.03459356875256625</v>
       </c>
       <c r="L187">
         <v>0.007034456745171494</v>
@@ -14575,13 +14575,13 @@
         <v>0.01999999999999602</v>
       </c>
       <c r="U187">
-        <v>1.000048028894183</v>
+        <v>4.802889418287215E-05</v>
       </c>
       <c r="V187">
-        <v>1.000057594839503</v>
+        <v>5.75948395025172E-05</v>
       </c>
       <c r="W187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -14616,7 +14616,7 @@
         <v>1.022018082304884</v>
       </c>
       <c r="K188">
-        <v>50.54445809603705</v>
+        <v>0.005444580960370482</v>
       </c>
       <c r="L188">
         <v>0.006360611846806603</v>
@@ -14646,13 +14646,13 @@
         <v>0.00750000000000739</v>
       </c>
       <c r="U188">
-        <v>1.000038421270015</v>
+        <v>3.842127001485451E-05</v>
       </c>
       <c r="V188">
-        <v>1.000038394348352</v>
+        <v>3.83943483517335E-05</v>
       </c>
       <c r="W188">
-        <v>0.9997119815668203</v>
+        <v>-0.0002880184331797153</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -14687,7 +14687,7 @@
         <v>1.022018082304884</v>
       </c>
       <c r="K189">
-        <v>50.54445809603705</v>
+        <v>0.005444580960370482</v>
       </c>
       <c r="L189">
         <v>0.005583519861222527</v>
@@ -14717,13 +14717,13 @@
         <v>-0.002500000000011937</v>
       </c>
       <c r="U189">
-        <v>1.000038419793878</v>
+        <v>3.841979387786409E-05</v>
       </c>
       <c r="V189">
-        <v>1.000019196437141</v>
+        <v>1.919643714143326E-05</v>
       </c>
       <c r="W189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -14758,7 +14758,7 @@
         <v>1.144180487006112</v>
       </c>
       <c r="K190">
-        <v>53.36213504133296</v>
+        <v>0.03362135041332959</v>
       </c>
       <c r="L190">
         <v>0.004878008999120031</v>
@@ -14788,13 +14788,13 @@
         <v>-0.01000000000000512</v>
       </c>
       <c r="U190">
-        <v>1.000028813738391</v>
+        <v>2.881373839058732E-05</v>
       </c>
       <c r="V190">
-        <v>1.00003839213729</v>
+        <v>3.839213729039948E-05</v>
       </c>
       <c r="W190">
-        <v>1.000288101411697</v>
+        <v>0.0002881014116968839</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -14829,7 +14829,7 @@
         <v>0.9101137765024224</v>
       </c>
       <c r="K191">
-        <v>47.64709765974865</v>
+        <v>-0.02352902340251345</v>
       </c>
       <c r="L191">
         <v>0.004033247769242189</v>
@@ -14859,13 +14859,13 @@
         <v>-0.02249999999999375</v>
       </c>
       <c r="U191">
-        <v>1.000019208605455</v>
+        <v>1.920860545512326E-05</v>
       </c>
       <c r="V191">
-        <v>0.9999808046683044</v>
+        <v>-1.919533169558729E-05</v>
       </c>
       <c r="W191">
-        <v>0.9994239631336407</v>
+        <v>-0.0005760368663593196</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14900,7 +14900,7 @@
         <v>1.125452190200785</v>
       </c>
       <c r="K192">
-        <v>52.95118824076992</v>
+        <v>0.0295118824076992</v>
       </c>
       <c r="L192">
         <v>0.003353105070015351</v>
@@ -14930,13 +14930,13 @@
         <v>-0.02875000000001648</v>
       </c>
       <c r="U192">
-        <v>1.000028812354738</v>
+        <v>2.881235473783939E-05</v>
       </c>
       <c r="V192">
-        <v>0.999980804299837</v>
+        <v>-1.919570016295502E-05</v>
       </c>
       <c r="W192">
-        <v>1.00057636887608</v>
+        <v>0.0005763688760804797</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14971,7 +14971,7 @@
         <v>1.125452190200785</v>
       </c>
       <c r="K193">
-        <v>52.95118824076993</v>
+        <v>0.02951188240769931</v>
       </c>
       <c r="L193">
         <v>0.002803815774379241</v>
@@ -15001,13 +15001,13 @@
         <v>-0.0274999999999892</v>
       </c>
       <c r="U193">
-        <v>1.000038415366146</v>
+        <v>3.841536614634933E-05</v>
       </c>
       <c r="V193">
-        <v>0.9999424117940645</v>
+        <v>-5.758820593548819E-05</v>
       </c>
       <c r="W193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -15042,7 +15042,7 @@
         <v>1.125452190200785</v>
       </c>
       <c r="K194">
-        <v>52.95118824076993</v>
+        <v>0.02951188240769931</v>
       </c>
       <c r="L194">
         <v>0.002358588665735223</v>
@@ -15072,13 +15072,13 @@
         <v>-0.02375000000000682</v>
       </c>
       <c r="U194">
-        <v>1.000048017363079</v>
+        <v>4.801736307857851E-05</v>
       </c>
       <c r="V194">
-        <v>0.9999424084774721</v>
+        <v>-5.759152252793331E-05</v>
       </c>
       <c r="W194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -15113,7 +15113,7 @@
         <v>1.251032253590995</v>
       </c>
       <c r="K195">
-        <v>55.57593639963469</v>
+        <v>0.05575936399634696</v>
       </c>
       <c r="L195">
         <v>0.002101078363970818</v>
@@ -15143,13 +15143,13 @@
         <v>-0.01874999999999716</v>
       </c>
       <c r="U195">
-        <v>1.000076824092035</v>
+        <v>7.682409203502161E-05</v>
       </c>
       <c r="V195">
-        <v>0.9999616034403319</v>
+        <v>-3.839655966808575E-05</v>
       </c>
       <c r="W195">
-        <v>1.00028801843318</v>
+        <v>0.0002880184331797153</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -15184,7 +15184,7 @@
         <v>1.251032253590995</v>
       </c>
       <c r="K196">
-        <v>55.57593639963469</v>
+        <v>0.05575936399634696</v>
       </c>
       <c r="L196">
         <v>0.001966040976750801</v>
@@ -15214,13 +15214,13 @@
         <v>-0.01125000000000398</v>
       </c>
       <c r="U196">
-        <v>1.000067215916729</v>
+        <v>6.721591672920191E-05</v>
       </c>
       <c r="V196">
-        <v>0.9999808009829897</v>
+        <v>-1.919901701030735E-05</v>
       </c>
       <c r="W196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -15255,7 +15255,7 @@
         <v>1.251032253590994</v>
       </c>
       <c r="K197">
-        <v>55.57593639963468</v>
+        <v>0.05575936399634684</v>
       </c>
       <c r="L197">
         <v>0.001906640513005518</v>
@@ -15285,13 +15285,13 @@
         <v>-0.005000000000009663</v>
       </c>
       <c r="U197">
-        <v>1.000067211399053</v>
+        <v>6.721139905319085E-05</v>
       </c>
       <c r="V197">
-        <v>0.9999808006143803</v>
+        <v>-1.91993856196726E-05</v>
       </c>
       <c r="W197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -15326,7 +15326,7 @@
         <v>1.091203268970578</v>
       </c>
       <c r="K198">
-        <v>52.18064093347257</v>
+        <v>0.02180640933472577</v>
       </c>
       <c r="L198">
         <v>0.00178501326000496</v>
@@ -15356,13 +15356,13 @@
         <v>-0.002499999999997726</v>
       </c>
       <c r="U198">
-        <v>1.000038403932563</v>
+        <v>3.84039325627139E-05</v>
       </c>
       <c r="V198">
-        <v>0.9999424007372705</v>
+        <v>-5.759926272952409E-05</v>
       </c>
       <c r="W198">
-        <v>0.9997120644975526</v>
+        <v>-0.0002879355024474339</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -15397,7 +15397,7 @@
         <v>1.225685042689537</v>
       </c>
       <c r="K199">
-        <v>55.07001301533701</v>
+        <v>0.05070013015337016</v>
       </c>
       <c r="L199">
         <v>0.00173182641945565</v>
@@ -15427,13 +15427,13 @@
         <v>0.00750000000000739</v>
       </c>
       <c r="U199">
-        <v>1.000028801843318</v>
+        <v>2.880184331810476E-05</v>
       </c>
       <c r="V199">
-        <v>0.9999807991398014</v>
+        <v>-1.920086019857603E-05</v>
       </c>
       <c r="W199">
-        <v>1.00028801843318</v>
+        <v>0.0002880184331797153</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -15468,7 +15468,7 @@
         <v>1.073693277999536</v>
       </c>
       <c r="K200">
-        <v>51.77686060859075</v>
+        <v>0.01776860608590747</v>
       </c>
       <c r="L200">
         <v>0.001612298084717149</v>
@@ -15498,13 +15498,13 @@
         <v>0.009999999999990905</v>
       </c>
       <c r="U200">
-        <v>1.000028801013795</v>
+        <v>2.880101379543198E-05</v>
       </c>
       <c r="V200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W200">
-        <v>0.9997120644975526</v>
+        <v>-0.0002879355024474339</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -15539,7 +15539,7 @@
         <v>1.073693277999536</v>
       </c>
       <c r="K201">
-        <v>51.77686060859075</v>
+        <v>0.01776860608590747</v>
       </c>
       <c r="L201">
         <v>0.001454327108208941</v>
@@ -15569,13 +15569,13 @@
         <v>0.01000000000000512</v>
       </c>
       <c r="U201">
-        <v>1.000019200122881</v>
+        <v>1.920012288092465E-05</v>
       </c>
       <c r="V201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -15610,7 +15610,7 @@
         <v>1.073693277999536</v>
       </c>
       <c r="K202">
-        <v>51.77686060859075</v>
+        <v>0.01776860608590747</v>
       </c>
       <c r="L202">
         <v>0.001277839482259725</v>
@@ -15640,13 +15640,13 @@
         <v>0.009999999999990905</v>
       </c>
       <c r="U202">
-        <v>1.000028799631365</v>
+        <v>2.879963136459551E-05</v>
       </c>
       <c r="V202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -15681,7 +15681,7 @@
         <v>1.218327263995088</v>
       </c>
       <c r="K203">
-        <v>54.92098861017224</v>
+        <v>0.04920988610172239</v>
       </c>
       <c r="L203">
         <v>0.001201607855551122</v>
@@ -15711,13 +15711,13 @@
         <v>0.008749999999992042</v>
       </c>
       <c r="U203">
-        <v>1.000038398402626</v>
+        <v>3.839840262642724E-05</v>
       </c>
       <c r="V203">
-        <v>1.000038402457757</v>
+        <v>3.840245775710294E-05</v>
       </c>
       <c r="W203">
-        <v>1.00028801843318</v>
+        <v>0.0002880184331797153</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -15752,7 +15752,7 @@
         <v>1.218327263995088</v>
       </c>
       <c r="K204">
-        <v>54.92098861017224</v>
+        <v>0.04920988610172239</v>
       </c>
       <c r="L204">
         <v>0.001186592953162419</v>
@@ -15782,13 +15782,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U204">
-        <v>1.000028797696184</v>
+        <v>2.879769618413519E-05</v>
       </c>
       <c r="V204">
-        <v>1.000038400983065</v>
+        <v>3.840098306517881E-05</v>
       </c>
       <c r="W204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -15823,7 +15823,7 @@
         <v>1.5388457925172</v>
       </c>
       <c r="K205">
-        <v>60.61202287483062</v>
+        <v>0.1061202287483062</v>
       </c>
       <c r="L205">
         <v>0.001415051421593809</v>
@@ -15853,13 +15853,13 @@
         <v>0.006250000000008527</v>
       </c>
       <c r="U205">
-        <v>1.000047994778168</v>
+        <v>4.79947781681922E-05</v>
       </c>
       <c r="V205">
-        <v>1.000057599262729</v>
+        <v>5.759926272941307E-05</v>
       </c>
       <c r="W205">
-        <v>1.000575871004895</v>
+        <v>0.0005758710048950899</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15894,7 +15894,7 @@
         <v>2.044927679657318</v>
       </c>
       <c r="K206">
-        <v>67.15849750124306</v>
+        <v>0.1715849750124306</v>
       </c>
       <c r="L206">
         <v>0.002085914684458415</v>
@@ -15924,13 +15924,13 @@
         <v>0.01375000000000171</v>
       </c>
       <c r="U206">
-        <v>1.000067189464692</v>
+        <v>6.718946469219667E-05</v>
       </c>
       <c r="V206">
-        <v>1.000153589187321</v>
+        <v>0.0001535891873214457</v>
       </c>
       <c r="W206">
-        <v>1.000863309352518</v>
+        <v>0.0008633093525181046</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15965,7 +15965,7 @@
         <v>1.736561884665433</v>
       </c>
       <c r="K207">
-        <v>63.45779696766265</v>
+        <v>0.1345779696766265</v>
       </c>
       <c r="L207">
         <v>0.002869542599539584</v>
@@ -15995,13 +15995,13 @@
         <v>0.01500000000000057</v>
       </c>
       <c r="U207">
-        <v>1.000038391400326</v>
+        <v>3.839140032613209E-05</v>
       </c>
       <c r="V207">
-        <v>1.000095978500816</v>
+        <v>9.597850081588533E-05</v>
       </c>
       <c r="W207">
-        <v>0.9997124784358827</v>
+        <v>-0.0002875215641172657</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -16036,7 +16036,7 @@
         <v>1.498674241915464</v>
       </c>
       <c r="K208">
-        <v>59.97877661581815</v>
+        <v>0.09978776615818152</v>
       </c>
       <c r="L208">
         <v>0.003556190511796424</v>
@@ -16066,13 +16066,13 @@
         <v>0.02000000000001023</v>
       </c>
       <c r="U208">
-        <v>1.000009597481621</v>
+        <v>9.597481620993165E-06</v>
       </c>
       <c r="V208">
-        <v>1.000076775431862</v>
+        <v>7.677543186179747E-05</v>
       </c>
       <c r="W208">
-        <v>0.9997123957434568</v>
+        <v>-0.0002876042565431725</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -16107,7 +16107,7 @@
         <v>1.498674241915464</v>
       </c>
       <c r="K209">
-        <v>59.97877661581815</v>
+        <v>0.09978776615818152</v>
       </c>
       <c r="L209">
         <v>0.004127348167004678</v>
@@ -16137,13 +16137,13 @@
         <v>0.02499999999999147</v>
       </c>
       <c r="U209">
-        <v>1.00000959738951</v>
+        <v>9.597389510007659E-06</v>
       </c>
       <c r="V209">
-        <v>1.000076769537847</v>
+        <v>7.676953784740981E-05</v>
       </c>
       <c r="W209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -16178,7 +16178,7 @@
         <v>1.802248123292146</v>
       </c>
       <c r="K210">
-        <v>64.31436632295156</v>
+        <v>0.1431436632295155</v>
       </c>
       <c r="L210">
         <v>0.004786808424415727</v>
@@ -16208,13 +16208,13 @@
         <v>0.03249999999999886</v>
       </c>
       <c r="U210">
-        <v>1.000028791892203</v>
+        <v>2.879189220306166E-05</v>
       </c>
       <c r="V210">
-        <v>1.000095954555922</v>
+        <v>9.595455592226187E-05</v>
       </c>
       <c r="W210">
-        <v>1.000575373993096</v>
+        <v>0.0005753739930955959</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -16249,7 +16249,7 @@
         <v>1.802248123292146</v>
       </c>
       <c r="K211">
-        <v>64.31436632295156</v>
+        <v>0.1431436632295155</v>
       </c>
       <c r="L211">
         <v>0.005440251346942101</v>
@@ -16279,13 +16279,13 @@
         <v>0.03875000000000739</v>
       </c>
       <c r="U211">
-        <v>1.000038388084339</v>
+        <v>3.838808433864749E-05</v>
       </c>
       <c r="V211">
-        <v>1.000095945349529</v>
+        <v>9.594534952883649E-05</v>
       </c>
       <c r="W211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -16320,7 +16320,7 @@
         <v>1.542776324450428</v>
       </c>
       <c r="K212">
-        <v>60.67290738928321</v>
+        <v>0.1067290738928321</v>
       </c>
       <c r="L212">
         <v>0.005923689739666697</v>
@@ -16350,13 +16350,13 @@
         <v>0.04375000000000284</v>
       </c>
       <c r="U212">
-        <v>1.000028789958063</v>
+        <v>2.878995806265827E-05</v>
       </c>
       <c r="V212">
-        <v>1.000076748915922</v>
+        <v>7.674891592190924E-05</v>
       </c>
       <c r="W212">
-        <v>0.9997124784358827</v>
+        <v>-0.0002875215641172657</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -16391,7 +16391,7 @@
         <v>1.542776324450428</v>
       </c>
       <c r="K213">
-        <v>60.67290738928321</v>
+        <v>0.1067290738928321</v>
       </c>
       <c r="L213">
         <v>0.006251727354456399</v>
@@ -16421,13 +16421,13 @@
         <v>0.04375000000001705</v>
       </c>
       <c r="U213">
-        <v>1.000019192752817</v>
+        <v>1.919275281658805E-05</v>
       </c>
       <c r="V213">
-        <v>1.000095928782472</v>
+        <v>9.592878247177694E-05</v>
       </c>
       <c r="W213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -16462,7 +16462,7 @@
         <v>1.542776324450428</v>
       </c>
       <c r="K214">
-        <v>60.67290738928322</v>
+        <v>0.1067290738928321</v>
       </c>
       <c r="L214">
         <v>0.00644192732335681</v>
@@ -16492,13 +16492,13 @@
         <v>0.03499999999999659</v>
       </c>
       <c r="U214">
-        <v>1.000028788576693</v>
+        <v>2.878857669275092E-05</v>
       </c>
       <c r="V214">
-        <v>1.000076735664819</v>
+        <v>7.673566481880556E-05</v>
       </c>
       <c r="W214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -16533,7 +16533,7 @@
         <v>1.878618133416737</v>
       </c>
       <c r="K215">
-        <v>65.26110954449302</v>
+        <v>0.1526110954449302</v>
       </c>
       <c r="L215">
         <v>0.006722690466075776</v>
@@ -16563,13 +16563,13 @@
         <v>0.03249999999999886</v>
       </c>
       <c r="U215">
-        <v>1.000067171411847</v>
+        <v>6.717141184719999E-05</v>
       </c>
       <c r="V215">
-        <v>1.000134277109589</v>
+        <v>0.0001342771095891315</v>
       </c>
       <c r="W215">
-        <v>1.000575208513086</v>
+        <v>0.0005752085130859008</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -16604,7 +16604,7 @@
         <v>1.878618133416737</v>
       </c>
       <c r="K216">
-        <v>65.26110954449302</v>
+        <v>0.1526110954449302</v>
       </c>
       <c r="L216">
         <v>0.007015887396495299</v>
@@ -16634,13 +16634,13 @@
         <v>0.03125000000001421</v>
       </c>
       <c r="U216">
-        <v>1.000067166900152</v>
+        <v>6.716690015173832E-05</v>
       </c>
       <c r="V216">
-        <v>1.000134259081668</v>
+        <v>0.0001342590816679756</v>
       </c>
       <c r="W216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -16675,7 +16675,7 @@
         <v>1.878618133416737</v>
       </c>
       <c r="K217">
-        <v>65.26110954449302</v>
+        <v>0.1526110954449302</v>
       </c>
       <c r="L217">
         <v>0.00727233316160719</v>
@@ -16705,13 +16705,13 @@
         <v>0.03000000000000114</v>
       </c>
       <c r="U217">
-        <v>1.000067162389062</v>
+        <v>6.716238906201433E-05</v>
       </c>
       <c r="V217">
-        <v>1.000134241058587</v>
+        <v>0.0001342410585865039</v>
       </c>
       <c r="W217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -16746,7 +16746,7 @@
         <v>1.570941827715687</v>
       </c>
       <c r="K218">
-        <v>61.10374846993282</v>
+        <v>0.1110374846993282</v>
       </c>
       <c r="L218">
         <v>0.007358836953064629</v>
@@ -16776,13 +16776,13 @@
         <v>0.02249999999999375</v>
       </c>
       <c r="U218">
-        <v>1.000067157878578</v>
+        <v>6.715787857847211E-05</v>
       </c>
       <c r="V218">
-        <v>1.000095873600246</v>
+        <v>9.587360024565506E-05</v>
       </c>
       <c r="W218">
-        <v>0.9997125610807704</v>
+        <v>-0.0002874389192295546</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -16817,7 +16817,7 @@
         <v>1.743339714073651</v>
       </c>
       <c r="K219">
-        <v>63.54807992353685</v>
+        <v>0.1354807992353685</v>
       </c>
       <c r="L219">
         <v>0.007414869772021424</v>
@@ -16847,13 +16847,13 @@
         <v>0.01749999999999829</v>
       </c>
       <c r="U219">
-        <v>1.000076746707087</v>
+        <v>7.674670708679443E-05</v>
       </c>
       <c r="V219">
-        <v>1.000115037291255</v>
+        <v>0.0001150372912552822</v>
       </c>
       <c r="W219">
-        <v>1.000287521564117</v>
+        <v>0.0002875215641171547</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16888,7 +16888,7 @@
         <v>1.279099579461883</v>
       </c>
       <c r="K220">
-        <v>56.1230229248645</v>
+        <v>0.06123022924864496</v>
       </c>
       <c r="L220">
         <v>0.007212251941606533</v>
@@ -16918,13 +16918,13 @@
         <v>0.01250000000000284</v>
       </c>
       <c r="U220">
-        <v>1.000047963010926</v>
+        <v>4.796301092602206E-05</v>
       </c>
       <c r="V220">
-        <v>1.000038341353066</v>
+        <v>3.83413530662402E-05</v>
       </c>
       <c r="W220">
-        <v>0.9994251221615408</v>
+        <v>-0.0005748778384592201</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16959,7 +16959,7 @@
         <v>1.559408587489494</v>
       </c>
       <c r="K221">
-        <v>60.92847367598727</v>
+        <v>0.1092847367598727</v>
       </c>
       <c r="L221">
         <v>0.007049188125879384</v>
@@ -16989,13 +16989,13 @@
         <v>0.01249999999998863</v>
       </c>
       <c r="U221">
-        <v>1.000086329279054</v>
+        <v>8.632927905449783E-05</v>
       </c>
       <c r="V221">
-        <v>1.000019169941532</v>
+        <v>1.916994153194906E-05</v>
       </c>
       <c r="W221">
-        <v>1.000575208513086</v>
+        <v>0.0005752085130859008</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -17030,7 +17030,7 @@
         <v>1.559408587489494</v>
       </c>
       <c r="K222">
-        <v>60.92847367598727</v>
+        <v>0.1092847367598727</v>
       </c>
       <c r="L222">
         <v>0.006894783885940698</v>
@@ -17060,13 +17060,13 @@
         <v>0.01624999999999943</v>
       </c>
       <c r="U222">
-        <v>1.000067139198742</v>
+        <v>6.713919874168361E-05</v>
       </c>
       <c r="V222">
-        <v>1.000038339148104</v>
+        <v>3.833914810402739E-05</v>
       </c>
       <c r="W222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -17101,7 +17101,7 @@
         <v>1.559408587489494</v>
       </c>
       <c r="K223">
-        <v>60.92847367598727</v>
+        <v>0.1092847367598727</v>
       </c>
       <c r="L223">
         <v>0.006730338949971942</v>
@@ -17131,13 +17131,13 @@
         <v>0.01374999999998749</v>
       </c>
       <c r="U223">
-        <v>1.000067134691372</v>
+        <v>6.713469137231698E-05</v>
       </c>
       <c r="V223">
-        <v>1.000057506517405</v>
+        <v>5.750651740532575E-05</v>
       </c>
       <c r="W223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -17172,7 +17172,7 @@
         <v>1.559408587489494</v>
       </c>
       <c r="K224">
-        <v>60.92847367598727</v>
+        <v>0.1092847367598727</v>
       </c>
       <c r="L224">
         <v>0.006545767720460459</v>
@@ -17202,13 +17202,13 @@
         <v>0.009999999999990905</v>
       </c>
       <c r="U224">
-        <v>1.000067130184608</v>
+        <v>6.713018460802189E-05</v>
       </c>
       <c r="V224">
-        <v>1.000057503210596</v>
+        <v>5.750321059583285E-05</v>
       </c>
       <c r="W224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -17243,7 +17243,7 @@
         <v>1.330470573419526</v>
       </c>
       <c r="K225">
-        <v>57.09021124722082</v>
+        <v>0.07090211247220823</v>
       </c>
       <c r="L225">
         <v>0.006232160656129385</v>
@@ -17273,13 +17273,13 @@
         <v>0.005000000000009663</v>
       </c>
       <c r="U225">
-        <v>1.000047946913178</v>
+        <v>4.794691317777655E-05</v>
       </c>
       <c r="V225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W225">
-        <v>0.9997125610807704</v>
+        <v>-0.0002874389192295546</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -17314,7 +17314,7 @@
         <v>1.152383848516149</v>
       </c>
       <c r="K226">
-        <v>53.53988552323514</v>
+        <v>0.03539885523235142</v>
       </c>
       <c r="L226">
         <v>0.005732934729510379</v>
@@ -17344,13 +17344,13 @@
         <v>0.003749999999996589</v>
       </c>
       <c r="U226">
-        <v>1.000038355691505</v>
+        <v>3.835569150512086E-05</v>
       </c>
       <c r="V226">
-        <v>0.9999808333652779</v>
+        <v>-1.91666347221231E-05</v>
       </c>
       <c r="W226">
-        <v>0.9997124784358827</v>
+        <v>-0.0002875215641172657</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -17385,7 +17385,7 @@
         <v>1.152383848516149</v>
       </c>
       <c r="K227">
-        <v>53.53988552323514</v>
+        <v>0.03539885523235142</v>
       </c>
       <c r="L227">
         <v>0.005132226147713965</v>
@@ -17415,13 +17415,13 @@
         <v>0</v>
       </c>
       <c r="U227">
-        <v>1.000038354220403</v>
+        <v>3.835422040276981E-05</v>
       </c>
       <c r="V227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -17456,7 +17456,7 @@
         <v>1.300696795014553</v>
       </c>
       <c r="K228">
-        <v>56.53490706959173</v>
+        <v>0.06534907069591733</v>
       </c>
       <c r="L228">
         <v>0.004594391582938611</v>
@@ -17486,13 +17486,13 @@
         <v>0.001249999999998863</v>
       </c>
       <c r="U228">
-        <v>1.000057529124119</v>
+        <v>5.752912411916E-05</v>
       </c>
       <c r="V228">
-        <v>1.000019167002089</v>
+        <v>1.916700208903777E-05</v>
       </c>
       <c r="W228">
-        <v>1.000287604256543</v>
+        <v>0.0002876042565429504</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -17527,7 +17527,7 @@
         <v>1.300696795014553</v>
       </c>
       <c r="K229">
-        <v>56.53490706959173</v>
+        <v>0.06534907069591733</v>
       </c>
       <c r="L229">
         <v>0.00411219008600338</v>
@@ -17557,13 +17557,13 @@
         <v>-0.002500000000011937</v>
       </c>
       <c r="U229">
-        <v>1.000047938178924</v>
+        <v>4.793817892445595E-05</v>
       </c>
       <c r="V229">
-        <v>1.000019166634722</v>
+        <v>1.916663472223412E-05</v>
       </c>
       <c r="W229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -17598,7 +17598,7 @@
         <v>1.117114955056768</v>
       </c>
       <c r="K230">
-        <v>52.76590921000857</v>
+        <v>0.02765909210008566</v>
       </c>
       <c r="L230">
         <v>0.003574714852699151</v>
@@ -17628,13 +17628,13 @@
         <v>-0.007499999999993179</v>
       </c>
       <c r="U230">
-        <v>1.000047935880966</v>
+        <v>4.79358809655217E-05</v>
       </c>
       <c r="V230">
-        <v>0.9999616674652613</v>
+        <v>-3.833253473872755E-05</v>
       </c>
       <c r="W230">
-        <v>0.9997124784358827</v>
+        <v>-0.0002875215641172657</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -17669,7 +17669,7 @@
         <v>1.26568458542836</v>
       </c>
       <c r="K231">
-        <v>55.86322975265615</v>
+        <v>0.05863229752656141</v>
       </c>
       <c r="L231">
         <v>0.003129726288035239</v>
@@ -17699,13 +17699,13 @@
         <v>-0.008749999999992042</v>
       </c>
       <c r="U231">
-        <v>1.000057520299872</v>
+        <v>5.75202998724933E-05</v>
       </c>
       <c r="V231">
-        <v>0.9999808329979107</v>
+        <v>-1.916700208925981E-05</v>
       </c>
       <c r="W231">
-        <v>1.000287604256543</v>
+        <v>0.0002876042565429504</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -17740,7 +17740,7 @@
         <v>1.09451446946538</v>
       </c>
       <c r="K232">
-        <v>52.25623816028124</v>
+        <v>0.02256238160281243</v>
       </c>
       <c r="L232">
         <v>0.002653001026401315</v>
@@ -17770,13 +17770,13 @@
         <v>-0.01124999999998977</v>
       </c>
       <c r="U232">
-        <v>1.000047930826232</v>
+        <v>4.793082623155698E-05</v>
       </c>
       <c r="V232">
-        <v>0.9999616652610596</v>
+        <v>-3.83347389404376E-05</v>
       </c>
       <c r="W232">
-        <v>0.9997124784358827</v>
+        <v>-0.0002875215641172657</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -17811,7 +17811,7 @@
         <v>1.236871476502592</v>
       </c>
       <c r="K233">
-        <v>55.29470465761732</v>
+        <v>0.05294704657617322</v>
       </c>
       <c r="L233">
         <v>0.00228249548734414</v>
@@ -17841,13 +17841,13 @@
         <v>-0.009999999999990905</v>
       </c>
       <c r="U233">
-        <v>1.000047928528978</v>
+        <v>4.792852897761435E-05</v>
       </c>
       <c r="V233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W233">
-        <v>1.000287604256543</v>
+        <v>0.0002876042565429504</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17882,7 +17882,7 @@
         <v>1.236871476502592</v>
       </c>
       <c r="K234">
-        <v>55.29470465761732</v>
+        <v>0.05294704657617322</v>
       </c>
       <c r="L234">
         <v>0.001991635211978418</v>
@@ -17912,13 +17912,13 @@
         <v>-0.007499999999993179</v>
       </c>
       <c r="U234">
-        <v>1.000047926231944</v>
+        <v>4.792623194371792E-05</v>
       </c>
       <c r="V234">
-        <v>0.9999808318957255</v>
+        <v>-1.916810427449178E-05</v>
       </c>
       <c r="W234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17953,7 +17953,7 @@
         <v>1.236871476502592</v>
       </c>
       <c r="K235">
-        <v>55.29470465761732</v>
+        <v>0.05294704657617322</v>
       </c>
       <c r="L235">
         <v>0.001760306001507951</v>
@@ -17983,13 +17983,13 @@
         <v>-0.003749999999996589</v>
       </c>
       <c r="U235">
-        <v>1.000028754361078</v>
+        <v>2.875436107818707E-05</v>
       </c>
       <c r="V235">
-        <v>1.000019168471698</v>
+        <v>1.916847169769476E-05</v>
       </c>
       <c r="W235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -18024,7 +18024,7 @@
         <v>1.060746954885619</v>
       </c>
       <c r="K236">
-        <v>51.47390621496734</v>
+        <v>0.01473906214967335</v>
       </c>
       <c r="L236">
         <v>0.001468657001485783</v>
@@ -18054,13 +18054,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U236">
-        <v>0.9999904154885706</v>
+        <v>-9.584511429405751E-06</v>
       </c>
       <c r="V236">
-        <v>0.9999616637914511</v>
+        <v>-3.833620854887254E-05</v>
       </c>
       <c r="W236">
-        <v>0.9997124784358827</v>
+        <v>-0.0002875215641172657</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -18095,7 +18095,7 @@
         <v>1.060746954885619</v>
       </c>
       <c r="K237">
-        <v>51.47390621496734</v>
+        <v>0.01473906214967335</v>
       </c>
       <c r="L237">
         <v>0.00115370600145765</v>
@@ -18125,13 +18125,13 @@
         <v>-0.006249999999994316</v>
       </c>
       <c r="U237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V237">
-        <v>0.9999616623217296</v>
+        <v>-3.833767827043921E-05</v>
       </c>
       <c r="W237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -18166,7 +18166,7 @@
         <v>1.218525534320693</v>
       </c>
       <c r="K238">
-        <v>54.92501733561532</v>
+        <v>0.04925017335615323</v>
       </c>
       <c r="L238">
         <v>0.0009452210373521403</v>
@@ -18196,13 +18196,13 @@
         <v>-0.002499999999997726</v>
       </c>
       <c r="U238">
-        <v>1.000019169206587</v>
+        <v>1.916920658651122E-05</v>
       </c>
       <c r="V238">
-        <v>0.9999808304259481</v>
+        <v>-1.916957405190267E-05</v>
       </c>
       <c r="W238">
-        <v>1.000287604256543</v>
+        <v>0.0002876042565429504</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -18237,7 +18237,7 @@
         <v>1.218525534320693</v>
       </c>
       <c r="K239">
-        <v>54.92501733561532</v>
+        <v>0.04925017335615323</v>
       </c>
       <c r="L239">
         <v>0.0008110770508579264</v>
@@ -18267,13 +18267,13 @@
         <v>-0.001250000000013074</v>
       </c>
       <c r="U239">
-        <v>1.000019168839135</v>
+        <v>1.916883913466449E-05</v>
       </c>
       <c r="V239">
-        <v>0.9999808300584681</v>
+        <v>-1.916994153194906E-05</v>
       </c>
       <c r="W239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -18308,7 +18308,7 @@
         <v>1.218525534320693</v>
       </c>
       <c r="K240">
-        <v>54.92501733561532</v>
+        <v>0.04925017335615323</v>
       </c>
       <c r="L240">
         <v>0.0007275640834688338</v>
@@ -18338,13 +18338,13 @@
         <v>0.002500000000011937</v>
       </c>
       <c r="U240">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="V240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -18379,7 +18379,7 @@
         <v>1.218525534320693</v>
       </c>
       <c r="K241">
-        <v>54.92501733561532</v>
+        <v>0.04925017335615323</v>
       </c>
       <c r="L241">
         <v>0.0006773962728264279</v>
@@ -18409,13 +18409,13 @@
         <v>0.002500000000011937</v>
       </c>
       <c r="U241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V241">
-        <v>1.000019170309025</v>
+        <v>1.917030902531813E-05</v>
       </c>
       <c r="W241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -18450,7 +18450,7 @@
         <v>1.412236238732199</v>
       </c>
       <c r="K242">
-        <v>58.54469044352096</v>
+        <v>0.08544690443520964</v>
       </c>
       <c r="L242">
         <v>0.0007528682891598289</v>
@@ -18480,13 +18480,13 @@
         <v>0.002499999999997726</v>
       </c>
       <c r="U242">
-        <v>1.000019168471698</v>
+        <v>1.916847169769476E-05</v>
       </c>
       <c r="V242">
-        <v>1.000038339883064</v>
+        <v>3.833988306367608E-05</v>
       </c>
       <c r="W242">
-        <v>1.000287521564117</v>
+        <v>0.0002875215641171547</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -18521,7 +18521,7 @@
         <v>1.820048248019726</v>
       </c>
       <c r="K243">
-        <v>64.53961379199052</v>
+        <v>0.1453961379199051</v>
       </c>
       <c r="L243">
         <v>0.001106318379852617</v>
@@ -18551,13 +18551,13 @@
         <v>0.004999999999995453</v>
       </c>
       <c r="U243">
-        <v>1.000038336208549</v>
+        <v>3.833620854898356E-05</v>
       </c>
       <c r="V243">
-        <v>1.00005750761976</v>
+        <v>5.750761975953367E-05</v>
       </c>
       <c r="W243">
-        <v>1.000574877838459</v>
+        <v>0.0005748778384593312</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -18592,7 +18592,7 @@
         <v>1.820048248019726</v>
       </c>
       <c r="K244">
-        <v>64.53961379199052</v>
+        <v>0.1453961379199051</v>
       </c>
       <c r="L244">
         <v>0.001601611975755918</v>
@@ -18622,13 +18622,13 @@
         <v>0.01124999999998977</v>
       </c>
       <c r="U244">
-        <v>1.00003833473894</v>
+        <v>3.833473894032657E-05</v>
       </c>
       <c r="V244">
-        <v>1.000057504312823</v>
+        <v>5.750431282347535E-05</v>
       </c>
       <c r="W244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -18663,7 +18663,7 @@
         <v>1.820048248019726</v>
       </c>
       <c r="K245">
-        <v>64.53961379199052</v>
+        <v>0.1453961379199051</v>
       </c>
       <c r="L245">
         <v>0.002145427802545708</v>
@@ -18693,13 +18693,13 @@
         <v>0.01750000000001251</v>
       </c>
       <c r="U245">
-        <v>1.000019166634722</v>
+        <v>1.916663472223412E-05</v>
       </c>
       <c r="V245">
-        <v>1.000076668008357</v>
+        <v>7.666800835659515E-05</v>
       </c>
       <c r="W245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -18734,7 +18734,7 @@
         <v>1.233385938355996</v>
       </c>
       <c r="K246">
-        <v>55.2249352507295</v>
+        <v>0.05224935250729501</v>
       </c>
       <c r="L246">
         <v>0.002466747397516859</v>
@@ -18764,13 +18764,13 @@
         <v>0.01749999999999829</v>
       </c>
       <c r="U246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V246">
-        <v>1.000019165532706</v>
+        <v>1.916553270620014E-05</v>
       </c>
       <c r="W246">
-        <v>0.9994254524561906</v>
+        <v>-0.0005745475438093672</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -18805,7 +18805,7 @@
         <v>1.233385938355996</v>
       </c>
       <c r="K247">
-        <v>55.2249352507295</v>
+        <v>0.05224935250729501</v>
       </c>
       <c r="L247">
         <v>0.00262381297616169</v>
@@ -18835,13 +18835,13 @@
         <v>0.01874999999999716</v>
       </c>
       <c r="U247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V247">
-        <v>1.00003833033079</v>
+        <v>3.833033079048143E-05</v>
       </c>
       <c r="W247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18876,7 +18876,7 @@
         <v>1.0465034000528</v>
       </c>
       <c r="K248">
-        <v>51.13616718280555</v>
+        <v>0.01136167182805548</v>
       </c>
       <c r="L248">
         <v>0.002557109584912833</v>
@@ -18906,13 +18906,13 @@
         <v>0.01749999999999829</v>
       </c>
       <c r="U248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V248">
-        <v>1</v>
+        <v>2.220446049250313E-16</v>
       </c>
       <c r="W248">
-        <v>0.9997125610807704</v>
+        <v>-0.0002874389192295546</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18947,7 +18947,7 @@
         <v>1.205998052338195</v>
       </c>
       <c r="K249">
-        <v>54.66904429312284</v>
+        <v>0.04669044293122848</v>
       </c>
       <c r="L249">
         <v>0.002454487025463439</v>
@@ -18977,13 +18977,13 @@
         <v>0.01875000000001137</v>
       </c>
       <c r="U249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V249">
-        <v>1.000019164430816</v>
+        <v>1.916443081628749E-05</v>
       </c>
       <c r="W249">
-        <v>1.000287521564117</v>
+        <v>0.0002875215641171547</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -19018,7 +19018,7 @@
         <v>0.9028430307446864</v>
       </c>
       <c r="K250">
-        <v>47.44705770035874</v>
+        <v>-0.02552942299641259</v>
       </c>
       <c r="L250">
         <v>0.00211832178388881</v>
@@ -19048,13 +19048,13 @@
         <v>0.01500000000000057</v>
       </c>
       <c r="U250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V250">
-        <v>0.9999808359364522</v>
+        <v>-1.916406354784961E-05</v>
       </c>
       <c r="W250">
-        <v>0.9994251221615408</v>
+        <v>-0.0005748778384592201</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -19089,7 +19089,7 @@
         <v>0.9028430307446865</v>
       </c>
       <c r="K251">
-        <v>47.44705770035875</v>
+        <v>-0.02552942299641253</v>
       </c>
       <c r="L251">
         <v>0.001654395040487957</v>
@@ -19119,13 +19119,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U251">
-        <v>0.9999808337326306</v>
+        <v>-1.916626736941929E-05</v>
       </c>
       <c r="V251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -19160,7 +19160,7 @@
         <v>1.042107700554718</v>
       </c>
       <c r="K252">
-        <v>51.0309862830271</v>
+        <v>0.01030986283027102</v>
       </c>
       <c r="L252">
         <v>0.001241303762111486</v>
@@ -19190,13 +19190,13 @@
         <v>-0.002499999999997726</v>
       </c>
       <c r="U252">
-        <v>0.999990416682639</v>
+        <v>-9.583317361006038E-06</v>
       </c>
       <c r="V252">
-        <v>1.000019164430817</v>
+        <v>1.916443081650954E-05</v>
       </c>
       <c r="W252">
-        <v>1.000287604256543</v>
+        <v>0.0002876042565429504</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -19231,7 +19231,7 @@
         <v>0.8058434451659672</v>
       </c>
       <c r="K253">
-        <v>44.62421409359246</v>
+        <v>-0.05375785906407543</v>
       </c>
       <c r="L253">
         <v>0.0006714386802083435</v>
@@ -19261,13 +19261,13 @@
         <v>-0.01375000000000171</v>
       </c>
       <c r="U253">
-        <v>0.999971249772394</v>
+        <v>-2.875022760595591E-05</v>
       </c>
       <c r="V253">
-        <v>0.9999616718729041</v>
+        <v>-3.832812709592126E-05</v>
       </c>
       <c r="W253">
-        <v>0.9994249568717652</v>
+        <v>-0.0005750431282347535</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -19302,7 +19302,7 @@
         <v>0.5934153889700696</v>
       </c>
       <c r="K254">
-        <v>37.24172573440712</v>
+        <v>-0.1275827426559288</v>
       </c>
       <c r="L254">
         <v>-0.00027359076092378</v>
@@ -19332,13 +19332,13 @@
         <v>-0.02249999999999375</v>
       </c>
       <c r="U254">
-        <v>0.9999424978915891</v>
+        <v>-5.750210841093395E-05</v>
       </c>
       <c r="V254">
-        <v>0.9999041760095054</v>
+        <v>-9.582399049457013E-05</v>
       </c>
       <c r="W254">
-        <v>0.9991369390103567</v>
+        <v>-0.0008630609896432828</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -19373,7 +19373,7 @@
         <v>0.9633937539533262</v>
       </c>
       <c r="K255">
-        <v>49.06778133594022</v>
+        <v>-0.009322186640597807</v>
       </c>
       <c r="L255">
         <v>-0.0009659496916374076</v>
@@ -19403,13 +19403,13 @@
         <v>-0.02625000000000455</v>
       </c>
       <c r="U255">
-        <v>0.9999904157641514</v>
+        <v>-9.584235848625333E-06</v>
       </c>
       <c r="V255">
-        <v>0.9999808333652779</v>
+        <v>-1.91666347221231E-05</v>
       </c>
       <c r="W255">
-        <v>1.00115174200979</v>
+        <v>0.001151742009789958</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -19444,7 +19444,7 @@
         <v>0.9633937539533262</v>
       </c>
       <c r="K256">
-        <v>49.06778133594022</v>
+        <v>-0.009322186640597807</v>
       </c>
       <c r="L256">
         <v>-0.001457611607911453</v>
@@ -19474,13 +19474,13 @@
         <v>-0.0274999999999892</v>
       </c>
       <c r="U256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V256">
-        <v>0.9999808329979107</v>
+        <v>-1.916700208925981E-05</v>
       </c>
       <c r="W256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -19515,7 +19515,7 @@
         <v>1.168367917378881</v>
       </c>
       <c r="K257">
-        <v>53.88236507350661</v>
+        <v>0.03882365073506611</v>
       </c>
       <c r="L257">
         <v>-0.001581677741294426</v>
@@ -19545,13 +19545,13 @@
         <v>-0.02875000000001648</v>
       </c>
       <c r="U257">
-        <v>1.000019168655415</v>
+        <v>1.916865541473634E-05</v>
       </c>
       <c r="V257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W257">
-        <v>1.000575208513086</v>
+        <v>0.0005752085130859008</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -19586,7 +19586,7 @@
         <v>1.168367917378881</v>
       </c>
       <c r="K258">
-        <v>53.88236507350661</v>
+        <v>0.03882365073506611</v>
       </c>
       <c r="L258">
         <v>-0.001469371225260448</v>
@@ -19616,13 +19616,13 @@
         <v>-0.02374999999999261</v>
       </c>
       <c r="U258">
-        <v>1.000009584143992</v>
+        <v>9.584143991991922E-06</v>
       </c>
       <c r="V258">
-        <v>0.9999616652610593</v>
+        <v>-3.833473894065964E-05</v>
       </c>
       <c r="W258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -19657,7 +19657,7 @@
         <v>1.281927010689437</v>
       </c>
       <c r="K259">
-        <v>56.17738887722484</v>
+        <v>0.06177388877224832</v>
       </c>
       <c r="L259">
         <v>-0.001110968595455179</v>
@@ -19687,13 +19687,13 @@
         <v>-0.01500000000000057</v>
       </c>
       <c r="U259">
-        <v>1.000019168104274</v>
+        <v>1.916810427449178E-05</v>
       </c>
       <c r="V259">
-        <v>0.9999808318957257</v>
+        <v>-1.916810427426974E-05</v>
       </c>
       <c r="W259">
-        <v>1.00028743891923</v>
+        <v>0.0002874389192295546</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -19728,7 +19728,7 @@
         <v>1.281927010689437</v>
       </c>
       <c r="K260">
-        <v>56.17738887722484</v>
+        <v>0.06177388877224832</v>
       </c>
       <c r="L260">
         <v>-0.0006222574656044674</v>
@@ -19758,13 +19758,13 @@
         <v>-0.008750000000006253</v>
       </c>
       <c r="U260">
-        <v>1.000028751605298</v>
+        <v>2.875160529791643E-05</v>
       </c>
       <c r="V260">
-        <v>0.9999808315283022</v>
+        <v>-1.916847169780578E-05</v>
       </c>
       <c r="W260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -19799,7 +19799,7 @@
         <v>1.281927010689437</v>
       </c>
       <c r="K261">
-        <v>56.17738887722484</v>
+        <v>0.06177388877224843</v>
       </c>
       <c r="L261">
         <v>-8.34754421261081E-05</v>
@@ -19829,13 +19829,13 @@
         <v>0.002499999999997726</v>
       </c>
       <c r="U261">
-        <v>1.000019167185778</v>
+        <v>1.916718577787968E-05</v>
       </c>
       <c r="V261">
-        <v>1.000019168839135</v>
+        <v>1.916883913510858E-05</v>
       </c>
       <c r="W261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19870,7 +19870,7 @@
         <v>1.281927010689437</v>
       </c>
       <c r="K262">
-        <v>56.17738887722484</v>
+        <v>0.06177388877224832</v>
       </c>
       <c r="L262">
         <v>0.0004516088802204371</v>
@@ -19900,13 +19900,13 @@
         <v>0.01875000000001137</v>
       </c>
       <c r="U262">
-        <v>1.000028750227606</v>
+        <v>2.875022760595591E-05</v>
       </c>
       <c r="V262">
-        <v>1.000019168471697</v>
+        <v>1.916847169747271E-05</v>
       </c>
       <c r="W262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19941,7 +19941,7 @@
         <v>1.12506901564254</v>
       </c>
       <c r="K263">
-        <v>52.94270479504223</v>
+        <v>0.02942704795042228</v>
       </c>
       <c r="L263">
         <v>0.0008440106144423077</v>
@@ -19971,13 +19971,13 @@
         <v>0.02375000000000682</v>
       </c>
       <c r="U263">
-        <v>1.000009583133685</v>
+        <v>9.583133684820666E-06</v>
       </c>
       <c r="V263">
-        <v>1.000019168104275</v>
+        <v>1.916810427471383E-05</v>
       </c>
       <c r="W263">
-        <v>0.9997126436781609</v>
+        <v>-0.0002873563218390718</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -20012,7 +20012,7 @@
         <v>0.996693714504144</v>
       </c>
       <c r="K264">
-        <v>49.91720599229018</v>
+        <v>-0.0008279400770982437</v>
       </c>
       <c r="L264">
         <v>0.001017195197241629</v>
@@ -20042,13 +20042,13 @@
         <v>0.02625000000000455</v>
       </c>
       <c r="U264">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V264">
-        <v>0.9999808322631347</v>
+        <v>-1.916773686527762E-05</v>
       </c>
       <c r="W264">
-        <v>0.9997125610807704</v>
+        <v>-0.0002874389192295546</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -20083,7 +20083,7 @@
         <v>1.236913459348824</v>
       </c>
       <c r="K265">
-        <v>55.29554369568215</v>
+        <v>0.05295543695682148</v>
       </c>
       <c r="L265">
         <v>0.001252217436281278</v>
@@ -20113,13 +20113,13 @@
         <v>0.0274999999999892</v>
       </c>
       <c r="U265">
-        <v>1.000019166083698</v>
+        <v>1.91660836981189E-05</v>
       </c>
       <c r="V265">
-        <v>1.000057504312823</v>
+        <v>5.750431282347535E-05</v>
       </c>
       <c r="W265">
-        <v>1.000575043128235</v>
+        <v>0.0005750431282345314</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -20154,7 +20154,7 @@
         <v>0.8967726676530784</v>
       </c>
       <c r="K266">
-        <v>47.27886915213073</v>
+        <v>-0.02721130847869269</v>
       </c>
       <c r="L266">
         <v>0.001191088495636468</v>
@@ -20184,13 +20184,13 @@
         <v>0.02249999999999375</v>
       </c>
       <c r="U266">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V266">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W266">
-        <v>0.9991379310344829</v>
+        <v>-0.0008620689655171043</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -20225,7 +20225,7 @@
         <v>1.089749217963825</v>
       </c>
       <c r="K267">
-        <v>52.14736814332375</v>
+        <v>0.02147368143323747</v>
       </c>
       <c r="L267">
         <v>0.001159488699961433</v>
@@ -20255,13 +20255,13 @@
         <v>0.01749999999999829</v>
       </c>
       <c r="U267">
-        <v>1.000019165716367</v>
+        <v>1.916571636662034E-05</v>
       </c>
       <c r="V267">
-        <v>1.000019167002089</v>
+        <v>1.916700208903777E-05</v>
       </c>
       <c r="W267">
-        <v>1.000575208513086</v>
+        <v>0.0005752085130859008</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -20296,7 +20296,7 @@
         <v>1.191315823390533</v>
       </c>
       <c r="K268">
-        <v>54.36531834773405</v>
+        <v>0.04365318347734048</v>
       </c>
       <c r="L268">
         <v>0.00124825680644718</v>
@@ -20326,13 +20326,13 @@
         <v>0.01500000000000057</v>
       </c>
       <c r="U268">
-        <v>1.000019165349049</v>
+        <v>1.916534904888856E-05</v>
       </c>
       <c r="V268">
-        <v>1.000076666538889</v>
+        <v>7.666653888915853E-05</v>
       </c>
       <c r="W268">
-        <v>1.00028743891923</v>
+        <v>0.0002874389192295546</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -20367,7 +20367,7 @@
         <v>1.191315823390533</v>
       </c>
       <c r="K269">
-        <v>54.36531834773405</v>
+        <v>0.04365318347734048</v>
       </c>
       <c r="L269">
         <v>0.001399739469125942</v>
@@ -20397,13 +20397,13 @@
         <v>0.009999999999990905</v>
       </c>
       <c r="U269">
-        <v>1.000019164981745</v>
+        <v>1.916498174536763E-05</v>
       </c>
       <c r="V269">
-        <v>1.000134156157768</v>
+        <v>0.0001341561577676842</v>
       </c>
       <c r="W269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -20438,7 +20438,7 @@
         <v>1.303854998378656</v>
       </c>
       <c r="K270">
-        <v>56.59449050813733</v>
+        <v>0.0659449050813733</v>
       </c>
       <c r="L270">
         <v>0.001679146246890411</v>
@@ -20468,13 +20468,13 @@
         <v>0.002499999999997726</v>
       </c>
       <c r="U270">
-        <v>1.000028746921684</v>
+        <v>2.87469216839753E-05</v>
       </c>
       <c r="V270">
-        <v>1.000076650378461</v>
+        <v>7.665037846127376E-05</v>
       </c>
       <c r="W270">
-        <v>1.000287356321839</v>
+        <v>0.0002873563218392938</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -20509,7 +20509,7 @@
         <v>1.422317287839753</v>
       </c>
       <c r="K271">
-        <v>58.71721656695891</v>
+        <v>0.08717216566958907</v>
       </c>
       <c r="L271">
         <v>0.002116805638852466</v>
@@ -20539,13 +20539,13 @@
         <v>0.003749999999996589</v>
       </c>
       <c r="U271">
-        <v>1.000038328127096</v>
+        <v>3.832812709614331E-05</v>
       </c>
       <c r="V271">
-        <v>1.000095805629539</v>
+        <v>9.580562953881433E-05</v>
       </c>
       <c r="W271">
-        <v>1.000287273771905</v>
+        <v>0.0002872737719046281</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -20580,7 +20580,7 @@
         <v>1.547014434640908</v>
       </c>
       <c r="K272">
-        <v>60.73834579029446</v>
+        <v>0.1073834579029446</v>
       </c>
       <c r="L272">
         <v>0.002719402023565157</v>
@@ -20610,13 +20610,13 @@
         <v>0.008750000000006253</v>
       </c>
       <c r="U272">
-        <v>1.000038326658107</v>
+        <v>3.832665810699076E-05</v>
       </c>
       <c r="V272">
-        <v>1.00007663716136</v>
+        <v>7.663716135963838E-05</v>
       </c>
       <c r="W272">
-        <v>1.000287191269385</v>
+        <v>0.0002871912693853673</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -20651,7 +20651,7 @@
         <v>1.547014434640909</v>
       </c>
       <c r="K273">
-        <v>60.73834579029447</v>
+        <v>0.1073834579029447</v>
       </c>
       <c r="L273">
         <v>0.003373585792988155</v>
@@ -20681,13 +20681,13 @@
         <v>0.01125000000000398</v>
       </c>
       <c r="U273">
-        <v>1.000019162594615</v>
+        <v>1.916259461531844E-05</v>
       </c>
       <c r="V273">
-        <v>1.000076631288555</v>
+        <v>7.663128855495138E-05</v>
       </c>
       <c r="W273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -20722,7 +20722,7 @@
         <v>1.547014434640908</v>
       </c>
       <c r="K274">
-        <v>60.73834579029446</v>
+        <v>0.1073834579029446</v>
       </c>
       <c r="L274">
         <v>0.00400501319757698</v>
@@ -20752,13 +20752,13 @@
         <v>0.02124999999999488</v>
       </c>
       <c r="U274">
-        <v>1.000019162227417</v>
+        <v>1.91622274172687E-05</v>
       </c>
       <c r="V274">
-        <v>1.000057469062488</v>
+        <v>5.746906248793593E-05</v>
       </c>
       <c r="W274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -20793,7 +20793,7 @@
         <v>1.547014434640908</v>
       </c>
       <c r="K275">
-        <v>60.73834579029445</v>
+        <v>0.1073834579029446</v>
       </c>
       <c r="L275">
         <v>0.004567795150815009</v>
@@ -20823,13 +20823,13 @@
         <v>0.0274999999999892</v>
       </c>
       <c r="U275">
-        <v>1.000019161860233</v>
+        <v>1.916186023342981E-05</v>
       </c>
       <c r="V275">
-        <v>1.000057465759985</v>
+        <v>5.746575998499814E-05</v>
       </c>
       <c r="W275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20864,7 +20864,7 @@
         <v>1.341618791144566</v>
       </c>
       <c r="K276">
-        <v>57.29450054886144</v>
+        <v>0.07294500548861438</v>
       </c>
       <c r="L276">
         <v>0.004931792377872573</v>
@@ -20894,13 +20894,13 @@
         <v>0.03000000000000114</v>
       </c>
       <c r="U276">
-        <v>1.000028742239595</v>
+        <v>2.874223959525857E-05</v>
       </c>
       <c r="V276">
-        <v>1.00003830830524</v>
+        <v>3.830830524043094E-05</v>
       </c>
       <c r="W276">
-        <v>0.9997128911857595</v>
+        <v>-0.0002871088142405442</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20935,7 +20935,7 @@
         <v>1.481375690421754</v>
       </c>
       <c r="K277">
-        <v>59.69977444930831</v>
+        <v>0.09699774449308318</v>
       </c>
       <c r="L277">
         <v>0.005238855072163214</v>
@@ -20965,13 +20965,13 @@
         <v>0.03374999999999773</v>
       </c>
       <c r="U277">
-        <v>1.00003832188467</v>
+        <v>3.832188467023379E-05</v>
       </c>
       <c r="V277">
-        <v>1.000057460256656</v>
+        <v>5.74602566558724E-05</v>
       </c>
       <c r="W277">
-        <v>1.000287191269385</v>
+        <v>0.0002871912693853673</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -21006,7 +21006,7 @@
         <v>1.481375690421754</v>
       </c>
       <c r="K278">
-        <v>59.69977444930831</v>
+        <v>0.09699774449308318</v>
       </c>
       <c r="L278">
         <v>0.005472754741890521</v>
@@ -21036,13 +21036,13 @@
         <v>0.03499999999999659</v>
       </c>
       <c r="U278">
-        <v>1.0000479005202</v>
+        <v>4.790052019987279E-05</v>
       </c>
       <c r="V278">
-        <v>1.000076609273553</v>
+        <v>7.660927355268576E-05</v>
       </c>
       <c r="W278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -21077,7 +21077,7 @@
         <v>1.282737069462252</v>
       </c>
       <c r="K279">
-        <v>56.19293989756027</v>
+        <v>0.06192939897560268</v>
       </c>
       <c r="L279">
         <v>0.005522825369624707</v>
@@ -21107,13 +21107,13 @@
         <v>0.03125</v>
       </c>
       <c r="U279">
-        <v>1.00002873893551</v>
+        <v>2.873893550980888E-05</v>
       </c>
       <c r="V279">
-        <v>1.000076603405021</v>
+        <v>7.660340502124718E-05</v>
       </c>
       <c r="W279">
-        <v>0.9997128911857595</v>
+        <v>-0.0002871088142405442</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -21148,7 +21148,7 @@
         <v>1.423885116222084</v>
       </c>
       <c r="K280">
-        <v>58.74391928448243</v>
+        <v>0.08743919284482427</v>
       </c>
       <c r="L280">
         <v>0.005542873366800666</v>
@@ -21178,13 +21178,13 @@
         <v>0.02500000000000568</v>
       </c>
       <c r="U280">
-        <v>1.000057476219214</v>
+        <v>5.747621921425861E-05</v>
       </c>
       <c r="V280">
-        <v>1.000057448153042</v>
+        <v>5.744815304198347E-05</v>
       </c>
       <c r="W280">
-        <v>1.000287191269385</v>
+        <v>0.0002871912693853673</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -21219,7 +21219,7 @@
         <v>1.423885116222084</v>
       </c>
       <c r="K281">
-        <v>58.74391928448243</v>
+        <v>0.08743919284482427</v>
       </c>
       <c r="L281">
         <v>0.005523256357165567</v>
@@ -21249,13 +21249,13 @@
         <v>0.02124999999999488</v>
       </c>
       <c r="U281">
-        <v>1.000057472915888</v>
+        <v>5.747291588842351E-05</v>
       </c>
       <c r="V281">
-        <v>1.000114889705882</v>
+        <v>0.0001148897058822484</v>
       </c>
       <c r="W281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -21290,7 +21290,7 @@
         <v>1.423885116222084</v>
       </c>
       <c r="K282">
-        <v>58.74391928448243</v>
+        <v>0.08743919284482427</v>
       </c>
       <c r="L282">
         <v>0.005460735373275458</v>
@@ -21320,13 +21320,13 @@
         <v>0.01375000000001592</v>
       </c>
       <c r="U282">
-        <v>1.000047891344118</v>
+        <v>4.789134411842255E-05</v>
       </c>
       <c r="V282">
-        <v>1.000076584338503</v>
+        <v>7.6584338502661E-05</v>
       </c>
       <c r="W282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -21361,7 +21361,7 @@
         <v>1.222609238196723</v>
       </c>
       <c r="K283">
-        <v>55.00783570883861</v>
+        <v>0.05007835708838615</v>
       </c>
       <c r="L283">
         <v>0.00525168630494363</v>
@@ -21391,13 +21391,13 @@
         <v>0.00750000000000739</v>
       </c>
       <c r="U283">
-        <v>1.000057466860777</v>
+        <v>5.746686077690022E-05</v>
       </c>
       <c r="V283">
-        <v>1.000038289236896</v>
+        <v>3.828923689552788E-05</v>
       </c>
       <c r="W283">
-        <v>0.9997128911857595</v>
+        <v>-0.0002871088142405442</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -21432,7 +21432,7 @@
         <v>1.37140589522759</v>
       </c>
       <c r="K284">
-        <v>57.83092206979492</v>
+        <v>0.07830922069794921</v>
       </c>
       <c r="L284">
         <v>0.005052699068723972</v>
@@ -21462,13 +21462,13 @@
         <v>0.006249999999994316</v>
       </c>
       <c r="U284">
-        <v>1.000095772597545</v>
+        <v>9.577259754456335E-05</v>
       </c>
       <c r="V284">
-        <v>1.000057431656329</v>
+        <v>5.743165632909886E-05</v>
       </c>
       <c r="W284">
-        <v>1.000287191269385</v>
+        <v>0.0002871912693853673</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -21503,7 +21503,7 @@
         <v>1.37140589522759</v>
       </c>
       <c r="K285">
-        <v>57.83092206979492</v>
+        <v>0.07830922069794921</v>
       </c>
       <c r="L285">
         <v>0.004854081872573129</v>
@@ -21533,13 +21533,13 @@
         <v>0.002500000000011937</v>
       </c>
       <c r="U285">
-        <v>1.000057458055619</v>
+        <v>5.745805561918615E-05</v>
       </c>
       <c r="V285">
-        <v>1.000038285572082</v>
+        <v>3.828557208196415E-05</v>
       </c>
       <c r="W285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -21574,7 +21574,7 @@
         <v>1.177302155548051</v>
       </c>
       <c r="K286">
-        <v>54.07160198450779</v>
+        <v>0.04071601984507789</v>
       </c>
       <c r="L286">
         <v>0.004546054111484983</v>
@@ -21604,13 +21604,13 @@
         <v>-0.001249999999998863</v>
       </c>
       <c r="U286">
-        <v>1.000047878961984</v>
+        <v>4.787896198399366E-05</v>
       </c>
       <c r="V286">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W286">
-        <v>0.9997128911857595</v>
+        <v>-0.0002871088142405442</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -21645,7 +21645,7 @@
         <v>0.9070325759601298</v>
       </c>
       <c r="K287">
-        <v>47.56251085556145</v>
+        <v>-0.02437489144438554</v>
       </c>
       <c r="L287">
         <v>0.003965618515337794</v>
@@ -21675,13 +21675,13 @@
         <v>-0.003749999999996589</v>
       </c>
       <c r="U287">
-        <v>1.00000957533394</v>
+        <v>9.575333939970676E-06</v>
       </c>
       <c r="V287">
-        <v>0.9999425738404703</v>
+        <v>-5.742615952974983E-05</v>
       </c>
       <c r="W287">
-        <v>0.999425617461229</v>
+        <v>-0.0005743825387709567</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -21716,7 +21716,7 @@
         <v>0.6657246778240093</v>
       </c>
       <c r="K288">
-        <v>39.96606922421701</v>
+        <v>-0.1003393077578299</v>
       </c>
       <c r="L288">
         <v>0.002928931637303016</v>
@@ -21746,13 +21746,13 @@
         <v>-0.01125000000000398</v>
       </c>
       <c r="U288">
-        <v>0.9999808495154927</v>
+        <v>-1.915048450729095E-05</v>
       </c>
       <c r="V288">
-        <v>0.9998851410850338</v>
+        <v>-0.0001148589149662094</v>
       </c>
       <c r="W288">
-        <v>0.9991379310344829</v>
+        <v>-0.0008620689655171043</v>
       </c>
     </row>
   </sheetData>

--- a/data_clean/Storebrand 14.01.2021.xlsx
+++ b/data_clean/Storebrand 14.01.2021.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="311">
   <si>
     <t>tid</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>open_15_sma</t>
+  </si>
+  <si>
+    <t>open_3_sma</t>
   </si>
   <si>
     <t>sma8-16</t>
@@ -1301,13 +1304,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W288"/>
+  <dimension ref="A1:X288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1377,10 +1380,13 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>68.90000000000001</v>
@@ -1437,7 +1443,7 @@
         <v>68.90000000000001</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -1448,10 +1454,13 @@
       <c r="W2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>68.98</v>
@@ -1508,7 +1517,7 @@
         <v>68.94</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>68.94</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -1519,10 +1528,13 @@
       <c r="W3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>68.84</v>
@@ -1579,21 +1591,24 @@
         <v>68.90666666666668</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>68.90666666666668</v>
       </c>
       <c r="U4">
-        <v>-0.0004835122328592512</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>-0.0004835122328592512</v>
       </c>
       <c r="W4">
+        <v>-0.0004835122328592512</v>
+      </c>
+      <c r="X4">
         <v>-0.002029573789504191</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>69.08</v>
@@ -1650,21 +1665,24 @@
         <v>68.95</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>68.96666666666667</v>
       </c>
       <c r="U5">
-        <v>0.0006288699690399913</v>
+        <v>0</v>
       </c>
       <c r="V5">
         <v>0.0006288699690399913</v>
       </c>
       <c r="W5">
+        <v>0.0006288699690399913</v>
+      </c>
+      <c r="X5">
         <v>0.003486345148169701</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>69.18000000000001</v>
@@ -1721,21 +1739,24 @@
         <v>68.99600000000001</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>69.03333333333335</v>
       </c>
       <c r="U6">
-        <v>0.0006671501087744947</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <v>0.0006671501087744947</v>
       </c>
       <c r="W6">
+        <v>0.0006671501087744947</v>
+      </c>
+      <c r="X6">
         <v>0.001447596988998434</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>69.2</v>
@@ -1792,21 +1813,24 @@
         <v>69.03</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>69.15333333333332</v>
       </c>
       <c r="U7">
-        <v>0.0004927821902718232</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <v>0.0004927821902718232</v>
       </c>
       <c r="W7">
+        <v>0.0004927821902718232</v>
+      </c>
+      <c r="X7">
         <v>0.0002891008962127017</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>69.34</v>
@@ -1863,21 +1887,24 @@
         <v>69.07428571428572</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>69.24000000000001</v>
       </c>
       <c r="U8">
-        <v>0.0006415430144244283</v>
+        <v>0</v>
       </c>
       <c r="V8">
         <v>0.0006415430144244283</v>
       </c>
       <c r="W8">
+        <v>0.0006415430144244283</v>
+      </c>
+      <c r="X8">
         <v>0.002023121387283222</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>69.38</v>
@@ -1934,21 +1961,24 @@
         <v>69.1125</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>69.30666666666667</v>
       </c>
       <c r="U9">
-        <v>0.0005532346128389598</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <v>0.0005532346128389598</v>
       </c>
       <c r="W9">
+        <v>0.0005532346128389598</v>
+      </c>
+      <c r="X9">
         <v>0.0005768676088835356</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>69.5</v>
@@ -2005,21 +2035,24 @@
         <v>69.15555555555555</v>
       </c>
       <c r="T10">
+        <v>69.40666666666668</v>
+      </c>
+      <c r="U10">
         <v>0.03194444444444855</v>
-      </c>
-      <c r="U10">
-        <v>0.0006229778340467451</v>
       </c>
       <c r="V10">
         <v>0.0006229778340467451</v>
       </c>
       <c r="W10">
+        <v>0.0006229778340467451</v>
+      </c>
+      <c r="X10">
         <v>0.001729605073508278</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>69.5</v>
@@ -2076,21 +2109,24 @@
         <v>69.19</v>
       </c>
       <c r="T11">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="U11">
         <v>0.0625</v>
-      </c>
-      <c r="U11">
-        <v>0.0004980719794345223</v>
       </c>
       <c r="V11">
         <v>0.0004980719794345223</v>
       </c>
       <c r="W11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
+        <v>0.0004980719794345223</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>69.64</v>
@@ -2147,21 +2183,24 @@
         <v>69.23090909090909</v>
       </c>
       <c r="T12">
+        <v>69.54666666666667</v>
+      </c>
+      <c r="U12">
         <v>0.121590909090898</v>
-      </c>
-      <c r="U12">
-        <v>0.0005912572757493795</v>
       </c>
       <c r="V12">
         <v>0.0005912572757493795</v>
       </c>
       <c r="W12">
+        <v>0.0005912572757493795</v>
+      </c>
+      <c r="X12">
         <v>0.002014388489208541</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>69.64</v>
@@ -2218,21 +2257,24 @@
         <v>69.265</v>
       </c>
       <c r="T13">
+        <v>69.59333333333332</v>
+      </c>
+      <c r="U13">
         <v>0.1574999999999989</v>
-      </c>
-      <c r="U13">
-        <v>0.0004924232476297696</v>
       </c>
       <c r="V13">
         <v>0.0004924232476297696</v>
       </c>
       <c r="W13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
+        <v>0.0004924232476297696</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>69.5</v>
@@ -2289,21 +2331,24 @@
         <v>69.28307692307693</v>
       </c>
       <c r="T14">
+        <v>69.59333333333332</v>
+      </c>
+      <c r="U14">
         <v>0.1794230769230722</v>
-      </c>
-      <c r="U14">
-        <v>0.0002609820699766008</v>
       </c>
       <c r="V14">
         <v>0.0002609820699766008</v>
       </c>
       <c r="W14">
+        <v>0.0002609820699766008</v>
+      </c>
+      <c r="X14">
         <v>-0.002010338885697904</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>69.5</v>
@@ -2360,21 +2405,24 @@
         <v>69.29857142857144</v>
       </c>
       <c r="T15">
+        <v>69.54666666666667</v>
+      </c>
+      <c r="U15">
         <v>0.2014285714285649</v>
-      </c>
-      <c r="U15">
-        <v>0.0002236405509488115</v>
       </c>
       <c r="V15">
         <v>0.0002236405509488115</v>
       </c>
       <c r="W15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
+        <v>0.0002236405509488115</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>69.54000000000001</v>
@@ -2431,21 +2479,24 @@
         <v>69.31466666666667</v>
       </c>
       <c r="T16">
+        <v>69.51333333333334</v>
+      </c>
+      <c r="U16">
         <v>0.2103333333333381</v>
-      </c>
-      <c r="U16">
-        <v>0.00023225930583326</v>
       </c>
       <c r="V16">
         <v>0.00023225930583326</v>
       </c>
       <c r="W16">
+        <v>0.00023225930583326</v>
+      </c>
+      <c r="X16">
         <v>0.000575539568345329</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>69.5</v>
@@ -2502,21 +2553,24 @@
         <v>69.35466666666667</v>
       </c>
       <c r="T17">
+        <v>69.51333333333334</v>
+      </c>
+      <c r="U17">
         <v>0.2137499999999903</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>0.0001671122994653107</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>0.0005770784441965215</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>-0.0005752085130861229</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>69.54000000000001</v>
@@ -2573,21 +2627,24 @@
         <v>69.39200000000001</v>
       </c>
       <c r="T18">
+        <v>69.52666666666669</v>
+      </c>
+      <c r="U18">
         <v>0.178750000000008</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>0.0001813675110331481</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>0.0005382959089510475</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>0.000575539568345329</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>69.56</v>
@@ -2644,21 +2701,24 @@
         <v>69.44</v>
       </c>
       <c r="T19">
+        <v>69.53333333333335</v>
+      </c>
+      <c r="U19">
         <v>0.1500000000000057</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>0.000177210703526498</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>0.0006917223887477064</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>0.0002876042565429504</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>69.59999999999999</v>
@@ -2715,21 +2775,24 @@
         <v>69.47466666666668</v>
       </c>
       <c r="T20">
+        <v>69.56666666666666</v>
+      </c>
+      <c r="U20">
         <v>0.09749999999999659</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>0.0001888854409799468</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0.0004992319508450027</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0.0005750431282345314</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>69.59999999999999</v>
@@ -2786,21 +2849,24 @@
         <v>69.50266666666667</v>
       </c>
       <c r="T21">
+        <v>69.58666666666666</v>
+      </c>
+      <c r="U21">
         <v>0.06000000000000227</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.0001699647930073489</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.0004030246036923479</v>
       </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="X21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>69.68000000000001</v>
@@ -2857,21 +2923,24 @@
         <v>69.53466666666667</v>
       </c>
       <c r="T22">
+        <v>69.62666666666667</v>
+      </c>
+      <c r="U22">
         <v>0.05124999999999602</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.0002086628009136948</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.0004604139889117231</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.001149425287356509</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23">
         <v>69.68000000000001</v>
@@ -2928,21 +2997,24 @@
         <v>69.55733333333335</v>
       </c>
       <c r="T23">
+        <v>69.65333333333335</v>
+      </c>
+      <c r="U23">
         <v>0.04375000000000284</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>0.0001896538816659188</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>0.0003259764913425833</v>
       </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23">
+      <c r="X23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24">
         <v>69.68000000000001</v>
@@ -2999,21 +3071,24 @@
         <v>69.57733333333334</v>
       </c>
       <c r="T24">
+        <v>69.68000000000001</v>
+      </c>
+      <c r="U24">
         <v>0.04000000000000625</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>0.0001731294051181553</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>0.0002875325870264067</v>
       </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23">
+      <c r="X24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25">
         <v>69.68000000000001</v>
@@ -3070,21 +3145,24 @@
         <v>69.58933333333334</v>
       </c>
       <c r="T25">
+        <v>69.68000000000001</v>
+      </c>
+      <c r="U25">
         <v>0.04375000000000284</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>0.0001586744834727316</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>0.0001724699614817915</v>
       </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23">
+      <c r="X25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26">
         <v>69.72</v>
@@ -3141,21 +3219,24 @@
         <v>69.60400000000001</v>
       </c>
       <c r="T26">
+        <v>69.69333333333333</v>
+      </c>
+      <c r="U26">
         <v>0.05250000000000909</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>0.0001690032648358208</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>0.0002107602697731803</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>0.0005740528128586053</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>69.73999999999999</v>
@@ -3212,21 +3293,24 @@
         <v>69.61066666666666</v>
       </c>
       <c r="T27">
+        <v>69.71333333333332</v>
+      </c>
+      <c r="U27">
         <v>0.06000000000000227</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>0.0001670545404273138</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>9.577993601861401E-05</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>0.0002868617326448053</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28">
         <v>69.72</v>
@@ -3283,21 +3367,24 @@
         <v>69.616</v>
       </c>
       <c r="T28">
+        <v>69.72666666666666</v>
+      </c>
+      <c r="U28">
         <v>0.06999999999999318</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>0.0001439884809215641</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>7.661661048130597E-05</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>-0.0002867794665901702</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29">
         <v>69.66</v>
@@ -3354,21 +3441,24 @@
         <v>69.62666666666668</v>
       </c>
       <c r="T29">
+        <v>69.70666666666666</v>
+      </c>
+      <c r="U29">
         <v>0.07624999999998749</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>0.0001028341080169248</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>0.0001532214816519772</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>-0.0008605851979346379</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30">
         <v>69.58</v>
@@ -3425,21 +3515,24 @@
         <v>69.63200000000001</v>
       </c>
       <c r="T30">
+        <v>69.65333333333332</v>
+      </c>
+      <c r="U30">
         <v>0.05875000000000341</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>5.602109797098187E-05</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>7.659900421286281E-05</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>-0.001148435256962399</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>69.5</v>
@@ -3496,21 +3589,24 @@
         <v>69.62933333333334</v>
       </c>
       <c r="T31">
+        <v>69.58</v>
+      </c>
+      <c r="U31">
         <v>0.03624999999999545</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>1.389812673080471E-05</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>-3.829656862752717E-05</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>-0.001149755676918662</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B32">
         <v>69.56</v>
@@ -3567,21 +3663,24 @@
         <v>69.63333333333334</v>
       </c>
       <c r="T32">
+        <v>69.54666666666667</v>
+      </c>
+      <c r="U32">
         <v>0.01999999999999602</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>0.0003166743436204822</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>5.744705296617525E-05</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>0.0008633093525181046</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33">
         <v>69.48</v>
@@ -3638,21 +3737,24 @@
         <v>69.62933333333334</v>
       </c>
       <c r="T33">
+        <v>69.51333333333334</v>
+      </c>
+      <c r="U33">
         <v>-0.003749999999996589</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>0.0002398288581266783</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>-5.744375299188142E-05</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>-0.001150086256469174</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34">
         <v>69.42</v>
@@ -3709,21 +3811,24 @@
         <v>69.61999999999999</v>
       </c>
       <c r="T34">
+        <v>69.48666666666668</v>
+      </c>
+      <c r="U34">
         <v>-0.03375000000001194</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>0.0002781347706828363</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>-0.0001340431235878903</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>-0.0008635578583765513</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B35">
         <v>69.42</v>
@@ -3780,21 +3885,24 @@
         <v>69.60799999999999</v>
       </c>
       <c r="T35">
+        <v>69.44000000000001</v>
+      </c>
+      <c r="U35">
         <v>-0.06499999999999773</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>0.0001629991850040646</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>-0.0001723642631428213</v>
       </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23">
+      <c r="X35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B36">
         <v>69.5</v>
@@ -3851,21 +3959,24 @@
         <v>69.60133333333333</v>
       </c>
       <c r="T36">
+        <v>69.44666666666667</v>
+      </c>
+      <c r="U36">
         <v>-0.08624999999999261</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>0.0001533859958584571</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>-9.577443205754932E-05</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>0.001152405646787535</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37">
         <v>69.5</v>
@@ -3922,21 +4033,24 @@
         <v>69.58933333333333</v>
       </c>
       <c r="T37">
+        <v>69.47333333333334</v>
+      </c>
+      <c r="U37">
         <v>-0.09999999999999432</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>0.0001437773176904411</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>-0.0001724104902205426</v>
       </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23">
+      <c r="X37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38">
         <v>69.5</v>
@@ -3993,21 +4107,24 @@
         <v>69.57733333333334</v>
       </c>
       <c r="T38">
+        <v>69.5</v>
+      </c>
+      <c r="U38">
         <v>-0.09874999999999545</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>7.667021266399843E-05</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>-0.0001724402207232689</v>
       </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23">
+      <c r="X38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39">
         <v>69.45999999999999</v>
@@ -4064,21 +4181,24 @@
         <v>69.56266666666667</v>
       </c>
       <c r="T39">
+        <v>69.48666666666666</v>
+      </c>
+      <c r="U39">
         <v>-0.0899999999999892</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>3.833216739645984E-05</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>-0.0002107966195887823</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>-0.0005755395683454401</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B40">
         <v>69.45999999999999</v>
@@ -4135,21 +4255,24 @@
         <v>69.548</v>
       </c>
       <c r="T40">
+        <v>69.47333333333333</v>
+      </c>
+      <c r="U40">
         <v>-0.08875000000000455</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>-1.916534904888856E-05</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>-0.0002108410641723513</v>
       </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23">
+      <c r="X40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B41">
         <v>69.38</v>
@@ -4206,21 +4329,24 @@
         <v>69.52533333333334</v>
       </c>
       <c r="T41">
+        <v>69.43333333333332</v>
+      </c>
+      <c r="U41">
         <v>-0.08249999999999602</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>-5.749714909952797E-05</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>-0.0003259139970476221</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>-0.001151742009789736</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B42">
         <v>69.59999999999999</v>
@@ -4277,21 +4403,24 @@
         <v>69.51600000000001</v>
       </c>
       <c r="T42">
+        <v>69.47999999999999</v>
+      </c>
+      <c r="U42">
         <v>-0.05250000000000909</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>-1.916681840397061E-05</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>-0.0001342436330161734</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>0.003170942634765028</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B43">
         <v>69.66</v>
@@ -4348,21 +4477,24 @@
         <v>69.51199999999999</v>
       </c>
       <c r="T43">
+        <v>69.54666666666667</v>
+      </c>
+      <c r="U43">
         <v>-0.01750000000001251</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>9.583592889050863E-06</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>-5.754071005259487E-05</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>0.0008620689655172153</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B44">
         <v>69.66</v>
@@ -4419,21 +4551,24 @@
         <v>69.512</v>
       </c>
       <c r="T44">
+        <v>69.64</v>
+      </c>
+      <c r="U44">
         <v>0.006250000000008527</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>7.666800835659515E-05</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23">
+      <c r="X44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45">
         <v>69.66</v>
@@ -4490,21 +4625,24 @@
         <v>69.51733333333333</v>
       </c>
       <c r="T45">
+        <v>69.66</v>
+      </c>
+      <c r="U45">
         <v>0.02625000000000455</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>7.666213082391238E-05</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>7.67253615681085E-05</v>
       </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23">
+      <c r="X45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B46">
         <v>69.59999999999999</v>
@@ -4561,21 +4699,24 @@
         <v>69.52399999999999</v>
       </c>
       <c r="T46">
+        <v>69.64</v>
+      </c>
+      <c r="U46">
         <v>0.03750000000000853</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>2.874609532210748E-05</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>9.589934404830025E-05</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>-0.0008613264427218548</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B47">
         <v>69.54000000000001</v>
@@ -4632,21 +4773,24 @@
         <v>69.52266666666667</v>
       </c>
       <c r="T47">
+        <v>69.60000000000001</v>
+      </c>
+      <c r="U47">
         <v>0.04500000000000171</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>1.916351267183813E-05</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>-1.917802964901405E-05</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>-0.0008620689655171043</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48">
         <v>69.5</v>
@@ -4703,21 +4847,24 @@
         <v>69.52399999999999</v>
       </c>
       <c r="T48">
+        <v>69.54666666666667</v>
+      </c>
+      <c r="U48">
         <v>0.05375000000000796</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>-1.916314543870534E-05</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>1.917839745302352E-05</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>-0.0005752085130861229</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B49">
         <v>69.5</v>
@@ -4774,21 +4921,24 @@
         <v>69.52933333333334</v>
       </c>
       <c r="T49">
+        <v>69.51333333333334</v>
+      </c>
+      <c r="U49">
         <v>0.06750000000000966</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>-2.87452690077572E-05</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>7.671211859716642E-05</v>
       </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23">
+      <c r="X49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B50">
         <v>69.52</v>
@@ -4845,21 +4995,24 @@
         <v>69.536</v>
       </c>
       <c r="T50">
+        <v>69.50666666666666</v>
+      </c>
+      <c r="U50">
         <v>0.05125000000001023</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>-3.832812709636535E-05</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>9.588279287386925E-05</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>0.0002877697841725535</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51">
         <v>69.45999999999999</v>
@@ -4916,21 +5069,24 @@
         <v>69.53333333333333</v>
       </c>
       <c r="T51">
+        <v>69.49333333333333</v>
+      </c>
+      <c r="U51">
         <v>0.02374999999999261</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>-6.70767933457217E-05</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>-3.83494400981732E-05</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <v>-0.0008630609896432828</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52">
         <v>69.42</v>
@@ -4987,21 +5143,24 @@
         <v>69.52799999999999</v>
       </c>
       <c r="T52">
+        <v>69.46666666666665</v>
+      </c>
+      <c r="U52">
         <v>-0.001249999999998863</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>-0.0001245795440391051</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>-7.670182166841233E-05</v>
       </c>
-      <c r="W52">
+      <c r="X52">
         <v>-0.0005758710048947568</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53">
         <v>69.44</v>
@@ -5058,21 +5217,24 @@
         <v>69.52399999999999</v>
       </c>
       <c r="T53">
+        <v>69.44</v>
+      </c>
+      <c r="U53">
         <v>-0.02500000000000568</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>-0.0001150108301862796</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>-5.753077896686332E-05</v>
       </c>
-      <c r="W53">
+      <c r="X53">
         <v>0.0002881014116968839</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B54">
         <v>69.5</v>
@@ -5129,21 +5291,24 @@
         <v>69.52666666666667</v>
       </c>
       <c r="T54">
+        <v>69.45333333333333</v>
+      </c>
+      <c r="U54">
         <v>-0.03750000000000853</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>-8.62680443992625E-05</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>3.835605929869423E-05</v>
       </c>
-      <c r="W54">
+      <c r="X54">
         <v>0.0008640552995391459</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B55">
         <v>69.48</v>
@@ -5200,21 +5365,24 @@
         <v>69.52800000000001</v>
       </c>
       <c r="T55">
+        <v>69.47333333333334</v>
+      </c>
+      <c r="U55">
         <v>-0.04625000000000057</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>-9.5861652463336E-05</v>
       </c>
-      <c r="V55">
+      <c r="W55">
         <v>1.917729408384972E-05</v>
       </c>
-      <c r="W55">
+      <c r="X55">
         <v>-0.0002877697841725535</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56">
         <v>69.42</v>
@@ -5271,21 +5439,24 @@
         <v>69.53066666666668</v>
       </c>
       <c r="T56">
+        <v>69.46666666666667</v>
+      </c>
+      <c r="U56">
         <v>-0.05374999999999375</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>-0.0001438062642007409</v>
       </c>
-      <c r="V56">
+      <c r="W56">
         <v>3.835385264450153E-05</v>
       </c>
-      <c r="W56">
+      <c r="X56">
         <v>-0.0008635578583765513</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57">
         <v>69.38</v>
@@ -5342,21 +5513,24 @@
         <v>69.51600000000001</v>
       </c>
       <c r="T57">
+        <v>69.42666666666666</v>
+      </c>
+      <c r="U57">
         <v>-0.06875000000000853</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>-0.0001725923369002569</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>-0.0002109380992559862</v>
       </c>
-      <c r="W57">
+      <c r="X57">
         <v>-0.0005762028233938787</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B58">
         <v>69.34</v>
@@ -5413,21 +5587,24 @@
         <v>69.49466666666667</v>
       </c>
       <c r="T58">
+        <v>69.38000000000001</v>
+      </c>
+      <c r="U58">
         <v>-0.07499999999998863</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>-0.0001822122484992361</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <v>-0.0003068837869458774</v>
       </c>
-      <c r="W58">
+      <c r="X58">
         <v>-0.0005765350245026113</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B59">
         <v>69.38</v>
@@ -5484,21 +5661,24 @@
         <v>69.47600000000001</v>
       </c>
       <c r="T59">
+        <v>69.36666666666666</v>
+      </c>
+      <c r="U59">
         <v>-0.06750000000000966</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>-0.0001342861253657013</v>
       </c>
-      <c r="V59">
+      <c r="W59">
         <v>-0.000268605744325634</v>
       </c>
-      <c r="W59">
+      <c r="X59">
         <v>0.0005768676088835356</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B60">
         <v>69.40000000000001</v>
@@ -5555,21 +5735,24 @@
         <v>69.45866666666666</v>
       </c>
       <c r="T60">
+        <v>69.37333333333333</v>
+      </c>
+      <c r="U60">
         <v>-0.05374999999999375</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>-8.633838892568857E-05</v>
       </c>
-      <c r="V60">
+      <c r="W60">
         <v>-0.0002494866332741763</v>
       </c>
-      <c r="W60">
+      <c r="X60">
         <v>0.0002882675122515277</v>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B61">
         <v>69.31999999999999</v>
@@ -5626,21 +5809,24 @@
         <v>69.44</v>
       </c>
       <c r="T61">
+        <v>69.36666666666666</v>
+      </c>
+      <c r="U61">
         <v>-0.04749999999998522</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>-8.634584388667044E-05</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>-0.0002687449610319081</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <v>-0.001152737752161515</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B62">
         <v>69.34</v>
@@ -5697,21 +5883,24 @@
         <v>69.42666666666666</v>
       </c>
       <c r="T62">
+        <v>69.35333333333334</v>
+      </c>
+      <c r="U62">
         <v>-0.05125000000001023</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <v>-0.0001055429223876247</v>
       </c>
-      <c r="V62">
+      <c r="W62">
         <v>-0.0001920122887865139</v>
       </c>
-      <c r="W62">
+      <c r="X62">
         <v>0.0002885170225044309</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B63">
         <v>69.34</v>
@@ -5768,21 +5957,24 @@
         <v>69.416</v>
       </c>
       <c r="T63">
+        <v>69.33333333333333</v>
+      </c>
+      <c r="U63">
         <v>-0.05624999999999147</v>
       </c>
-      <c r="U63">
+      <c r="V63">
         <v>-6.717076728202098E-05</v>
       </c>
-      <c r="V63">
+      <c r="W63">
         <v>-0.0001536393316688978</v>
       </c>
-      <c r="W63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23">
+      <c r="X63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B64">
         <v>69.26000000000001</v>
@@ -5839,21 +6031,24 @@
         <v>69.40000000000001</v>
       </c>
       <c r="T64">
+        <v>69.31333333333333</v>
+      </c>
+      <c r="U64">
         <v>-0.06125000000000114</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <v>-7.677174799658459E-05</v>
       </c>
-      <c r="V64">
+      <c r="W64">
         <v>-0.0002304944105103734</v>
       </c>
-      <c r="W64">
+      <c r="X64">
         <v>-0.001153735217767515</v>
       </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:24">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65">
         <v>69.34</v>
@@ -5910,21 +6105,24 @@
         <v>69.38799999999999</v>
       </c>
       <c r="T65">
+        <v>69.31333333333333</v>
+      </c>
+      <c r="U65">
         <v>-0.05625000000000568</v>
       </c>
-      <c r="U65">
+      <c r="V65">
         <v>-3.838882117535025E-05</v>
       </c>
-      <c r="V65">
+      <c r="W65">
         <v>-0.0001729106628244326</v>
       </c>
-      <c r="W65">
+      <c r="X65">
         <v>0.00115506786023678</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:24">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66">
         <v>69.38</v>
@@ -5981,21 +6179,24 @@
         <v>69.38266666666667</v>
       </c>
       <c r="T66">
+        <v>69.32666666666667</v>
+      </c>
+      <c r="U66">
         <v>-0.04250000000000398</v>
       </c>
-      <c r="U66">
+      <c r="V66">
         <v>-5.758544239997665E-05</v>
       </c>
-      <c r="V66">
+      <c r="W66">
         <v>-7.686247381866185E-05</v>
       </c>
-      <c r="W66">
+      <c r="X66">
         <v>0.0005768676088835356</v>
       </c>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:24">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67">
         <v>69.38</v>
@@ -6052,21 +6253,24 @@
         <v>69.38000000000001</v>
       </c>
       <c r="T67">
+        <v>69.36666666666667</v>
+      </c>
+      <c r="U67">
         <v>-0.03750000000000853</v>
       </c>
-      <c r="U67">
+      <c r="V67">
         <v>-5.758875867456492E-05</v>
       </c>
-      <c r="V67">
+      <c r="W67">
         <v>-3.843419105620249E-05</v>
       </c>
-      <c r="W67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23">
+      <c r="X67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B68">
         <v>69.40000000000001</v>
@@ -6123,21 +6327,24 @@
         <v>69.37733333333334</v>
       </c>
       <c r="T68">
+        <v>69.38666666666666</v>
+      </c>
+      <c r="U68">
         <v>-0.03624999999999545</v>
       </c>
-      <c r="U68">
+      <c r="V68">
         <v>-4.799339610861431E-05</v>
       </c>
-      <c r="V68">
+      <c r="W68">
         <v>-3.843566830019629E-05</v>
       </c>
-      <c r="W68">
+      <c r="X68">
         <v>0.0002882675122515277</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:24">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B69">
         <v>69.40000000000001</v>
@@ -6194,21 +6401,24 @@
         <v>69.37066666666666</v>
       </c>
       <c r="T69">
+        <v>69.39333333333333</v>
+      </c>
+      <c r="U69">
         <v>-0.02374999999999261</v>
       </c>
-      <c r="U69">
+      <c r="V69">
         <v>-2.879741975114758E-05</v>
       </c>
-      <c r="V69">
+      <c r="W69">
         <v>-9.609286414402618E-05</v>
       </c>
-      <c r="W69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23">
+      <c r="X69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70">
         <v>69.38</v>
@@ -6265,21 +6475,24 @@
         <v>69.364</v>
       </c>
       <c r="T70">
+        <v>69.39333333333333</v>
+      </c>
+      <c r="U70">
         <v>-0.01124999999998977</v>
       </c>
-      <c r="U70">
+      <c r="V70">
         <v>-3.839766542201861E-05</v>
       </c>
-      <c r="V70">
+      <c r="W70">
         <v>-9.610209886978804E-05</v>
       </c>
-      <c r="W70">
+      <c r="X70">
         <v>-0.0002881844380404619</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:24">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71">
         <v>69.38</v>
@@ -6336,21 +6549,24 @@
         <v>69.36133333333332</v>
       </c>
       <c r="T71">
-        <v>0</v>
+        <v>69.38666666666667</v>
       </c>
       <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
         <v>-2.220446049250313E-16</v>
       </c>
-      <c r="V71">
+      <c r="W71">
         <v>-3.844453414858506E-05</v>
       </c>
-      <c r="W71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23">
+      <c r="X71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72">
         <v>69.40000000000001</v>
@@ -6407,21 +6623,24 @@
         <v>69.36266666666667</v>
       </c>
       <c r="T72">
+        <v>69.38666666666666</v>
+      </c>
+      <c r="U72">
         <v>0.01874999999999716</v>
       </c>
-      <c r="U72">
+      <c r="V72">
         <v>-9.599784964808844E-05</v>
       </c>
-      <c r="V72">
+      <c r="W72">
         <v>1.922300609402683E-05</v>
       </c>
-      <c r="W72">
+      <c r="X72">
         <v>0.0002882675122515277</v>
       </c>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:24">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73">
         <v>69.40000000000001</v>
@@ -6478,21 +6697,24 @@
         <v>69.36666666666666</v>
       </c>
       <c r="T73">
+        <v>69.39333333333333</v>
+      </c>
+      <c r="U73">
         <v>0.02500000000000568</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <v>-0.0001248091859559208</v>
       </c>
-      <c r="V73">
+      <c r="W73">
         <v>5.76679097303856E-05</v>
       </c>
-      <c r="W73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23">
+      <c r="X73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74">
         <v>69.42</v>
@@ -6549,21 +6771,24 @@
         <v>69.36933333333333</v>
       </c>
       <c r="T74">
+        <v>69.40666666666667</v>
+      </c>
+      <c r="U74">
         <v>0.02499999999999147</v>
       </c>
-      <c r="U74">
+      <c r="V74">
         <v>-0.0001152228602155914</v>
       </c>
-      <c r="V74">
+      <c r="W74">
         <v>3.844305622302535E-05</v>
       </c>
-      <c r="W74">
+      <c r="X74">
         <v>0.0002881844380402399</v>
       </c>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:24">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B75">
         <v>69.40000000000001</v>
@@ -6620,21 +6845,24 @@
         <v>69.36933333333333</v>
       </c>
       <c r="T75">
+        <v>69.40666666666667</v>
+      </c>
+      <c r="U75">
         <v>0.02625000000000455</v>
       </c>
-      <c r="U75">
+      <c r="V75">
         <v>-0.0001248391495571877</v>
       </c>
-      <c r="V75">
-        <v>0</v>
-      </c>
       <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
         <v>-0.0002881014116968839</v>
       </c>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:24">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B76">
         <v>69.45999999999999</v>
@@ -6691,21 +6919,24 @@
         <v>69.37866666666667</v>
       </c>
       <c r="T76">
+        <v>69.42666666666666</v>
+      </c>
+      <c r="U76">
         <v>0.03000000000000114</v>
       </c>
-      <c r="U76">
+      <c r="V76">
         <v>-6.722947340109808E-05</v>
       </c>
-      <c r="V76">
+      <c r="W76">
         <v>0.0001345455244394778</v>
       </c>
-      <c r="W76">
+      <c r="X76">
         <v>0.0008645533141209416</v>
       </c>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:24">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B77">
         <v>69.38</v>
@@ -6762,21 +6993,24 @@
         <v>69.38133333333333</v>
       </c>
       <c r="T77">
+        <v>69.41333333333334</v>
+      </c>
+      <c r="U77">
         <v>0.02375000000000682</v>
       </c>
-      <c r="U77">
+      <c r="V77">
         <v>-7.683884972253807E-05</v>
       </c>
-      <c r="V77">
+      <c r="W77">
         <v>3.84364069645482E-05</v>
       </c>
-      <c r="W77">
+      <c r="X77">
         <v>-0.001151742009789736</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:24">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B78">
         <v>69.38</v>
@@ -6833,21 +7067,24 @@
         <v>69.384</v>
       </c>
       <c r="T78">
+        <v>69.40666666666665</v>
+      </c>
+      <c r="U78">
         <v>0.02125000000000909</v>
       </c>
-      <c r="U78">
+      <c r="V78">
         <v>-5.763356578858403E-05</v>
       </c>
-      <c r="V78">
+      <c r="W78">
         <v>3.843492966404405E-05</v>
       </c>
-      <c r="W78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23">
+      <c r="X78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B79">
         <v>69.36</v>
@@ -6904,21 +7141,24 @@
         <v>69.39066666666666</v>
       </c>
       <c r="T79">
+        <v>69.37333333333333</v>
+      </c>
+      <c r="U79">
         <v>0.01749999999999829</v>
       </c>
-      <c r="U79">
+      <c r="V79">
         <v>-6.724303554273003E-05</v>
       </c>
-      <c r="V79">
+      <c r="W79">
         <v>9.608363119251173E-05</v>
       </c>
-      <c r="W79">
+      <c r="X79">
         <v>-0.0002882675122513056</v>
       </c>
     </row>
-    <row r="80" spans="1:23">
+    <row r="80" spans="1:24">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B80">
         <v>69.42</v>
@@ -6975,21 +7215,24 @@
         <v>69.396</v>
       </c>
       <c r="T80">
+        <v>69.38666666666667</v>
+      </c>
+      <c r="U80">
         <v>0.01000000000000512</v>
       </c>
-      <c r="U80">
+      <c r="V80">
         <v>-4.803396962327344E-05</v>
       </c>
-      <c r="V80">
+      <c r="W80">
         <v>7.685952001246221E-05</v>
       </c>
-      <c r="W80">
+      <c r="X80">
         <v>0.0008650519031141446</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:24">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B81">
         <v>69.31999999999999</v>
@@ -7046,21 +7289,24 @@
         <v>69.39200000000001</v>
       </c>
       <c r="T81">
+        <v>69.36666666666667</v>
+      </c>
+      <c r="U81">
         <v>0.001249999999998863</v>
       </c>
-      <c r="U81">
+      <c r="V81">
         <v>-6.725078779512561E-05</v>
       </c>
-      <c r="V81">
+      <c r="W81">
         <v>-5.76402098102502E-05</v>
       </c>
-      <c r="W81">
+      <c r="X81">
         <v>-0.001440507058484752</v>
       </c>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:24">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B82">
         <v>69.36</v>
@@ -7117,21 +7363,24 @@
         <v>69.39066666666668</v>
       </c>
       <c r="T82">
+        <v>69.36666666666666</v>
+      </c>
+      <c r="U82">
         <v>-0.004999999999995453</v>
       </c>
-      <c r="U82">
+      <c r="V82">
         <v>-2.882370461465555E-05</v>
       </c>
-      <c r="V82">
+      <c r="W82">
         <v>-1.921451079855974E-05</v>
       </c>
-      <c r="W82">
+      <c r="X82">
         <v>0.0005770340450086398</v>
       </c>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:24">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B83">
         <v>69.38</v>
@@ -7188,21 +7437,24 @@
         <v>69.38933333333333</v>
       </c>
       <c r="T83">
+        <v>69.35333333333334</v>
+      </c>
+      <c r="U83">
         <v>-0.00750000000000739</v>
       </c>
-      <c r="U83">
+      <c r="V83">
         <v>-2.882453544450492E-05</v>
       </c>
-      <c r="V83">
+      <c r="W83">
         <v>-1.92148800033376E-05</v>
       </c>
-      <c r="W83">
+      <c r="X83">
         <v>0.0002883506343713815</v>
       </c>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:24">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B84">
         <v>69.40000000000001</v>
@@ -7259,21 +7511,24 @@
         <v>69.38933333333333</v>
       </c>
       <c r="T84">
+        <v>69.38000000000001</v>
+      </c>
+      <c r="U84">
         <v>-0.01500000000000057</v>
       </c>
-      <c r="U84">
+      <c r="V84">
         <v>-4.804227720389687E-05</v>
       </c>
-      <c r="V84">
-        <v>0</v>
-      </c>
       <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="X84">
         <v>0.0002882675122515277</v>
       </c>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:24">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B85">
         <v>69.42</v>
@@ -7330,21 +7585,24 @@
         <v>69.392</v>
       </c>
       <c r="T85">
+        <v>69.39999999999999</v>
+      </c>
+      <c r="U85">
         <v>-0.01125000000000398</v>
       </c>
-      <c r="U85">
+      <c r="V85">
         <v>-2.882675122550804E-05</v>
       </c>
-      <c r="V85">
+      <c r="W85">
         <v>3.84304984435424E-05</v>
       </c>
-      <c r="W85">
+      <c r="X85">
         <v>0.0002881844380402399</v>
       </c>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:24">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B86">
         <v>69.44</v>
@@ -7401,21 +7659,24 @@
         <v>69.396</v>
       </c>
       <c r="T86">
+        <v>69.42</v>
+      </c>
+      <c r="U86">
         <v>-0.00750000000000739</v>
       </c>
-      <c r="U86">
+      <c r="V86">
         <v>9.609194077109251E-06</v>
       </c>
-      <c r="V86">
+      <c r="W86">
         <v>5.764353239579023E-05</v>
       </c>
-      <c r="W86">
+      <c r="X86">
         <v>0.0002881014116968839</v>
       </c>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:24">
       <c r="A87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B87">
         <v>69.5</v>
@@ -7472,21 +7733,24 @@
         <v>69.40266666666666</v>
       </c>
       <c r="T87">
+        <v>69.45333333333333</v>
+      </c>
+      <c r="U87">
         <v>0.002499999999997726</v>
       </c>
-      <c r="U87">
+      <c r="V87">
         <v>5.765461044693332E-05</v>
       </c>
-      <c r="V87">
+      <c r="W87">
         <v>9.606701635056503E-05</v>
       </c>
-      <c r="W87">
+      <c r="X87">
         <v>0.0008640552995391459</v>
       </c>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:24">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B88">
         <v>69.54000000000001</v>
@@ -7543,21 +7807,24 @@
         <v>69.41200000000001</v>
       </c>
       <c r="T88">
+        <v>69.49333333333333</v>
+      </c>
+      <c r="U88">
         <v>0.008750000000006253</v>
       </c>
-      <c r="U88">
+      <c r="V88">
         <v>9.60854776408393E-05</v>
       </c>
-      <c r="V88">
+      <c r="W88">
         <v>0.00013448090371182</v>
       </c>
-      <c r="W88">
+      <c r="X88">
         <v>0.000575539568345329</v>
       </c>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:24">
       <c r="A89" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B89">
         <v>69.52</v>
@@ -7614,21 +7881,24 @@
         <v>69.41866666666667</v>
       </c>
       <c r="T89">
+        <v>69.52</v>
+      </c>
+      <c r="U89">
         <v>0.02624999999999034</v>
       </c>
-      <c r="U89">
+      <c r="V89">
         <v>6.725337227631023E-05</v>
       </c>
-      <c r="V89">
+      <c r="W89">
         <v>9.604487216408053E-05</v>
       </c>
-      <c r="W89">
+      <c r="X89">
         <v>-0.0002876042565431725</v>
       </c>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:24">
       <c r="A90" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B90">
         <v>69.52</v>
@@ -7685,21 +7955,24 @@
         <v>69.42666666666668</v>
       </c>
       <c r="T90">
+        <v>69.52666666666667</v>
+      </c>
+      <c r="U90">
         <v>0.04000000000000625</v>
       </c>
-      <c r="U90">
+      <c r="V90">
         <v>5.76418710551696E-05</v>
       </c>
-      <c r="V90">
+      <c r="W90">
         <v>0.0001152427781194731</v>
       </c>
-      <c r="W90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23">
+      <c r="X90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B91">
         <v>69.52</v>
@@ -7756,21 +8029,24 @@
         <v>69.43066666666667</v>
       </c>
       <c r="T91">
+        <v>69.52</v>
+      </c>
+      <c r="U91">
         <v>0.04999999999999716</v>
       </c>
-      <c r="U91">
+      <c r="V91">
         <v>9.606424776875677E-05</v>
       </c>
-      <c r="V91">
+      <c r="W91">
         <v>5.761474937560074E-05</v>
       </c>
-      <c r="W91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23">
+      <c r="X91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B92">
         <v>69.54000000000001</v>
@@ -7827,21 +8103,24 @@
         <v>69.44133333333333</v>
       </c>
       <c r="T92">
+        <v>69.52666666666667</v>
+      </c>
+      <c r="U92">
         <v>0.0625</v>
       </c>
-      <c r="U92">
+      <c r="V92">
         <v>9.605502031573288E-05</v>
       </c>
-      <c r="V92">
+      <c r="W92">
         <v>0.0001536304802873811</v>
       </c>
-      <c r="W92">
+      <c r="X92">
         <v>0.0002876869965477979</v>
       </c>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:24">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B93">
         <v>69.58</v>
@@ -7898,21 +8177,24 @@
         <v>69.45466666666667</v>
       </c>
       <c r="T93">
+        <v>69.54666666666667</v>
+      </c>
+      <c r="U93">
         <v>0.06999999999999318</v>
       </c>
-      <c r="U93">
+      <c r="V93">
         <v>0.0001152549535619052</v>
       </c>
-      <c r="V93">
+      <c r="W93">
         <v>0.0001920086019853162</v>
       </c>
-      <c r="W93">
+      <c r="X93">
         <v>0.0005752085130859008</v>
       </c>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:24">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B94">
         <v>69.56</v>
@@ -7969,21 +8251,24 @@
         <v>69.468</v>
       </c>
       <c r="T94">
+        <v>69.56</v>
+      </c>
+      <c r="U94">
         <v>0.07374999999998977</v>
       </c>
-      <c r="U94">
+      <c r="V94">
         <v>0.0001440520892355135</v>
       </c>
-      <c r="V94">
+      <c r="W94">
         <v>0.0001919717417595557</v>
       </c>
-      <c r="W94">
+      <c r="X94">
         <v>-0.0002874389192295546</v>
       </c>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:24">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B95">
         <v>69.58</v>
@@ -8040,21 +8325,24 @@
         <v>69.47866666666667</v>
       </c>
       <c r="T95">
+        <v>69.57333333333334</v>
+      </c>
+      <c r="U95">
         <v>0.07000000000000739</v>
       </c>
-      <c r="U95">
+      <c r="V95">
         <v>0.0001152250729758997</v>
       </c>
-      <c r="V95">
+      <c r="W95">
         <v>0.000153547916546648</v>
       </c>
-      <c r="W95">
+      <c r="X95">
         <v>0.0002875215641171547</v>
       </c>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:24">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B96">
         <v>69.58</v>
@@ -8111,21 +8399,24 @@
         <v>69.49600000000001</v>
       </c>
       <c r="T96">
+        <v>69.57333333333332</v>
+      </c>
+      <c r="U96">
         <v>0.06499999999999773</v>
       </c>
-      <c r="U96">
+      <c r="V96">
         <v>9.600983140689578E-05</v>
       </c>
-      <c r="V96">
+      <c r="W96">
         <v>0.0002494770577061711</v>
       </c>
-      <c r="W96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:23">
+      <c r="X96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B97">
         <v>69.54000000000001</v>
@@ -8182,21 +8473,24 @@
         <v>69.50800000000001</v>
       </c>
       <c r="T97">
+        <v>69.56666666666666</v>
+      </c>
+      <c r="U97">
         <v>0.05374999999999375</v>
       </c>
-      <c r="U97">
+      <c r="V97">
         <v>7.680049152303248E-05</v>
       </c>
-      <c r="V97">
+      <c r="W97">
         <v>0.0001726718084493761</v>
       </c>
-      <c r="W97">
+      <c r="X97">
         <v>-0.0005748778384592201</v>
       </c>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="1:24">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B98">
         <v>69.59999999999999</v>
@@ -8253,21 +8547,24 @@
         <v>69.52266666666668</v>
       </c>
       <c r="T98">
+        <v>69.57333333333334</v>
+      </c>
+      <c r="U98">
         <v>0.04874999999999829</v>
       </c>
-      <c r="U98">
+      <c r="V98">
         <v>9.599324207587578E-05</v>
       </c>
-      <c r="V98">
+      <c r="W98">
         <v>0.0002110068864975556</v>
       </c>
-      <c r="W98">
+      <c r="X98">
         <v>0.0008628127696288512</v>
       </c>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:24">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B99">
         <v>69.59999999999999</v>
@@ -8324,21 +8621,24 @@
         <v>69.536</v>
       </c>
       <c r="T99">
+        <v>69.58</v>
+      </c>
+      <c r="U99">
         <v>0.04500000000001592</v>
       </c>
-      <c r="U99">
+      <c r="V99">
         <v>9.598402825750085E-05</v>
       </c>
-      <c r="V99">
+      <c r="W99">
         <v>0.0001917839745309013</v>
       </c>
-      <c r="W99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:23">
+      <c r="X99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B100">
         <v>69.59999999999999</v>
@@ -8395,21 +8695,24 @@
         <v>69.548</v>
       </c>
       <c r="T100">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="U100">
         <v>0.03999999999999204</v>
       </c>
-      <c r="U100">
+      <c r="V100">
         <v>0.0001055722978291485</v>
       </c>
-      <c r="V100">
+      <c r="W100">
         <v>0.0001725724804417794</v>
       </c>
-      <c r="W100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:23">
+      <c r="X100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B101">
         <v>69.54000000000001</v>
@@ -8466,21 +8769,24 @@
         <v>69.55466666666666</v>
       </c>
       <c r="T101">
+        <v>69.58</v>
+      </c>
+      <c r="U101">
         <v>0.02750000000000341</v>
       </c>
-      <c r="U101">
+      <c r="V101">
         <v>7.677174799658459E-05</v>
       </c>
-      <c r="V101">
+      <c r="W101">
         <v>9.585705795500665E-05</v>
       </c>
-      <c r="W101">
+      <c r="X101">
         <v>-0.0008620689655171043</v>
       </c>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:24">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B102">
         <v>69.54000000000001</v>
@@ -8537,21 +8843,24 @@
         <v>69.55733333333335</v>
       </c>
       <c r="T102">
+        <v>69.56</v>
+      </c>
+      <c r="U102">
         <v>0.01875000000001137</v>
       </c>
-      <c r="U102">
+      <c r="V102">
         <v>6.717012272949852E-05</v>
       </c>
-      <c r="V102">
+      <c r="W102">
         <v>3.833914810447148E-05</v>
       </c>
-      <c r="W102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:23">
+      <c r="X102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24">
       <c r="A103" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B103">
         <v>69.56</v>
@@ -8608,21 +8917,24 @@
         <v>69.55866666666665</v>
       </c>
       <c r="T103">
+        <v>69.54666666666667</v>
+      </c>
+      <c r="U103">
         <v>0.01250000000000284</v>
       </c>
-      <c r="U103">
+      <c r="V103">
         <v>7.676069852213807E-05</v>
       </c>
-      <c r="V103">
+      <c r="W103">
         <v>1.916883913466449E-05</v>
       </c>
-      <c r="W103">
+      <c r="X103">
         <v>0.0002876042565429504</v>
       </c>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:24">
       <c r="A104" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B104">
         <v>69.56</v>
@@ -8679,21 +8991,24 @@
         <v>69.56133333333334</v>
       </c>
       <c r="T104">
+        <v>69.55333333333334</v>
+      </c>
+      <c r="U104">
         <v>0.008749999999992042</v>
       </c>
-      <c r="U104">
+      <c r="V104">
         <v>6.716045592347619E-05</v>
       </c>
-      <c r="V104">
+      <c r="W104">
         <v>3.83369433958336E-05</v>
       </c>
-      <c r="W104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:23">
+      <c r="X104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B105">
         <v>69.52</v>
@@ -8750,21 +9065,24 @@
         <v>69.56133333333334</v>
       </c>
       <c r="T105">
+        <v>69.54666666666667</v>
+      </c>
+      <c r="U105">
         <v>0.006249999999994316</v>
       </c>
-      <c r="U105">
+      <c r="V105">
         <v>5.756223917097181E-05</v>
       </c>
-      <c r="V105">
-        <v>0</v>
-      </c>
       <c r="W105">
+        <v>0</v>
+      </c>
+      <c r="X105">
         <v>-0.0005750431282347535</v>
       </c>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:24">
       <c r="A106" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B106">
         <v>69.52</v>
@@ -8821,21 +9139,24 @@
         <v>69.56133333333334</v>
       </c>
       <c r="T106">
+        <v>69.53333333333333</v>
+      </c>
+      <c r="U106">
         <v>-0.003749999999996589</v>
       </c>
-      <c r="U106">
+      <c r="V106">
         <v>2.87794629756366E-05</v>
       </c>
-      <c r="V106">
-        <v>0</v>
-      </c>
       <c r="W106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:23">
+      <c r="X106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24">
       <c r="A107" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B107">
         <v>69.56</v>
@@ -8892,21 +9213,24 @@
         <v>69.56266666666667</v>
       </c>
       <c r="T107">
+        <v>69.53333333333333</v>
+      </c>
+      <c r="U107">
         <v>-0.01125000000000398</v>
       </c>
-      <c r="U107">
+      <c r="V107">
         <v>8.633590422446602E-05</v>
       </c>
-      <c r="V107">
+      <c r="W107">
         <v>1.916773686527762E-05</v>
       </c>
-      <c r="W107">
+      <c r="X107">
         <v>0.0005753739930955959</v>
       </c>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:24">
       <c r="A108" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B108">
         <v>69.52</v>
@@ -8963,21 +9287,24 @@
         <v>69.55866666666667</v>
       </c>
       <c r="T108">
+        <v>69.53333333333332</v>
+      </c>
+      <c r="U108">
         <v>-0.01999999999999602</v>
       </c>
-      <c r="U108">
+      <c r="V108">
         <v>6.714435076227154E-05</v>
       </c>
-      <c r="V108">
+      <c r="W108">
         <v>-5.750210841071191E-05</v>
       </c>
-      <c r="W108">
+      <c r="X108">
         <v>-0.0005750431282347535</v>
       </c>
     </row>
-    <row r="109" spans="1:23">
+    <row r="109" spans="1:24">
       <c r="A109" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B109">
         <v>69.52</v>
@@ -9034,21 +9361,24 @@
         <v>69.556</v>
       </c>
       <c r="T109">
+        <v>69.53333333333333</v>
+      </c>
+      <c r="U109">
         <v>-0.01874999999999716</v>
       </c>
-      <c r="U109">
+      <c r="V109">
         <v>7.673124880103188E-05</v>
       </c>
-      <c r="V109">
+      <c r="W109">
         <v>-3.833694339550053E-05</v>
       </c>
-      <c r="W109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:23">
+      <c r="X109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24">
       <c r="A110" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B110">
         <v>69.5</v>
@@ -9105,21 +9435,24 @@
         <v>69.55066666666667</v>
       </c>
       <c r="T110">
+        <v>69.51333333333334</v>
+      </c>
+      <c r="U110">
         <v>-0.01999999999999602</v>
       </c>
-      <c r="U110">
+      <c r="V110">
         <v>3.836268078427629E-05</v>
       </c>
-      <c r="V110">
+      <c r="W110">
         <v>-7.667682634604489E-05</v>
       </c>
-      <c r="W110">
+      <c r="X110">
         <v>-0.0002876869965476869</v>
       </c>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:24">
       <c r="A111" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B111">
         <v>69.5</v>
@@ -9176,21 +9509,24 @@
         <v>69.54533333333333</v>
       </c>
       <c r="T111">
+        <v>69.50666666666666</v>
+      </c>
+      <c r="U111">
         <v>-0.02250000000000796</v>
       </c>
-      <c r="U111">
+      <c r="V111">
         <v>8.631272057679773E-05</v>
       </c>
-      <c r="V111">
+      <c r="W111">
         <v>-7.668270613281347E-05</v>
       </c>
-      <c r="W111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:23">
+      <c r="X111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B112">
         <v>69.52</v>
@@ -9247,21 +9583,24 @@
         <v>69.54400000000001</v>
       </c>
       <c r="T112">
+        <v>69.50666666666666</v>
+      </c>
+      <c r="U112">
         <v>-0.02375000000000682</v>
       </c>
-      <c r="U112">
+      <c r="V112">
         <v>7.671579674184414E-05</v>
       </c>
-      <c r="V112">
+      <c r="W112">
         <v>-1.917214670510425E-05</v>
       </c>
-      <c r="W112">
+      <c r="X112">
         <v>0.0002877697841725535</v>
       </c>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="1:24">
       <c r="A113" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B113">
         <v>69.52</v>
@@ -9318,21 +9657,24 @@
         <v>69.53866666666666</v>
       </c>
       <c r="T113">
+        <v>69.51333333333334</v>
+      </c>
+      <c r="U113">
         <v>-0.02249999999999375</v>
       </c>
-      <c r="U113">
+      <c r="V113">
         <v>6.712117289442432E-05</v>
       </c>
-      <c r="V113">
+      <c r="W113">
         <v>-7.669005713439869E-05</v>
       </c>
-      <c r="W113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:23">
+      <c r="X113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24">
       <c r="A114" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B114">
         <v>69.5</v>
@@ -9389,21 +9731,24 @@
         <v>69.532</v>
       </c>
       <c r="T114">
+        <v>69.51333333333334</v>
+      </c>
+      <c r="U114">
         <v>-0.01874999999999716</v>
       </c>
-      <c r="U114">
+      <c r="V114">
         <v>4.794047710365845E-05</v>
       </c>
-      <c r="V114">
+      <c r="W114">
         <v>-9.586992368748604E-05</v>
       </c>
-      <c r="W114">
+      <c r="X114">
         <v>-0.0002876869965476869</v>
       </c>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:24">
       <c r="A115" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B115">
         <v>69.5</v>
@@ -9460,21 +9805,24 @@
         <v>69.52533333333334</v>
       </c>
       <c r="T115">
+        <v>69.50666666666666</v>
+      </c>
+      <c r="U115">
         <v>-0.02000000000001023</v>
       </c>
-      <c r="U115">
+      <c r="V115">
         <v>3.835054313938713E-05</v>
       </c>
-      <c r="V115">
+      <c r="W115">
         <v>-9.587911561093065E-05</v>
       </c>
-      <c r="W115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:23">
+      <c r="X115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24">
       <c r="A116" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B116">
         <v>69.48</v>
@@ -9531,21 +9879,24 @@
         <v>69.52133333333333</v>
       </c>
       <c r="T116">
+        <v>69.49333333333334</v>
+      </c>
+      <c r="U116">
         <v>-0.01749999999999829</v>
       </c>
-      <c r="U116">
+      <c r="V116">
         <v>1.917453621591569E-05</v>
       </c>
-      <c r="V116">
+      <c r="W116">
         <v>-5.753298557842346E-05</v>
       </c>
-      <c r="W116">
+      <c r="X116">
         <v>-0.0002877697841725535</v>
       </c>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:24">
       <c r="A117" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B117">
         <v>69.45999999999999</v>
@@ -9602,21 +9953,24 @@
         <v>69.51600000000001</v>
       </c>
       <c r="T117">
+        <v>69.48</v>
+      </c>
+      <c r="U117">
         <v>-0.01999999999999602</v>
       </c>
-      <c r="U117">
+      <c r="V117">
         <v>-1.9174168560121E-05</v>
       </c>
-      <c r="V117">
+      <c r="W117">
         <v>-7.671506108430926E-05</v>
       </c>
-      <c r="W117">
+      <c r="X117">
         <v>-0.0002878526194589615</v>
       </c>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="1:24">
       <c r="A118" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B118">
         <v>69.42</v>
@@ -9673,21 +10027,24 @@
         <v>69.50666666666666</v>
       </c>
       <c r="T118">
+        <v>69.45333333333333</v>
+      </c>
+      <c r="U118">
         <v>-0.02250000000000796</v>
       </c>
-      <c r="U118">
+      <c r="V118">
         <v>-5.752360864763606E-05</v>
       </c>
-      <c r="V118">
+      <c r="W118">
         <v>-0.0001342616567889809</v>
       </c>
-      <c r="W118">
+      <c r="X118">
         <v>-0.0005758710048947568</v>
       </c>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:24">
       <c r="A119" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B119">
         <v>69.40000000000001</v>
@@ -9744,21 +10101,24 @@
         <v>69.49600000000001</v>
       </c>
       <c r="T119">
+        <v>69.42666666666666</v>
+      </c>
+      <c r="U119">
         <v>-0.02499999999999147</v>
       </c>
-      <c r="U119">
+      <c r="V119">
         <v>-5.752691780369634E-05</v>
       </c>
-      <c r="V119">
+      <c r="W119">
         <v>-0.0001534624976019527</v>
       </c>
-      <c r="W119">
+      <c r="X119">
         <v>-0.0002881014116968839</v>
       </c>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" spans="1:24">
       <c r="A120" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B120">
         <v>69.38</v>
@@ -9815,21 +10175,24 @@
         <v>69.48666666666666</v>
       </c>
       <c r="T120">
+        <v>69.39999999999999</v>
+      </c>
+      <c r="U120">
         <v>-0.03125</v>
       </c>
-      <c r="U120">
+      <c r="V120">
         <v>-6.711859856389779E-05</v>
       </c>
-      <c r="V120">
+      <c r="W120">
         <v>-0.0001343002954607986</v>
       </c>
-      <c r="W120">
+      <c r="X120">
         <v>-0.0002881844380404619</v>
       </c>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:24">
       <c r="A121" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B121">
         <v>69.3</v>
@@ -9886,21 +10249,24 @@
         <v>69.47199999999999</v>
       </c>
       <c r="T121">
+        <v>69.36</v>
+      </c>
+      <c r="U121">
         <v>-0.04499999999998749</v>
       </c>
-      <c r="U121">
+      <c r="V121">
         <v>-0.0001054791630705765</v>
       </c>
-      <c r="V121">
+      <c r="W121">
         <v>-0.0002110716684255998</v>
       </c>
-      <c r="W121">
+      <c r="X121">
         <v>-0.001153070049005445</v>
       </c>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:24">
       <c r="A122" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B122">
         <v>69.3</v>
@@ -9957,21 +10323,24 @@
         <v>69.45466666666667</v>
       </c>
       <c r="T122">
+        <v>69.32666666666667</v>
+      </c>
+      <c r="U122">
         <v>-0.05624999999999147</v>
       </c>
-      <c r="U122">
+      <c r="V122">
         <v>-0.0001150803164707837</v>
       </c>
-      <c r="V122">
+      <c r="W122">
         <v>-0.0002495009980039153</v>
       </c>
-      <c r="W122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:23">
+      <c r="X122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24">
       <c r="A123" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B123">
         <v>69.22</v>
@@ -10028,21 +10397,24 @@
         <v>69.43466666666667</v>
       </c>
       <c r="T123">
+        <v>69.27333333333333</v>
+      </c>
+      <c r="U123">
         <v>-0.06999999999999318</v>
       </c>
-      <c r="U123">
+      <c r="V123">
         <v>-0.0001726403422115386</v>
       </c>
-      <c r="V123">
+      <c r="W123">
         <v>-0.0002879576126393335</v>
       </c>
-      <c r="W123">
+      <c r="X123">
         <v>-0.00115440115440113</v>
       </c>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:24">
       <c r="A124" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B124">
         <v>69.23999999999999</v>
@@ -10099,21 +10471,24 @@
         <v>69.416</v>
       </c>
       <c r="T124">
+        <v>69.25333333333333</v>
+      </c>
+      <c r="U124">
         <v>-0.08249999999999602</v>
       </c>
-      <c r="U124">
+      <c r="V124">
         <v>-0.0001534845795960749</v>
       </c>
-      <c r="V124">
+      <c r="W124">
         <v>-0.0002688378523697521</v>
       </c>
-      <c r="W124">
+      <c r="X124">
         <v>0.0002889338341518499</v>
       </c>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" spans="1:24">
       <c r="A125" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B125">
         <v>69.26000000000001</v>
@@ -10170,21 +10545,24 @@
         <v>69.40000000000001</v>
       </c>
       <c r="T125">
+        <v>69.23999999999999</v>
+      </c>
+      <c r="U125">
         <v>-0.09125000000000227</v>
       </c>
-      <c r="U125">
+      <c r="V125">
         <v>-0.0001535081407285643</v>
       </c>
-      <c r="V125">
+      <c r="W125">
         <v>-0.0002304944105103734</v>
       </c>
-      <c r="W125">
+      <c r="X125">
         <v>0.0002888503755056337</v>
       </c>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:24">
       <c r="A126" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B126">
         <v>69.28</v>
@@ -10241,21 +10619,24 @@
         <v>69.38533333333334</v>
       </c>
       <c r="T126">
+        <v>69.26000000000001</v>
+      </c>
+      <c r="U126">
         <v>-0.09499999999999886</v>
       </c>
-      <c r="U126">
+      <c r="V126">
         <v>-0.0001439359772773541</v>
       </c>
-      <c r="V126">
+      <c r="W126">
         <v>-0.000211335254562961</v>
       </c>
-      <c r="W126">
+      <c r="X126">
         <v>0.0002887669650590841</v>
       </c>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="1:24">
       <c r="A127" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B127">
         <v>69.28</v>
@@ -10312,21 +10693,24 @@
         <v>69.36933333333333</v>
       </c>
       <c r="T127">
+        <v>69.27333333333333</v>
+      </c>
+      <c r="U127">
         <v>-0.09624999999999773</v>
       </c>
-      <c r="U127">
+      <c r="V127">
         <v>-0.0001247624714486584</v>
       </c>
-      <c r="V127">
+      <c r="W127">
         <v>-0.0002305962835565945</v>
       </c>
-      <c r="W127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:23">
+      <c r="X127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24">
       <c r="A128" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B128">
         <v>69.3</v>
@@ -10383,21 +10767,24 @@
         <v>69.35466666666667</v>
       </c>
       <c r="T128">
+        <v>69.28666666666668</v>
+      </c>
+      <c r="U128">
         <v>-0.09250000000000114</v>
       </c>
-      <c r="U128">
+      <c r="V128">
         <v>-0.0001439746604596781</v>
       </c>
-      <c r="V128">
+      <c r="W128">
         <v>-0.0002114286812614496</v>
       </c>
-      <c r="W128">
+      <c r="X128">
         <v>0.0002886836027713446</v>
       </c>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:24">
       <c r="A129" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B129">
         <v>69.28</v>
@@ -10454,21 +10841,24 @@
         <v>69.34</v>
       </c>
       <c r="T129">
+        <v>69.28666666666666</v>
+      </c>
+      <c r="U129">
         <v>-0.08000000000001251</v>
       </c>
-      <c r="U129">
+      <c r="V129">
         <v>-0.0001535950849574919</v>
       </c>
-      <c r="V129">
+      <c r="W129">
         <v>-0.0002114733928022527</v>
       </c>
-      <c r="W129">
+      <c r="X129">
         <v>-0.000288600288600227</v>
       </c>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:24">
       <c r="A130" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B130">
         <v>69.26000000000001</v>
@@ -10525,21 +10915,24 @@
         <v>69.32400000000001</v>
       </c>
       <c r="T130">
+        <v>69.27999999999999</v>
+      </c>
+      <c r="U130">
         <v>-0.07000000000000739</v>
       </c>
-      <c r="U130">
+      <c r="V130">
         <v>-0.0001632198475335356</v>
       </c>
-      <c r="V130">
+      <c r="W130">
         <v>-0.0002307470435534142</v>
       </c>
-      <c r="W130">
+      <c r="X130">
         <v>-0.0002886836027713446</v>
       </c>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:24">
       <c r="A131" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B131">
         <v>69.26000000000001</v>
@@ -10596,21 +10989,24 @@
         <v>69.30933333333334</v>
       </c>
       <c r="T131">
+        <v>69.26666666666667</v>
+      </c>
+      <c r="U131">
         <v>-0.04999999999999716</v>
       </c>
-      <c r="U131">
+      <c r="V131">
         <v>-0.0001344382880241746</v>
       </c>
-      <c r="V131">
+      <c r="W131">
         <v>-0.0002115669417037669</v>
       </c>
-      <c r="W131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:23">
+      <c r="X131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24">
       <c r="A132" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B132">
         <v>69.31999999999999</v>
@@ -10667,21 +11063,24 @@
         <v>69.3</v>
       </c>
       <c r="T132">
+        <v>69.28</v>
+      </c>
+      <c r="U132">
         <v>-0.03000000000000114</v>
       </c>
-      <c r="U132">
+      <c r="V132">
         <v>-0.0001056442860849494</v>
       </c>
-      <c r="V132">
+      <c r="W132">
         <v>-0.000134661998384189</v>
       </c>
-      <c r="W132">
+      <c r="X132">
         <v>0.0008663008951774742</v>
       </c>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:24">
       <c r="A133" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B133">
         <v>69.3</v>
@@ -10738,21 +11137,24 @@
         <v>69.292</v>
       </c>
       <c r="T133">
+        <v>69.29333333333334</v>
+      </c>
+      <c r="U133">
         <v>-0.01500000000000057</v>
       </c>
-      <c r="U133">
+      <c r="V133">
         <v>-0.0001248655294296963</v>
       </c>
-      <c r="V133">
+      <c r="W133">
         <v>-0.0001154401154400686</v>
       </c>
-      <c r="W133">
+      <c r="X133">
         <v>-0.0002885170225043199</v>
       </c>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:24">
       <c r="A134" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B134">
         <v>69.34</v>
@@ -10809,21 +11211,24 @@
         <v>69.288</v>
       </c>
       <c r="T134">
+        <v>69.31999999999999</v>
+      </c>
+      <c r="U134">
         <v>-0.002499999999997726</v>
       </c>
-      <c r="U134">
+      <c r="V134">
         <v>-0.0001056686423500652</v>
       </c>
-      <c r="V134">
+      <c r="W134">
         <v>-5.772672169956916E-05</v>
       </c>
-      <c r="W134">
+      <c r="X134">
         <v>0.0005772005772006761</v>
       </c>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:24">
       <c r="A135" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B135">
         <v>69.31999999999999</v>
@@ -10880,21 +11285,24 @@
         <v>69.28400000000001</v>
       </c>
       <c r="T135">
+        <v>69.31999999999999</v>
+      </c>
+      <c r="U135">
         <v>0.007499999999993179</v>
       </c>
-      <c r="U135">
+      <c r="V135">
         <v>-9.607255399268766E-05</v>
       </c>
-      <c r="V135">
+      <c r="W135">
         <v>-5.773005426612521E-05</v>
       </c>
-      <c r="W135">
+      <c r="X135">
         <v>-0.0002884338044419898</v>
       </c>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:24">
       <c r="A136" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B136">
         <v>69.31999999999999</v>
@@ -10951,21 +11359,24 @@
         <v>69.28533333333333</v>
       </c>
       <c r="T136">
+        <v>69.32666666666665</v>
+      </c>
+      <c r="U136">
         <v>0.01375000000000171</v>
       </c>
-      <c r="U136">
+      <c r="V136">
         <v>-9.608178481512741E-05</v>
       </c>
-      <c r="V136">
+      <c r="W136">
         <v>1.924446240586519E-05</v>
       </c>
-      <c r="W136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:23">
+      <c r="X136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24">
       <c r="A137" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B137">
         <v>69.38</v>
@@ -11022,21 +11433,24 @@
         <v>69.29066666666668</v>
       </c>
       <c r="T137">
+        <v>69.33999999999999</v>
+      </c>
+      <c r="U137">
         <v>0.02124999999999488</v>
       </c>
-      <c r="U137">
+      <c r="V137">
         <v>-8.648191567073304E-05</v>
       </c>
-      <c r="V137">
+      <c r="W137">
         <v>7.69763682553215E-05</v>
       </c>
-      <c r="W137">
+      <c r="X137">
         <v>0.0008655510675130706</v>
       </c>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:24">
       <c r="A138" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B138">
         <v>69.38</v>
@@ -11093,21 +11507,24 @@
         <v>69.30133333333333</v>
       </c>
       <c r="T138">
+        <v>69.36</v>
+      </c>
+      <c r="U138">
         <v>0.03125</v>
       </c>
-      <c r="U138">
+      <c r="V138">
         <v>-6.726952978597378E-05</v>
       </c>
-      <c r="V138">
+      <c r="W138">
         <v>0.0001539408866992886</v>
       </c>
-      <c r="W138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:23">
+      <c r="X138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:24">
       <c r="A139" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B139">
         <v>69.38</v>
@@ -11164,21 +11581,24 @@
         <v>69.31066666666668</v>
       </c>
       <c r="T139">
+        <v>69.38</v>
+      </c>
+      <c r="U139">
         <v>0.03624999999999545</v>
       </c>
-      <c r="U139">
+      <c r="V139">
         <v>-6.727405528006436E-05</v>
       </c>
-      <c r="V139">
+      <c r="W139">
         <v>0.0001346775434818426</v>
       </c>
-      <c r="W139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:23">
+      <c r="X139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24">
       <c r="A140" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B140">
         <v>69.31999999999999</v>
@@ -11235,21 +11655,24 @@
         <v>69.31466666666667</v>
       </c>
       <c r="T140">
+        <v>69.36</v>
+      </c>
+      <c r="U140">
         <v>0.03125</v>
       </c>
-      <c r="U140">
+      <c r="V140">
         <v>-8.650103320684277E-05</v>
       </c>
-      <c r="V140">
+      <c r="W140">
         <v>5.771117480701804E-05</v>
       </c>
-      <c r="W140">
+      <c r="X140">
         <v>-0.000864802536754139</v>
       </c>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:24">
       <c r="A141" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B141">
         <v>69.31999999999999</v>
@@ -11306,21 +11729,24 @@
         <v>69.31733333333334</v>
       </c>
       <c r="T141">
+        <v>69.33999999999999</v>
+      </c>
+      <c r="U141">
         <v>0.03000000000000114</v>
       </c>
-      <c r="U141">
+      <c r="V141">
         <v>-8.650851628277945E-05</v>
       </c>
-      <c r="V141">
+      <c r="W141">
         <v>3.847189627981251E-05</v>
       </c>
-      <c r="W141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:23">
+      <c r="X141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24">
       <c r="A142" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B142">
         <v>69.36</v>
@@ -11377,21 +11803,24 @@
         <v>69.32266666666666</v>
       </c>
       <c r="T142">
+        <v>69.33333333333333</v>
+      </c>
+      <c r="U142">
         <v>0.02750000000000341</v>
       </c>
-      <c r="U142">
+      <c r="V142">
         <v>-7.690311169206154E-05</v>
       </c>
-      <c r="V142">
+      <c r="W142">
         <v>7.694083249965011E-05</v>
       </c>
-      <c r="W142">
+      <c r="X142">
         <v>0.0005770340450086398</v>
       </c>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:24">
       <c r="A143" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B143">
         <v>69.36</v>
@@ -11448,21 +11877,24 @@
         <v>69.32666666666665</v>
       </c>
       <c r="T143">
+        <v>69.34666666666668</v>
+      </c>
+      <c r="U143">
         <v>0.0274999999999892</v>
       </c>
-      <c r="U143">
+      <c r="V143">
         <v>-7.690902623569418E-05</v>
       </c>
-      <c r="V143">
+      <c r="W143">
         <v>5.770118479753172E-05</v>
       </c>
-      <c r="W143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:23">
+      <c r="X143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:24">
       <c r="A144" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B144">
         <v>69.40000000000001</v>
@@ -11519,21 +11951,24 @@
         <v>69.33466666666666</v>
       </c>
       <c r="T144">
+        <v>69.37333333333333</v>
+      </c>
+      <c r="U144">
         <v>0.03124999999998579</v>
       </c>
-      <c r="U144">
+      <c r="V144">
         <v>-4.807183855548569E-05</v>
       </c>
-      <c r="V144">
+      <c r="W144">
         <v>0.0001153957111261761</v>
       </c>
-      <c r="W144">
+      <c r="X144">
         <v>0.0005767012687429851</v>
       </c>
     </row>
-    <row r="145" spans="1:23">
+    <row r="145" spans="1:24">
       <c r="A145" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B145">
         <v>69.36</v>
@@ -11590,21 +12025,24 @@
         <v>69.34133333333332</v>
       </c>
       <c r="T145">
+        <v>69.37333333333333</v>
+      </c>
+      <c r="U145">
         <v>0.02375000000000682</v>
       </c>
-      <c r="U145">
+      <c r="V145">
         <v>-6.730380939556913E-05</v>
       </c>
-      <c r="V145">
+      <c r="W145">
         <v>9.615199707679878E-05</v>
       </c>
-      <c r="W145">
+      <c r="X145">
         <v>-0.0005763688760808128</v>
       </c>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:24">
       <c r="A146" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B146">
         <v>69.40000000000001</v>
@@ -11661,21 +12099,24 @@
         <v>69.35066666666667</v>
       </c>
       <c r="T146">
+        <v>69.38666666666667</v>
+      </c>
+      <c r="U146">
         <v>0.01749999999999829</v>
       </c>
-      <c r="U146">
+      <c r="V146">
         <v>-3.846190828760143E-05</v>
       </c>
-      <c r="V146">
+      <c r="W146">
         <v>0.0001345998538631044</v>
       </c>
-      <c r="W146">
+      <c r="X146">
         <v>0.0005767012687429851</v>
       </c>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" spans="1:24">
       <c r="A147" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B147">
         <v>69.40000000000001</v>
@@ -11732,21 +12173,24 @@
         <v>69.35599999999999</v>
       </c>
       <c r="T147">
+        <v>69.38666666666667</v>
+      </c>
+      <c r="U147">
         <v>0.01125000000001819</v>
       </c>
-      <c r="U147">
+      <c r="V147">
         <v>-2.884754074705675E-05</v>
       </c>
-      <c r="V147">
+      <c r="W147">
         <v>7.690385096026375E-05</v>
       </c>
-      <c r="W147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:23">
+      <c r="X147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24">
       <c r="A148" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B148">
         <v>69.36</v>
@@ -11803,21 +12247,24 @@
         <v>69.36</v>
       </c>
       <c r="T148">
+        <v>69.38666666666667</v>
+      </c>
+      <c r="U148">
         <v>0.01375000000000171</v>
       </c>
-      <c r="U148">
+      <c r="V148">
         <v>-2.884837295191733E-05</v>
       </c>
-      <c r="V148">
+      <c r="W148">
         <v>5.767345290963455E-05</v>
       </c>
-      <c r="W148">
+      <c r="X148">
         <v>-0.0005763688760808128</v>
       </c>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" spans="1:24">
       <c r="A149" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B149">
         <v>69.40000000000001</v>
@@ -11874,21 +12321,24 @@
         <v>69.364</v>
       </c>
       <c r="T149">
+        <v>69.38666666666667</v>
+      </c>
+      <c r="U149">
         <v>0.01750000000001251</v>
       </c>
-      <c r="U149">
+      <c r="V149">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="V149">
+      <c r="W149">
         <v>5.767012687440953E-05</v>
       </c>
-      <c r="W149">
+      <c r="X149">
         <v>0.0005767012687429851</v>
       </c>
     </row>
-    <row r="150" spans="1:23">
+    <row r="150" spans="1:24">
       <c r="A150" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B150">
         <v>69.38</v>
@@ -11945,21 +12395,24 @@
         <v>69.36799999999999</v>
       </c>
       <c r="T150">
+        <v>69.38</v>
+      </c>
+      <c r="U150">
         <v>0.01750000000001251</v>
       </c>
-      <c r="U150">
+      <c r="V150">
         <v>-2.220446049250313E-16</v>
       </c>
-      <c r="V150">
+      <c r="W150">
         <v>5.766680122243351E-05</v>
       </c>
-      <c r="W150">
+      <c r="X150">
         <v>-0.0002881844380404619</v>
       </c>
     </row>
-    <row r="151" spans="1:23">
+    <row r="151" spans="1:24">
       <c r="A151" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B151">
         <v>69.38</v>
@@ -12016,21 +12469,24 @@
         <v>69.372</v>
       </c>
       <c r="T151">
+        <v>69.38666666666666</v>
+      </c>
+      <c r="U151">
         <v>0.01625000000001364</v>
       </c>
-      <c r="U151">
+      <c r="V151">
         <v>3.846560693943069E-05</v>
       </c>
-      <c r="V151">
+      <c r="W151">
         <v>5.76634759543726E-05</v>
       </c>
-      <c r="W151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:23">
+      <c r="X151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24">
       <c r="A152" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B152">
         <v>69.38</v>
@@ -12087,21 +12543,24 @@
         <v>69.372</v>
       </c>
       <c r="T152">
+        <v>69.38</v>
+      </c>
+      <c r="U152">
         <v>0.01000000000000512</v>
       </c>
-      <c r="U152">
+      <c r="V152">
         <v>3.846412739294536E-05</v>
       </c>
-      <c r="V152">
-        <v>0</v>
-      </c>
       <c r="W152">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:23">
+      <c r="X152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24">
       <c r="A153" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B153">
         <v>69.40000000000001</v>
@@ -12158,21 +12617,24 @@
         <v>69.37333333333332</v>
       </c>
       <c r="T153">
+        <v>69.38666666666667</v>
+      </c>
+      <c r="U153">
         <v>0.01375000000001592</v>
       </c>
-      <c r="U153">
+      <c r="V153">
         <v>8.654095791227334E-05</v>
       </c>
-      <c r="V153">
+      <c r="W153">
         <v>1.92200503563722E-05</v>
       </c>
-      <c r="W153">
+      <c r="X153">
         <v>0.0002882675122515277</v>
       </c>
     </row>
-    <row r="154" spans="1:23">
+    <row r="154" spans="1:24">
       <c r="A154" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B154">
         <v>69.38</v>
@@ -12229,21 +12691,24 @@
         <v>69.37333333333332</v>
       </c>
       <c r="T154">
+        <v>69.38666666666667</v>
+      </c>
+      <c r="U154">
         <v>0.01125000000000398</v>
       </c>
-      <c r="U154">
+      <c r="V154">
         <v>6.730380939568015E-05</v>
       </c>
-      <c r="V154">
-        <v>0</v>
-      </c>
       <c r="W154">
+        <v>0</v>
+      </c>
+      <c r="X154">
         <v>-0.0002881844380404619</v>
       </c>
     </row>
-    <row r="155" spans="1:23">
+    <row r="155" spans="1:24">
       <c r="A155" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B155">
         <v>69.40000000000001</v>
@@ -12300,21 +12765,24 @@
         <v>69.37866666666667</v>
       </c>
       <c r="T155">
+        <v>69.39333333333333</v>
+      </c>
+      <c r="U155">
         <v>0.01000000000000512</v>
       </c>
-      <c r="U155">
+      <c r="V155">
         <v>6.729927989779227E-05</v>
       </c>
-      <c r="V155">
+      <c r="W155">
         <v>7.687872381345606E-05</v>
       </c>
-      <c r="W155">
+      <c r="X155">
         <v>0.0002882675122515277</v>
       </c>
     </row>
-    <row r="156" spans="1:23">
+    <row r="156" spans="1:24">
       <c r="A156" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B156">
         <v>69.38</v>
@@ -12371,21 +12839,24 @@
         <v>69.38266666666667</v>
       </c>
       <c r="T156">
+        <v>69.38666666666666</v>
+      </c>
+      <c r="U156">
         <v>0.008750000000006253</v>
       </c>
-      <c r="U156">
+      <c r="V156">
         <v>4.80676792924406E-05</v>
       </c>
-      <c r="V156">
+      <c r="W156">
         <v>5.765461044693332E-05</v>
       </c>
-      <c r="W156">
+      <c r="X156">
         <v>-0.0002881844380404619</v>
       </c>
     </row>
-    <row r="157" spans="1:23">
+    <row r="157" spans="1:24">
       <c r="A157" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B157">
         <v>69.34</v>
@@ -12442,21 +12913,24 @@
         <v>69.38133333333333</v>
       </c>
       <c r="T157">
-        <v>0</v>
+        <v>69.37333333333333</v>
       </c>
       <c r="U157">
+        <v>0</v>
+      </c>
+      <c r="V157">
         <v>2.883922134122585E-05</v>
       </c>
-      <c r="V157">
+      <c r="W157">
         <v>-1.921709552821227E-05</v>
       </c>
-      <c r="W157">
+      <c r="X157">
         <v>-0.0005765350245026113</v>
       </c>
     </row>
-    <row r="158" spans="1:23">
+    <row r="158" spans="1:24">
       <c r="A158" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B158">
         <v>69.34</v>
@@ -12513,21 +12987,24 @@
         <v>69.38000000000001</v>
       </c>
       <c r="T158">
+        <v>69.35333333333334</v>
+      </c>
+      <c r="U158">
         <v>-0.003749999999996589</v>
       </c>
-      <c r="U158">
+      <c r="V158">
         <v>1.92255931092955E-05</v>
       </c>
-      <c r="V158">
+      <c r="W158">
         <v>-1.9217464831911E-05</v>
       </c>
-      <c r="W158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:23">
+      <c r="X158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:24">
       <c r="A159" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B159">
         <v>69.34</v>
@@ -12584,21 +13061,24 @@
         <v>69.376</v>
       </c>
       <c r="T159">
+        <v>69.34000000000002</v>
+      </c>
+      <c r="U159">
         <v>-0.007499999999993179</v>
       </c>
-      <c r="U159">
+      <c r="V159">
         <v>2.883783523999206E-05</v>
       </c>
-      <c r="V159">
+      <c r="W159">
         <v>-5.765350245034995E-05</v>
       </c>
-      <c r="W159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:23">
+      <c r="X159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:24">
       <c r="A160" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B160">
         <v>69.38</v>
@@ -12655,21 +13135,24 @@
         <v>69.37733333333334</v>
       </c>
       <c r="T160">
+        <v>69.35333333333334</v>
+      </c>
+      <c r="U160">
         <v>-0.006249999999994316</v>
       </c>
-      <c r="U160">
+      <c r="V160">
         <v>5.767400728595717E-05</v>
       </c>
-      <c r="V160">
+      <c r="W160">
         <v>1.921894218948061E-05</v>
       </c>
-      <c r="W160">
+      <c r="X160">
         <v>0.0005768676088835356</v>
       </c>
     </row>
-    <row r="161" spans="1:23">
+    <row r="161" spans="1:24">
       <c r="A161" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B161">
         <v>69.36</v>
@@ -12726,21 +13209,24 @@
         <v>69.37466666666667</v>
       </c>
       <c r="T161">
+        <v>69.36</v>
+      </c>
+      <c r="U161">
         <v>-0.01125000000000398</v>
       </c>
-      <c r="U161">
+      <c r="V161">
         <v>4.805890098924515E-05</v>
       </c>
-      <c r="V161">
+      <c r="W161">
         <v>-3.843714565765488E-05</v>
       </c>
-      <c r="W161">
+      <c r="X161">
         <v>-0.0002882675122513056</v>
       </c>
     </row>
-    <row r="162" spans="1:23">
+    <row r="162" spans="1:24">
       <c r="A162" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B162">
         <v>69.38</v>
@@ -12797,21 +13283,24 @@
         <v>69.37333333333332</v>
       </c>
       <c r="T162">
+        <v>69.37333333333333</v>
+      </c>
+      <c r="U162">
         <v>-0.01000000000000512</v>
       </c>
-      <c r="U162">
+      <c r="V162">
         <v>2.883395486508178E-05</v>
       </c>
-      <c r="V162">
+      <c r="W162">
         <v>-1.921931156445567E-05</v>
       </c>
-      <c r="W162">
+      <c r="X162">
         <v>0.0002883506343713815</v>
       </c>
     </row>
-    <row r="163" spans="1:23">
+    <row r="163" spans="1:24">
       <c r="A163" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B163">
         <v>69.36</v>
@@ -12868,21 +13357,24 @@
         <v>69.37333333333335</v>
       </c>
       <c r="T163">
+        <v>69.36666666666667</v>
+      </c>
+      <c r="U163">
         <v>-0.01250000000000284</v>
       </c>
-      <c r="U163">
+      <c r="V163">
         <v>2.883312349211131E-05</v>
       </c>
-      <c r="V163">
+      <c r="W163">
         <v>4.440892098500626E-16</v>
       </c>
-      <c r="W163">
+      <c r="X163">
         <v>-0.0002882675122513056</v>
       </c>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" spans="1:24">
       <c r="A164" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B164">
         <v>69.34</v>
@@ -12939,21 +13431,24 @@
         <v>69.36933333333333</v>
       </c>
       <c r="T164">
+        <v>69.36</v>
+      </c>
+      <c r="U164">
         <v>-0.01624999999998522</v>
       </c>
-      <c r="U164">
-        <v>0</v>
-      </c>
       <c r="V164">
+        <v>0</v>
+      </c>
+      <c r="W164">
         <v>-5.765904286014756E-05</v>
       </c>
-      <c r="W164">
+      <c r="X164">
         <v>-0.0002883506343713815</v>
       </c>
     </row>
-    <row r="165" spans="1:23">
+    <row r="165" spans="1:24">
       <c r="A165" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B165">
         <v>69.3</v>
@@ -13010,21 +13505,24 @@
         <v>69.364</v>
       </c>
       <c r="T165">
+        <v>69.33333333333333</v>
+      </c>
+      <c r="U165">
         <v>-0.01500000000001478</v>
       </c>
-      <c r="U165">
+      <c r="V165">
         <v>-9.610764055700827E-06</v>
       </c>
-      <c r="V165">
+      <c r="W165">
         <v>-7.688315682230495E-05</v>
       </c>
-      <c r="W165">
+      <c r="X165">
         <v>-0.0005768676088838687</v>
       </c>
     </row>
-    <row r="166" spans="1:23">
+    <row r="166" spans="1:24">
       <c r="A166" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B166">
         <v>69.31999999999999</v>
@@ -13081,21 +13579,24 @@
         <v>69.35999999999999</v>
       </c>
       <c r="T166">
+        <v>69.31999999999999</v>
+      </c>
+      <c r="U166">
         <v>-0.01375000000000171</v>
       </c>
-      <c r="U166">
-        <v>0</v>
-      </c>
       <c r="V166">
+        <v>0</v>
+      </c>
+      <c r="W166">
         <v>-5.766680122276657E-05</v>
       </c>
-      <c r="W166">
+      <c r="X166">
         <v>0.000288600288600227</v>
       </c>
     </row>
-    <row r="167" spans="1:23">
+    <row r="167" spans="1:24">
       <c r="A167" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B167">
         <v>69.31999999999999</v>
@@ -13152,21 +13653,24 @@
         <v>69.35599999999999</v>
       </c>
       <c r="T167">
+        <v>69.31333333333333</v>
+      </c>
+      <c r="U167">
         <v>-0.01250000000000284</v>
       </c>
-      <c r="U167">
+      <c r="V167">
         <v>-2.883256927022071E-05</v>
       </c>
-      <c r="V167">
+      <c r="W167">
         <v>-5.767012687418749E-05</v>
       </c>
-      <c r="W167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:23">
+      <c r="X167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:24">
       <c r="A168" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B168">
         <v>69.36</v>
@@ -13223,21 +13727,24 @@
         <v>69.35333333333332</v>
       </c>
       <c r="T168">
+        <v>69.33333333333333</v>
+      </c>
+      <c r="U168">
         <v>-0.01375000000000171</v>
       </c>
-      <c r="U168">
+      <c r="V168">
         <v>-9.611133537257288E-06</v>
       </c>
-      <c r="V168">
+      <c r="W168">
         <v>-3.844896860649705E-05</v>
       </c>
-      <c r="W168">
+      <c r="X168">
         <v>0.0005770340450086398</v>
       </c>
     </row>
-    <row r="169" spans="1:23">
+    <row r="169" spans="1:24">
       <c r="A169" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B169">
         <v>69.40000000000001</v>
@@ -13294,21 +13801,24 @@
         <v>69.35466666666666</v>
       </c>
       <c r="T169">
+        <v>69.36</v>
+      </c>
+      <c r="U169">
         <v>-0.008750000000006253</v>
       </c>
-      <c r="U169">
+      <c r="V169">
         <v>9.611225912031784E-06</v>
       </c>
-      <c r="V169">
+      <c r="W169">
         <v>1.922522349318001E-05</v>
       </c>
-      <c r="W169">
+      <c r="X169">
         <v>0.0005767012687429851</v>
       </c>
     </row>
-    <row r="170" spans="1:23">
+    <row r="170" spans="1:24">
       <c r="A170" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B170">
         <v>69.38</v>
@@ -13365,21 +13875,24 @@
         <v>69.35333333333332</v>
       </c>
       <c r="T170">
+        <v>69.38</v>
+      </c>
+      <c r="U170">
         <v>-0.008750000000006253</v>
       </c>
-      <c r="U170">
+      <c r="V170">
         <v>2.883340061110573E-05</v>
       </c>
-      <c r="V170">
+      <c r="W170">
         <v>-1.922485389116435E-05</v>
       </c>
-      <c r="W170">
+      <c r="X170">
         <v>-0.0002881844380404619</v>
       </c>
     </row>
-    <row r="171" spans="1:23">
+    <row r="171" spans="1:24">
       <c r="A171" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B171">
         <v>69.40000000000001</v>
@@ -13436,21 +13949,24 @@
         <v>69.35466666666666</v>
       </c>
       <c r="T171">
+        <v>69.39333333333333</v>
+      </c>
+      <c r="U171">
         <v>-0.003749999999982379</v>
       </c>
-      <c r="U171">
+      <c r="V171">
         <v>3.844342569370163E-05</v>
       </c>
-      <c r="V171">
+      <c r="W171">
         <v>1.922522349318001E-05</v>
       </c>
-      <c r="W171">
+      <c r="X171">
         <v>0.0002882675122515277</v>
       </c>
     </row>
-    <row r="172" spans="1:23">
+    <row r="172" spans="1:24">
       <c r="A172" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B172">
         <v>69.38</v>
@@ -13507,21 +14023,24 @@
         <v>69.35733333333333</v>
       </c>
       <c r="T172">
+        <v>69.38666666666667</v>
+      </c>
+      <c r="U172">
         <v>0.001249999999998863</v>
       </c>
-      <c r="U172">
+      <c r="V172">
         <v>9.610486963351761E-06</v>
       </c>
-      <c r="V172">
+      <c r="W172">
         <v>3.84497077823287E-05</v>
       </c>
-      <c r="W172">
+      <c r="X172">
         <v>-0.0002881844380404619</v>
       </c>
     </row>
-    <row r="173" spans="1:23">
+    <row r="173" spans="1:24">
       <c r="A173" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B173">
         <v>69.38</v>
@@ -13578,21 +14097,24 @@
         <v>69.35999999999999</v>
       </c>
       <c r="T173">
+        <v>69.38666666666667</v>
+      </c>
+      <c r="U173">
         <v>0.008750000000006253</v>
       </c>
-      <c r="U173">
+      <c r="V173">
         <v>9.610394602788119E-06</v>
       </c>
-      <c r="V173">
+      <c r="W173">
         <v>3.844822945886506E-05</v>
       </c>
-      <c r="W173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:23">
+      <c r="X173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:24">
       <c r="A174" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B174">
         <v>69.40000000000001</v>
@@ -13649,21 +14171,24 @@
         <v>69.364</v>
       </c>
       <c r="T174">
+        <v>69.38666666666666</v>
+      </c>
+      <c r="U174">
         <v>0.01500000000000057</v>
       </c>
-      <c r="U174">
-        <v>0</v>
-      </c>
       <c r="V174">
+        <v>0</v>
+      </c>
+      <c r="W174">
         <v>5.767012687463158E-05</v>
       </c>
-      <c r="W174">
+      <c r="X174">
         <v>0.0002882675122515277</v>
       </c>
     </row>
-    <row r="175" spans="1:23">
+    <row r="175" spans="1:24">
       <c r="A175" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B175">
         <v>69.40000000000001</v>
@@ -13720,21 +14245,24 @@
         <v>69.36533333333334</v>
       </c>
       <c r="T175">
+        <v>69.39333333333333</v>
+      </c>
+      <c r="U175">
         <v>0.02124999999999488</v>
       </c>
-      <c r="U175">
+      <c r="V175">
         <v>1.922060448800167E-05</v>
       </c>
-      <c r="V175">
+      <c r="W175">
         <v>1.922226707429253E-05</v>
       </c>
-      <c r="W175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:23">
+      <c r="X175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:24">
       <c r="A176" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B176">
         <v>69.42</v>
@@ -13791,21 +14319,24 @@
         <v>69.36933333333333</v>
       </c>
       <c r="T176">
+        <v>69.40666666666667</v>
+      </c>
+      <c r="U176">
         <v>0.02625000000001876</v>
       </c>
-      <c r="U176">
+      <c r="V176">
         <v>9.610117531755336E-06</v>
       </c>
-      <c r="V176">
+      <c r="W176">
         <v>5.766569275711397E-05</v>
       </c>
-      <c r="W176">
+      <c r="X176">
         <v>0.0002881844380402399</v>
       </c>
     </row>
-    <row r="177" spans="1:23">
+    <row r="177" spans="1:24">
       <c r="A177" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B177">
         <v>69.45999999999999</v>
@@ -13862,21 +14393,24 @@
         <v>69.37466666666667</v>
       </c>
       <c r="T177">
+        <v>69.42666666666666</v>
+      </c>
+      <c r="U177">
         <v>0.02750000000000341</v>
       </c>
-      <c r="U177">
+      <c r="V177">
         <v>2.883007553489136E-05</v>
       </c>
-      <c r="V177">
+      <c r="W177">
         <v>7.6883156822527E-05</v>
       </c>
-      <c r="W177">
+      <c r="X177">
         <v>0.0005762028233937677</v>
       </c>
     </row>
-    <row r="178" spans="1:23">
+    <row r="178" spans="1:24">
       <c r="A178" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B178">
         <v>69.5</v>
@@ -13933,21 +14467,24 @@
         <v>69.384</v>
       </c>
       <c r="T178">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="U178">
         <v>0.0350000000000108</v>
       </c>
-      <c r="U178">
+      <c r="V178">
         <v>6.72682368993982E-05</v>
       </c>
-      <c r="V178">
+      <c r="W178">
         <v>0.0001345351809498574</v>
       </c>
-      <c r="W178">
+      <c r="X178">
         <v>0.0005758710048950899</v>
       </c>
     </row>
-    <row r="179" spans="1:23">
+    <row r="179" spans="1:24">
       <c r="A179" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B179">
         <v>69.5</v>
@@ -14004,21 +14541,24 @@
         <v>69.39466666666667</v>
       </c>
       <c r="T179">
+        <v>69.48666666666666</v>
+      </c>
+      <c r="U179">
         <v>0.03875000000000739</v>
       </c>
-      <c r="U179">
+      <c r="V179">
         <v>4.804550870574076E-05</v>
       </c>
-      <c r="V179">
+      <c r="W179">
         <v>0.0001537338099080188</v>
       </c>
-      <c r="W179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:23">
+      <c r="X179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:24">
       <c r="A180" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B180">
         <v>69.5</v>
@@ -14075,21 +14615,24 @@
         <v>69.408</v>
       </c>
       <c r="T180">
+        <v>69.5</v>
+      </c>
+      <c r="U180">
         <v>0.04375000000000284</v>
       </c>
-      <c r="U180">
+      <c r="V180">
         <v>5.765184053485584E-05</v>
       </c>
-      <c r="V180">
+      <c r="W180">
         <v>0.0001921377243208067</v>
       </c>
-      <c r="W180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:23">
+      <c r="X180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:24">
       <c r="A181" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B181">
         <v>69.48</v>
@@ -14146,21 +14689,24 @@
         <v>69.41866666666667</v>
       </c>
       <c r="T181">
+        <v>69.49333333333334</v>
+      </c>
+      <c r="U181">
         <v>0.04500000000001592</v>
       </c>
-      <c r="U181">
+      <c r="V181">
         <v>4.804043082673459E-05</v>
       </c>
-      <c r="V181">
+      <c r="W181">
         <v>0.0001536806516060363</v>
       </c>
-      <c r="W181">
+      <c r="X181">
         <v>-0.0002877697841725535</v>
       </c>
     </row>
-    <row r="182" spans="1:23">
+    <row r="182" spans="1:24">
       <c r="A182" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B182">
         <v>69.48</v>
@@ -14217,21 +14763,24 @@
         <v>69.42933333333333</v>
       </c>
       <c r="T182">
+        <v>69.48666666666668</v>
+      </c>
+      <c r="U182">
         <v>0.04500000000000171</v>
       </c>
-      <c r="U182">
+      <c r="V182">
         <v>4.803812305431698E-05</v>
       </c>
-      <c r="V182">
+      <c r="W182">
         <v>0.0001536570374922608</v>
       </c>
-      <c r="W182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:23">
+      <c r="X182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:24">
       <c r="A183" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B183">
         <v>69.5</v>
@@ -14288,21 +14837,24 @@
         <v>69.43866666666666</v>
       </c>
       <c r="T183">
+        <v>69.48666666666668</v>
+      </c>
+      <c r="U183">
         <v>0.04625000000000057</v>
       </c>
-      <c r="U183">
+      <c r="V183">
         <v>4.803581550416602E-05</v>
       </c>
-      <c r="V183">
+      <c r="W183">
         <v>0.0001344292518050683</v>
       </c>
-      <c r="W183">
+      <c r="X183">
         <v>0.0002878526194587394</v>
       </c>
     </row>
-    <row r="184" spans="1:23">
+    <row r="184" spans="1:24">
       <c r="A184" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B184">
         <v>69.48</v>
@@ -14359,21 +14911,24 @@
         <v>69.444</v>
       </c>
       <c r="T184">
+        <v>69.48666666666666</v>
+      </c>
+      <c r="U184">
         <v>0.04625000000000057</v>
       </c>
-      <c r="U184">
+      <c r="V184">
         <v>4.803350817517149E-05</v>
       </c>
-      <c r="V184">
+      <c r="W184">
         <v>7.680639029183922E-05</v>
       </c>
-      <c r="W184">
+      <c r="X184">
         <v>-0.0002877697841725535</v>
       </c>
     </row>
-    <row r="185" spans="1:23">
+    <row r="185" spans="1:24">
       <c r="A185" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B185">
         <v>69.44</v>
@@ -14430,21 +14985,24 @@
         <v>69.44800000000001</v>
       </c>
       <c r="T185">
+        <v>69.47333333333334</v>
+      </c>
+      <c r="U185">
         <v>0.04124999999999091</v>
       </c>
-      <c r="U185">
+      <c r="V185">
         <v>1.921248042724422E-05</v>
       </c>
-      <c r="V185">
+      <c r="W185">
         <v>5.760036864232987E-05</v>
       </c>
-      <c r="W185">
+      <c r="X185">
         <v>-0.0005757052389178119</v>
       </c>
     </row>
-    <row r="186" spans="1:23">
+    <row r="186" spans="1:24">
       <c r="A186" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B186">
         <v>69.44</v>
@@ -14501,21 +15059,24 @@
         <v>69.45066666666666</v>
       </c>
       <c r="T186">
+        <v>69.45333333333333</v>
+      </c>
+      <c r="U186">
         <v>0.03000000000001535</v>
       </c>
-      <c r="U186">
+      <c r="V186">
         <v>2.881816697231088E-05</v>
       </c>
-      <c r="V186">
+      <c r="W186">
         <v>3.839803402039266E-05</v>
       </c>
-      <c r="W186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:23">
+      <c r="X186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:24">
       <c r="A187" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B187">
         <v>69.44</v>
@@ -14572,21 +15133,24 @@
         <v>69.45466666666667</v>
       </c>
       <c r="T187">
+        <v>69.44</v>
+      </c>
+      <c r="U187">
         <v>0.01999999999999602</v>
       </c>
-      <c r="U187">
+      <c r="V187">
         <v>4.802889418287215E-05</v>
       </c>
-      <c r="V187">
+      <c r="W187">
         <v>5.75948395025172E-05</v>
       </c>
-      <c r="W187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:23">
+      <c r="X187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:24">
       <c r="A188" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B188">
         <v>69.42</v>
@@ -14643,21 +15207,24 @@
         <v>69.45733333333332</v>
       </c>
       <c r="T188">
+        <v>69.43333333333334</v>
+      </c>
+      <c r="U188">
         <v>0.00750000000000739</v>
       </c>
-      <c r="U188">
+      <c r="V188">
         <v>3.842127001485451E-05</v>
       </c>
-      <c r="V188">
+      <c r="W188">
         <v>3.83943483517335E-05</v>
       </c>
-      <c r="W188">
+      <c r="X188">
         <v>-0.0002880184331797153</v>
       </c>
     </row>
-    <row r="189" spans="1:23">
+    <row r="189" spans="1:24">
       <c r="A189" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B189">
         <v>69.42</v>
@@ -14714,21 +15281,24 @@
         <v>69.45866666666667</v>
       </c>
       <c r="T189">
+        <v>69.42666666666666</v>
+      </c>
+      <c r="U189">
         <v>-0.002500000000011937</v>
       </c>
-      <c r="U189">
+      <c r="V189">
         <v>3.841979387786409E-05</v>
       </c>
-      <c r="V189">
+      <c r="W189">
         <v>1.919643714143326E-05</v>
       </c>
-      <c r="W189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:23">
+      <c r="X189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:24">
       <c r="A190" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B190">
         <v>69.44</v>
@@ -14785,21 +15355,24 @@
         <v>69.46133333333334</v>
       </c>
       <c r="T190">
+        <v>69.42666666666666</v>
+      </c>
+      <c r="U190">
         <v>-0.01000000000000512</v>
       </c>
-      <c r="U190">
+      <c r="V190">
         <v>2.881373839058732E-05</v>
       </c>
-      <c r="V190">
+      <c r="W190">
         <v>3.839213729039948E-05</v>
       </c>
-      <c r="W190">
+      <c r="X190">
         <v>0.0002881014116968839</v>
       </c>
     </row>
-    <row r="191" spans="1:23">
+    <row r="191" spans="1:24">
       <c r="A191" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B191">
         <v>69.40000000000001</v>
@@ -14856,21 +15429,24 @@
         <v>69.45999999999999</v>
       </c>
       <c r="T191">
+        <v>69.42</v>
+      </c>
+      <c r="U191">
         <v>-0.02249999999999375</v>
       </c>
-      <c r="U191">
+      <c r="V191">
         <v>1.920860545512326E-05</v>
       </c>
-      <c r="V191">
+      <c r="W191">
         <v>-1.919533169558729E-05</v>
       </c>
-      <c r="W191">
+      <c r="X191">
         <v>-0.0005760368663593196</v>
       </c>
     </row>
-    <row r="192" spans="1:23">
+    <row r="192" spans="1:24">
       <c r="A192" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B192">
         <v>69.44</v>
@@ -14927,21 +15503,24 @@
         <v>69.45866666666667</v>
       </c>
       <c r="T192">
+        <v>69.42666666666666</v>
+      </c>
+      <c r="U192">
         <v>-0.02875000000001648</v>
       </c>
-      <c r="U192">
+      <c r="V192">
         <v>2.881235473783939E-05</v>
       </c>
-      <c r="V192">
+      <c r="W192">
         <v>-1.919570016295502E-05</v>
       </c>
-      <c r="W192">
+      <c r="X192">
         <v>0.0005763688760804797</v>
       </c>
     </row>
-    <row r="193" spans="1:23">
+    <row r="193" spans="1:24">
       <c r="A193" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B193">
         <v>69.44</v>
@@ -14998,21 +15577,24 @@
         <v>69.45466666666667</v>
       </c>
       <c r="T193">
+        <v>69.42666666666666</v>
+      </c>
+      <c r="U193">
         <v>-0.0274999999999892</v>
       </c>
-      <c r="U193">
+      <c r="V193">
         <v>3.841536614634933E-05</v>
       </c>
-      <c r="V193">
+      <c r="W193">
         <v>-5.758820593548819E-05</v>
       </c>
-      <c r="W193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:23">
+      <c r="X193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:24">
       <c r="A194" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B194">
         <v>69.44</v>
@@ -15069,21 +15651,24 @@
         <v>69.45066666666666</v>
       </c>
       <c r="T194">
+        <v>69.44</v>
+      </c>
+      <c r="U194">
         <v>-0.02375000000000682</v>
       </c>
-      <c r="U194">
+      <c r="V194">
         <v>4.801736307857851E-05</v>
       </c>
-      <c r="V194">
+      <c r="W194">
         <v>-5.759152252793331E-05</v>
       </c>
-      <c r="W194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:23">
+      <c r="X194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:24">
       <c r="A195" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B195">
         <v>69.45999999999999</v>
@@ -15140,21 +15725,24 @@
         <v>69.44800000000001</v>
       </c>
       <c r="T195">
+        <v>69.44666666666666</v>
+      </c>
+      <c r="U195">
         <v>-0.01874999999999716</v>
       </c>
-      <c r="U195">
+      <c r="V195">
         <v>7.682409203502161E-05</v>
       </c>
-      <c r="V195">
+      <c r="W195">
         <v>-3.839655966808575E-05</v>
       </c>
-      <c r="W195">
+      <c r="X195">
         <v>0.0002880184331797153</v>
       </c>
     </row>
-    <row r="196" spans="1:23">
+    <row r="196" spans="1:24">
       <c r="A196" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B196">
         <v>69.45999999999999</v>
@@ -15211,21 +15799,24 @@
         <v>69.44666666666667</v>
       </c>
       <c r="T196">
+        <v>69.45333333333333</v>
+      </c>
+      <c r="U196">
         <v>-0.01125000000000398</v>
       </c>
-      <c r="U196">
+      <c r="V196">
         <v>6.721591672920191E-05</v>
       </c>
-      <c r="V196">
+      <c r="W196">
         <v>-1.919901701030735E-05</v>
       </c>
-      <c r="W196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:23">
+      <c r="X196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:24">
       <c r="A197" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B197">
         <v>69.45999999999999</v>
@@ -15282,21 +15873,24 @@
         <v>69.44533333333334</v>
       </c>
       <c r="T197">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="U197">
         <v>-0.005000000000009663</v>
       </c>
-      <c r="U197">
+      <c r="V197">
         <v>6.721139905319085E-05</v>
       </c>
-      <c r="V197">
+      <c r="W197">
         <v>-1.91993856196726E-05</v>
       </c>
-      <c r="W197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:23">
+      <c r="X197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:24">
       <c r="A198" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B198">
         <v>69.44</v>
@@ -15353,21 +15947,24 @@
         <v>69.44133333333333</v>
       </c>
       <c r="T198">
+        <v>69.45333333333333</v>
+      </c>
+      <c r="U198">
         <v>-0.002499999999997726</v>
       </c>
-      <c r="U198">
+      <c r="V198">
         <v>3.84039325627139E-05</v>
       </c>
-      <c r="V198">
+      <c r="W198">
         <v>-5.759926272952409E-05</v>
       </c>
-      <c r="W198">
+      <c r="X198">
         <v>-0.0002879355024474339</v>
       </c>
     </row>
-    <row r="199" spans="1:23">
+    <row r="199" spans="1:24">
       <c r="A199" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B199">
         <v>69.45999999999999</v>
@@ -15424,21 +16021,24 @@
         <v>69.44</v>
       </c>
       <c r="T199">
+        <v>69.45333333333333</v>
+      </c>
+      <c r="U199">
         <v>0.00750000000000739</v>
       </c>
-      <c r="U199">
+      <c r="V199">
         <v>2.880184331810476E-05</v>
       </c>
-      <c r="V199">
+      <c r="W199">
         <v>-1.920086019857603E-05</v>
       </c>
-      <c r="W199">
+      <c r="X199">
         <v>0.0002880184331797153</v>
       </c>
     </row>
-    <row r="200" spans="1:23">
+    <row r="200" spans="1:24">
       <c r="A200" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B200">
         <v>69.44</v>
@@ -15495,21 +16095,24 @@
         <v>69.44</v>
       </c>
       <c r="T200">
+        <v>69.44666666666666</v>
+      </c>
+      <c r="U200">
         <v>0.009999999999990905</v>
       </c>
-      <c r="U200">
+      <c r="V200">
         <v>2.880101379543198E-05</v>
       </c>
-      <c r="V200">
-        <v>0</v>
-      </c>
       <c r="W200">
+        <v>0</v>
+      </c>
+      <c r="X200">
         <v>-0.0002879355024474339</v>
       </c>
     </row>
-    <row r="201" spans="1:23">
+    <row r="201" spans="1:24">
       <c r="A201" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B201">
         <v>69.44</v>
@@ -15566,21 +16169,24 @@
         <v>69.44</v>
       </c>
       <c r="T201">
+        <v>69.44666666666666</v>
+      </c>
+      <c r="U201">
         <v>0.01000000000000512</v>
       </c>
-      <c r="U201">
+      <c r="V201">
         <v>1.920012288092465E-05</v>
       </c>
-      <c r="V201">
-        <v>0</v>
-      </c>
       <c r="W201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:23">
+      <c r="X201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:24">
       <c r="A202" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B202">
         <v>69.44</v>
@@ -15637,21 +16243,24 @@
         <v>69.44</v>
       </c>
       <c r="T202">
+        <v>69.44</v>
+      </c>
+      <c r="U202">
         <v>0.009999999999990905</v>
       </c>
-      <c r="U202">
+      <c r="V202">
         <v>2.879963136459551E-05</v>
       </c>
-      <c r="V202">
-        <v>0</v>
-      </c>
       <c r="W202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:23">
+      <c r="X202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:24">
       <c r="A203" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B203">
         <v>69.45999999999999</v>
@@ -15708,21 +16317,24 @@
         <v>69.44266666666665</v>
       </c>
       <c r="T203">
+        <v>69.44666666666666</v>
+      </c>
+      <c r="U203">
         <v>0.008749999999992042</v>
       </c>
-      <c r="U203">
+      <c r="V203">
         <v>3.839840262642724E-05</v>
       </c>
-      <c r="V203">
+      <c r="W203">
         <v>3.840245775710294E-05</v>
       </c>
-      <c r="W203">
+      <c r="X203">
         <v>0.0002880184331797153</v>
       </c>
     </row>
-    <row r="204" spans="1:23">
+    <row r="204" spans="1:24">
       <c r="A204" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B204">
         <v>69.45999999999999</v>
@@ -15779,21 +16391,24 @@
         <v>69.44533333333332</v>
       </c>
       <c r="T204">
+        <v>69.45333333333333</v>
+      </c>
+      <c r="U204">
         <v>0.006249999999994316</v>
       </c>
-      <c r="U204">
+      <c r="V204">
         <v>2.879769618413519E-05</v>
       </c>
-      <c r="V204">
+      <c r="W204">
         <v>3.840098306517881E-05</v>
       </c>
-      <c r="W204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:23">
+      <c r="X204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:24">
       <c r="A205" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B205">
         <v>69.5</v>
@@ -15850,21 +16465,24 @@
         <v>69.44933333333331</v>
       </c>
       <c r="T205">
+        <v>69.47333333333333</v>
+      </c>
+      <c r="U205">
         <v>0.006250000000008527</v>
       </c>
-      <c r="U205">
+      <c r="V205">
         <v>4.79947781681922E-05</v>
       </c>
-      <c r="V205">
+      <c r="W205">
         <v>5.759926272941307E-05</v>
       </c>
-      <c r="W205">
+      <c r="X205">
         <v>0.0005758710048950899</v>
       </c>
     </row>
-    <row r="206" spans="1:23">
+    <row r="206" spans="1:24">
       <c r="A206" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B206">
         <v>69.56</v>
@@ -15921,21 +16539,24 @@
         <v>69.45999999999999</v>
       </c>
       <c r="T206">
+        <v>69.50666666666666</v>
+      </c>
+      <c r="U206">
         <v>0.01375000000000171</v>
       </c>
-      <c r="U206">
+      <c r="V206">
         <v>6.718946469219667E-05</v>
       </c>
-      <c r="V206">
+      <c r="W206">
         <v>0.0001535891873214457</v>
       </c>
-      <c r="W206">
+      <c r="X206">
         <v>0.0008633093525181046</v>
       </c>
     </row>
-    <row r="207" spans="1:23">
+    <row r="207" spans="1:24">
       <c r="A207" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B207">
         <v>69.54000000000001</v>
@@ -15992,21 +16613,24 @@
         <v>69.46666666666667</v>
       </c>
       <c r="T207">
+        <v>69.53333333333335</v>
+      </c>
+      <c r="U207">
         <v>0.01500000000000057</v>
       </c>
-      <c r="U207">
+      <c r="V207">
         <v>3.839140032613209E-05</v>
       </c>
-      <c r="V207">
+      <c r="W207">
         <v>9.597850081588533E-05</v>
       </c>
-      <c r="W207">
+      <c r="X207">
         <v>-0.0002875215641172657</v>
       </c>
     </row>
-    <row r="208" spans="1:23">
+    <row r="208" spans="1:24">
       <c r="A208" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B208">
         <v>69.52</v>
@@ -16063,21 +16687,24 @@
         <v>69.47199999999999</v>
       </c>
       <c r="T208">
+        <v>69.54000000000001</v>
+      </c>
+      <c r="U208">
         <v>0.02000000000001023</v>
       </c>
-      <c r="U208">
+      <c r="V208">
         <v>9.597481620993165E-06</v>
       </c>
-      <c r="V208">
+      <c r="W208">
         <v>7.677543186179747E-05</v>
       </c>
-      <c r="W208">
+      <c r="X208">
         <v>-0.0002876042565431725</v>
       </c>
     </row>
-    <row r="209" spans="1:23">
+    <row r="209" spans="1:24">
       <c r="A209" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B209">
         <v>69.52</v>
@@ -16134,21 +16761,24 @@
         <v>69.47733333333333</v>
       </c>
       <c r="T209">
+        <v>69.52666666666666</v>
+      </c>
+      <c r="U209">
         <v>0.02499999999999147</v>
       </c>
-      <c r="U209">
+      <c r="V209">
         <v>9.597389510007659E-06</v>
       </c>
-      <c r="V209">
+      <c r="W209">
         <v>7.676953784740981E-05</v>
       </c>
-      <c r="W209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:23">
+      <c r="X209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:24">
       <c r="A210" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B210">
         <v>69.56</v>
@@ -16205,21 +16835,24 @@
         <v>69.48399999999999</v>
       </c>
       <c r="T210">
+        <v>69.53333333333332</v>
+      </c>
+      <c r="U210">
         <v>0.03249999999999886</v>
       </c>
-      <c r="U210">
+      <c r="V210">
         <v>2.879189220306166E-05</v>
       </c>
-      <c r="V210">
+      <c r="W210">
         <v>9.595455592226187E-05</v>
       </c>
-      <c r="W210">
+      <c r="X210">
         <v>0.0005753739930955959</v>
       </c>
     </row>
-    <row r="211" spans="1:23">
+    <row r="211" spans="1:24">
       <c r="A211" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B211">
         <v>69.56</v>
@@ -16276,21 +16909,24 @@
         <v>69.49066666666666</v>
       </c>
       <c r="T211">
+        <v>69.54666666666667</v>
+      </c>
+      <c r="U211">
         <v>0.03875000000000739</v>
       </c>
-      <c r="U211">
+      <c r="V211">
         <v>3.838808433864749E-05</v>
       </c>
-      <c r="V211">
+      <c r="W211">
         <v>9.594534952883649E-05</v>
       </c>
-      <c r="W211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:23">
+      <c r="X211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:24">
       <c r="A212" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B212">
         <v>69.54000000000001</v>
@@ -16347,21 +16983,24 @@
         <v>69.49600000000001</v>
       </c>
       <c r="T212">
+        <v>69.55333333333334</v>
+      </c>
+      <c r="U212">
         <v>0.04375000000000284</v>
       </c>
-      <c r="U212">
+      <c r="V212">
         <v>2.878995806265827E-05</v>
       </c>
-      <c r="V212">
+      <c r="W212">
         <v>7.674891592190924E-05</v>
       </c>
-      <c r="W212">
+      <c r="X212">
         <v>-0.0002875215641172657</v>
       </c>
     </row>
-    <row r="213" spans="1:23">
+    <row r="213" spans="1:24">
       <c r="A213" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B213">
         <v>69.54000000000001</v>
@@ -16418,21 +17057,24 @@
         <v>69.50266666666667</v>
       </c>
       <c r="T213">
+        <v>69.54666666666668</v>
+      </c>
+      <c r="U213">
         <v>0.04375000000001705</v>
       </c>
-      <c r="U213">
+      <c r="V213">
         <v>1.919275281658805E-05</v>
       </c>
-      <c r="V213">
+      <c r="W213">
         <v>9.592878247177694E-05</v>
       </c>
-      <c r="W213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:23">
+      <c r="X213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:24">
       <c r="A214" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B214">
         <v>69.54000000000001</v>
@@ -16489,21 +17131,24 @@
         <v>69.50800000000001</v>
       </c>
       <c r="T214">
+        <v>69.54000000000001</v>
+      </c>
+      <c r="U214">
         <v>0.03499999999999659</v>
       </c>
-      <c r="U214">
+      <c r="V214">
         <v>2.878857669275092E-05</v>
       </c>
-      <c r="V214">
+      <c r="W214">
         <v>7.673566481880556E-05</v>
       </c>
-      <c r="W214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:23">
+      <c r="X214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:24">
       <c r="A215" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B215">
         <v>69.58</v>
@@ -16560,21 +17205,24 @@
         <v>69.51733333333333</v>
       </c>
       <c r="T215">
+        <v>69.55333333333334</v>
+      </c>
+      <c r="U215">
         <v>0.03249999999999886</v>
       </c>
-      <c r="U215">
+      <c r="V215">
         <v>6.717141184719999E-05</v>
       </c>
-      <c r="V215">
+      <c r="W215">
         <v>0.0001342771095891315</v>
       </c>
-      <c r="W215">
+      <c r="X215">
         <v>0.0005752085130859008</v>
       </c>
     </row>
-    <row r="216" spans="1:23">
+    <row r="216" spans="1:24">
       <c r="A216" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B216">
         <v>69.58</v>
@@ -16631,21 +17279,24 @@
         <v>69.52666666666667</v>
       </c>
       <c r="T216">
+        <v>69.56666666666666</v>
+      </c>
+      <c r="U216">
         <v>0.03125000000001421</v>
       </c>
-      <c r="U216">
+      <c r="V216">
         <v>6.716690015173832E-05</v>
       </c>
-      <c r="V216">
+      <c r="W216">
         <v>0.0001342590816679756</v>
       </c>
-      <c r="W216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:23">
+      <c r="X216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:24">
       <c r="A217" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B217">
         <v>69.58</v>
@@ -16702,21 +17353,24 @@
         <v>69.536</v>
       </c>
       <c r="T217">
+        <v>69.58</v>
+      </c>
+      <c r="U217">
         <v>0.03000000000000114</v>
       </c>
-      <c r="U217">
+      <c r="V217">
         <v>6.716238906201433E-05</v>
       </c>
-      <c r="V217">
+      <c r="W217">
         <v>0.0001342410585865039</v>
       </c>
-      <c r="W217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:23">
+      <c r="X217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:24">
       <c r="A218" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B218">
         <v>69.56</v>
@@ -16773,21 +17427,24 @@
         <v>69.54266666666668</v>
       </c>
       <c r="T218">
+        <v>69.57333333333334</v>
+      </c>
+      <c r="U218">
         <v>0.02249999999999375</v>
       </c>
-      <c r="U218">
+      <c r="V218">
         <v>6.715787857847211E-05</v>
       </c>
-      <c r="V218">
+      <c r="W218">
         <v>9.587360024565506E-05</v>
       </c>
-      <c r="W218">
+      <c r="X218">
         <v>-0.0002874389192295546</v>
       </c>
     </row>
-    <row r="219" spans="1:23">
+    <row r="219" spans="1:24">
       <c r="A219" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B219">
         <v>69.58</v>
@@ -16844,21 +17501,24 @@
         <v>69.55066666666667</v>
       </c>
       <c r="T219">
+        <v>69.57333333333334</v>
+      </c>
+      <c r="U219">
         <v>0.01749999999999829</v>
       </c>
-      <c r="U219">
+      <c r="V219">
         <v>7.674670708679443E-05</v>
       </c>
-      <c r="V219">
+      <c r="W219">
         <v>0.0001150372912552822</v>
       </c>
-      <c r="W219">
+      <c r="X219">
         <v>0.0002875215641171547</v>
       </c>
     </row>
-    <row r="220" spans="1:23">
+    <row r="220" spans="1:24">
       <c r="A220" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B220">
         <v>69.54000000000001</v>
@@ -16915,21 +17575,24 @@
         <v>69.55333333333333</v>
       </c>
       <c r="T220">
+        <v>69.56</v>
+      </c>
+      <c r="U220">
         <v>0.01250000000000284</v>
       </c>
-      <c r="U220">
+      <c r="V220">
         <v>4.796301092602206E-05</v>
       </c>
-      <c r="V220">
+      <c r="W220">
         <v>3.83413530662402E-05</v>
       </c>
-      <c r="W220">
+      <c r="X220">
         <v>-0.0005748778384592201</v>
       </c>
     </row>
-    <row r="221" spans="1:23">
+    <row r="221" spans="1:24">
       <c r="A221" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B221">
         <v>69.58</v>
@@ -16986,21 +17649,24 @@
         <v>69.55466666666668</v>
       </c>
       <c r="T221">
+        <v>69.56666666666666</v>
+      </c>
+      <c r="U221">
         <v>0.01249999999998863</v>
       </c>
-      <c r="U221">
+      <c r="V221">
         <v>8.632927905449783E-05</v>
       </c>
-      <c r="V221">
+      <c r="W221">
         <v>1.916994153194906E-05</v>
       </c>
-      <c r="W221">
+      <c r="X221">
         <v>0.0005752085130859008</v>
       </c>
     </row>
-    <row r="222" spans="1:23">
+    <row r="222" spans="1:24">
       <c r="A222" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B222">
         <v>69.58</v>
@@ -17057,21 +17723,24 @@
         <v>69.55733333333333</v>
       </c>
       <c r="T222">
+        <v>69.56666666666666</v>
+      </c>
+      <c r="U222">
         <v>0.01624999999999943</v>
       </c>
-      <c r="U222">
+      <c r="V222">
         <v>6.713919874168361E-05</v>
       </c>
-      <c r="V222">
+      <c r="W222">
         <v>3.833914810402739E-05</v>
       </c>
-      <c r="W222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:23">
+      <c r="X222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:24">
       <c r="A223" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B223">
         <v>69.58</v>
@@ -17128,21 +17797,24 @@
         <v>69.56133333333334</v>
       </c>
       <c r="T223">
+        <v>69.58</v>
+      </c>
+      <c r="U223">
         <v>0.01374999999998749</v>
       </c>
-      <c r="U223">
+      <c r="V223">
         <v>6.713469137231698E-05</v>
       </c>
-      <c r="V223">
+      <c r="W223">
         <v>5.750651740532575E-05</v>
       </c>
-      <c r="W223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:23">
+      <c r="X223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:24">
       <c r="A224" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B224">
         <v>69.58</v>
@@ -17199,21 +17871,24 @@
         <v>69.56533333333333</v>
       </c>
       <c r="T224">
+        <v>69.58</v>
+      </c>
+      <c r="U224">
         <v>0.009999999999990905</v>
       </c>
-      <c r="U224">
+      <c r="V224">
         <v>6.713018460802189E-05</v>
       </c>
-      <c r="V224">
+      <c r="W224">
         <v>5.750321059583285E-05</v>
       </c>
-      <c r="W224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:23">
+      <c r="X224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:24">
       <c r="A225" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B225">
         <v>69.56</v>
@@ -17270,21 +17945,24 @@
         <v>69.56533333333333</v>
       </c>
       <c r="T225">
+        <v>69.57333333333334</v>
+      </c>
+      <c r="U225">
         <v>0.005000000000009663</v>
       </c>
-      <c r="U225">
+      <c r="V225">
         <v>4.794691317777655E-05</v>
       </c>
-      <c r="V225">
-        <v>0</v>
-      </c>
       <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
         <v>-0.0002874389192295546</v>
       </c>
     </row>
-    <row r="226" spans="1:23">
+    <row r="226" spans="1:24">
       <c r="A226" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B226">
         <v>69.54000000000001</v>
@@ -17341,21 +18019,24 @@
         <v>69.56400000000001</v>
       </c>
       <c r="T226">
+        <v>69.56</v>
+      </c>
+      <c r="U226">
         <v>0.003749999999996589</v>
       </c>
-      <c r="U226">
+      <c r="V226">
         <v>3.835569150512086E-05</v>
       </c>
-      <c r="V226">
+      <c r="W226">
         <v>-1.91666347221231E-05</v>
       </c>
-      <c r="W226">
+      <c r="X226">
         <v>-0.0002875215641172657</v>
       </c>
     </row>
-    <row r="227" spans="1:23">
+    <row r="227" spans="1:24">
       <c r="A227" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B227">
         <v>69.54000000000001</v>
@@ -17412,21 +18093,24 @@
         <v>69.56400000000001</v>
       </c>
       <c r="T227">
-        <v>0</v>
+        <v>69.54666666666668</v>
       </c>
       <c r="U227">
+        <v>0</v>
+      </c>
+      <c r="V227">
         <v>3.835422040276981E-05</v>
       </c>
-      <c r="V227">
-        <v>0</v>
-      </c>
       <c r="W227">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:23">
+      <c r="X227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:24">
       <c r="A228" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B228">
         <v>69.56</v>
@@ -17483,21 +18167,24 @@
         <v>69.56533333333333</v>
       </c>
       <c r="T228">
+        <v>69.54666666666668</v>
+      </c>
+      <c r="U228">
         <v>0.001249999999998863</v>
       </c>
-      <c r="U228">
+      <c r="V228">
         <v>5.752912411916E-05</v>
       </c>
-      <c r="V228">
+      <c r="W228">
         <v>1.916700208903777E-05</v>
       </c>
-      <c r="W228">
+      <c r="X228">
         <v>0.0002876042565429504</v>
       </c>
     </row>
-    <row r="229" spans="1:23">
+    <row r="229" spans="1:24">
       <c r="A229" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B229">
         <v>69.56</v>
@@ -17554,21 +18241,24 @@
         <v>69.56666666666666</v>
       </c>
       <c r="T229">
+        <v>69.55333333333334</v>
+      </c>
+      <c r="U229">
         <v>-0.002500000000011937</v>
       </c>
-      <c r="U229">
+      <c r="V229">
         <v>4.793817892445595E-05</v>
       </c>
-      <c r="V229">
+      <c r="W229">
         <v>1.916663472223412E-05</v>
       </c>
-      <c r="W229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:23">
+      <c r="X229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:24">
       <c r="A230" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B230">
         <v>69.54000000000001</v>
@@ -17625,21 +18315,24 @@
         <v>69.56400000000001</v>
       </c>
       <c r="T230">
+        <v>69.55333333333333</v>
+      </c>
+      <c r="U230">
         <v>-0.007499999999993179</v>
       </c>
-      <c r="U230">
+      <c r="V230">
         <v>4.79358809655217E-05</v>
       </c>
-      <c r="V230">
+      <c r="W230">
         <v>-3.833253473872755E-05</v>
       </c>
-      <c r="W230">
+      <c r="X230">
         <v>-0.0002875215641172657</v>
       </c>
     </row>
-    <row r="231" spans="1:23">
+    <row r="231" spans="1:24">
       <c r="A231" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B231">
         <v>69.56</v>
@@ -17696,21 +18389,24 @@
         <v>69.56266666666667</v>
       </c>
       <c r="T231">
+        <v>69.55333333333334</v>
+      </c>
+      <c r="U231">
         <v>-0.008749999999992042</v>
       </c>
-      <c r="U231">
+      <c r="V231">
         <v>5.75202998724933E-05</v>
       </c>
-      <c r="V231">
+      <c r="W231">
         <v>-1.916700208925981E-05</v>
       </c>
-      <c r="W231">
+      <c r="X231">
         <v>0.0002876042565429504</v>
       </c>
     </row>
-    <row r="232" spans="1:23">
+    <row r="232" spans="1:24">
       <c r="A232" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B232">
         <v>69.54000000000001</v>
@@ -17767,21 +18463,24 @@
         <v>69.56</v>
       </c>
       <c r="T232">
+        <v>69.54666666666668</v>
+      </c>
+      <c r="U232">
         <v>-0.01124999999998977</v>
       </c>
-      <c r="U232">
+      <c r="V232">
         <v>4.793082623155698E-05</v>
       </c>
-      <c r="V232">
+      <c r="W232">
         <v>-3.83347389404376E-05</v>
       </c>
-      <c r="W232">
+      <c r="X232">
         <v>-0.0002875215641172657</v>
       </c>
     </row>
-    <row r="233" spans="1:23">
+    <row r="233" spans="1:24">
       <c r="A233" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B233">
         <v>69.56</v>
@@ -17838,21 +18537,24 @@
         <v>69.56</v>
       </c>
       <c r="T233">
+        <v>69.55333333333334</v>
+      </c>
+      <c r="U233">
         <v>-0.009999999999990905</v>
       </c>
-      <c r="U233">
+      <c r="V233">
         <v>4.792852897761435E-05</v>
       </c>
-      <c r="V233">
-        <v>0</v>
-      </c>
       <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
         <v>0.0002876042565429504</v>
       </c>
     </row>
-    <row r="234" spans="1:23">
+    <row r="234" spans="1:24">
       <c r="A234" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B234">
         <v>69.56</v>
@@ -17909,21 +18611,24 @@
         <v>69.55866666666667</v>
       </c>
       <c r="T234">
+        <v>69.55333333333334</v>
+      </c>
+      <c r="U234">
         <v>-0.007499999999993179</v>
       </c>
-      <c r="U234">
+      <c r="V234">
         <v>4.792623194371792E-05</v>
       </c>
-      <c r="V234">
+      <c r="W234">
         <v>-1.916810427449178E-05</v>
       </c>
-      <c r="W234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:23">
+      <c r="X234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:24">
       <c r="A235" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B235">
         <v>69.56</v>
@@ -17980,21 +18685,24 @@
         <v>69.56</v>
       </c>
       <c r="T235">
+        <v>69.56</v>
+      </c>
+      <c r="U235">
         <v>-0.003749999999996589</v>
       </c>
-      <c r="U235">
+      <c r="V235">
         <v>2.875436107818707E-05</v>
       </c>
-      <c r="V235">
+      <c r="W235">
         <v>1.916847169769476E-05</v>
       </c>
-      <c r="W235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:23">
+      <c r="X235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:24">
       <c r="A236" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B236">
         <v>69.54000000000001</v>
@@ -18051,21 +18759,24 @@
         <v>69.55733333333335</v>
       </c>
       <c r="T236">
+        <v>69.55333333333333</v>
+      </c>
+      <c r="U236">
         <v>-0.006249999999994316</v>
       </c>
-      <c r="U236">
+      <c r="V236">
         <v>-9.584511429405751E-06</v>
       </c>
-      <c r="V236">
+      <c r="W236">
         <v>-3.833620854887254E-05</v>
       </c>
-      <c r="W236">
+      <c r="X236">
         <v>-0.0002875215641172657</v>
       </c>
     </row>
-    <row r="237" spans="1:23">
+    <row r="237" spans="1:24">
       <c r="A237" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B237">
         <v>69.54000000000001</v>
@@ -18122,21 +18833,24 @@
         <v>69.55466666666666</v>
       </c>
       <c r="T237">
+        <v>69.54666666666668</v>
+      </c>
+      <c r="U237">
         <v>-0.006249999999994316</v>
       </c>
-      <c r="U237">
-        <v>0</v>
-      </c>
       <c r="V237">
+        <v>0</v>
+      </c>
+      <c r="W237">
         <v>-3.833767827043921E-05</v>
       </c>
-      <c r="W237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:23">
+      <c r="X237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:24">
       <c r="A238" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B238">
         <v>69.56</v>
@@ -18193,21 +18907,24 @@
         <v>69.55333333333334</v>
       </c>
       <c r="T238">
+        <v>69.54666666666668</v>
+      </c>
+      <c r="U238">
         <v>-0.002499999999997726</v>
       </c>
-      <c r="U238">
+      <c r="V238">
         <v>1.916920658651122E-05</v>
       </c>
-      <c r="V238">
+      <c r="W238">
         <v>-1.916957405190267E-05</v>
       </c>
-      <c r="W238">
+      <c r="X238">
         <v>0.0002876042565429504</v>
       </c>
     </row>
-    <row r="239" spans="1:23">
+    <row r="239" spans="1:24">
       <c r="A239" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B239">
         <v>69.56</v>
@@ -18264,21 +18981,24 @@
         <v>69.55199999999999</v>
       </c>
       <c r="T239">
+        <v>69.55333333333334</v>
+      </c>
+      <c r="U239">
         <v>-0.001250000000013074</v>
       </c>
-      <c r="U239">
+      <c r="V239">
         <v>1.916883913466449E-05</v>
       </c>
-      <c r="V239">
+      <c r="W239">
         <v>-1.916994153194906E-05</v>
       </c>
-      <c r="W239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:23">
+      <c r="X239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:24">
       <c r="A240" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B240">
         <v>69.56</v>
@@ -18335,21 +19055,24 @@
         <v>69.55199999999999</v>
       </c>
       <c r="T240">
+        <v>69.56</v>
+      </c>
+      <c r="U240">
         <v>0.002500000000011937</v>
       </c>
-      <c r="U240">
+      <c r="V240">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="V240">
-        <v>0</v>
-      </c>
       <c r="W240">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:23">
+      <c r="X240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:24">
       <c r="A241" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B241">
         <v>69.56</v>
@@ -18406,21 +19129,24 @@
         <v>69.55333333333333</v>
       </c>
       <c r="T241">
+        <v>69.56</v>
+      </c>
+      <c r="U241">
         <v>0.002500000000011937</v>
       </c>
-      <c r="U241">
-        <v>0</v>
-      </c>
       <c r="V241">
+        <v>0</v>
+      </c>
+      <c r="W241">
         <v>1.917030902531813E-05</v>
       </c>
-      <c r="W241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:23">
+      <c r="X241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:24">
       <c r="A242" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B242">
         <v>69.58</v>
@@ -18477,21 +19203,24 @@
         <v>69.55600000000001</v>
       </c>
       <c r="T242">
+        <v>69.56666666666666</v>
+      </c>
+      <c r="U242">
         <v>0.002499999999997726</v>
       </c>
-      <c r="U242">
+      <c r="V242">
         <v>1.916847169769476E-05</v>
       </c>
-      <c r="V242">
+      <c r="W242">
         <v>3.833988306367608E-05</v>
       </c>
-      <c r="W242">
+      <c r="X242">
         <v>0.0002875215641171547</v>
       </c>
     </row>
-    <row r="243" spans="1:23">
+    <row r="243" spans="1:24">
       <c r="A243" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B243">
         <v>69.62</v>
@@ -18548,21 +19277,24 @@
         <v>69.56</v>
       </c>
       <c r="T243">
+        <v>69.58666666666666</v>
+      </c>
+      <c r="U243">
         <v>0.004999999999995453</v>
       </c>
-      <c r="U243">
+      <c r="V243">
         <v>3.833620854898356E-05</v>
       </c>
-      <c r="V243">
+      <c r="W243">
         <v>5.750761975953367E-05</v>
       </c>
-      <c r="W243">
+      <c r="X243">
         <v>0.0005748778384593312</v>
       </c>
     </row>
-    <row r="244" spans="1:23">
+    <row r="244" spans="1:24">
       <c r="A244" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B244">
         <v>69.62</v>
@@ -18619,21 +19351,24 @@
         <v>69.56400000000001</v>
       </c>
       <c r="T244">
+        <v>69.60666666666667</v>
+      </c>
+      <c r="U244">
         <v>0.01124999999998977</v>
       </c>
-      <c r="U244">
+      <c r="V244">
         <v>3.833473894032657E-05</v>
       </c>
-      <c r="V244">
+      <c r="W244">
         <v>5.750431282347535E-05</v>
       </c>
-      <c r="W244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:23">
+      <c r="X244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:24">
       <c r="A245" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B245">
         <v>69.62</v>
@@ -18690,21 +19425,24 @@
         <v>69.56933333333333</v>
       </c>
       <c r="T245">
+        <v>69.62</v>
+      </c>
+      <c r="U245">
         <v>0.01750000000001251</v>
       </c>
-      <c r="U245">
+      <c r="V245">
         <v>1.916663472223412E-05</v>
       </c>
-      <c r="V245">
+      <c r="W245">
         <v>7.666800835659515E-05</v>
       </c>
-      <c r="W245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:23">
+      <c r="X245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:24">
       <c r="A246" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B246">
         <v>69.58</v>
@@ -18761,21 +19499,24 @@
         <v>69.57066666666668</v>
       </c>
       <c r="T246">
+        <v>69.60666666666667</v>
+      </c>
+      <c r="U246">
         <v>0.01749999999999829</v>
       </c>
-      <c r="U246">
-        <v>0</v>
-      </c>
       <c r="V246">
+        <v>0</v>
+      </c>
+      <c r="W246">
         <v>1.916553270620014E-05</v>
       </c>
-      <c r="W246">
+      <c r="X246">
         <v>-0.0005745475438093672</v>
       </c>
     </row>
-    <row r="247" spans="1:23">
+    <row r="247" spans="1:24">
       <c r="A247" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B247">
         <v>69.58</v>
@@ -18832,21 +19573,24 @@
         <v>69.57333333333332</v>
       </c>
       <c r="T247">
+        <v>69.59333333333333</v>
+      </c>
+      <c r="U247">
         <v>0.01874999999999716</v>
       </c>
-      <c r="U247">
-        <v>0</v>
-      </c>
       <c r="V247">
+        <v>0</v>
+      </c>
+      <c r="W247">
         <v>3.833033079048143E-05</v>
       </c>
-      <c r="W247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:23">
+      <c r="X247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:24">
       <c r="A248" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B248">
         <v>69.56</v>
@@ -18903,21 +19647,24 @@
         <v>69.57333333333334</v>
       </c>
       <c r="T248">
+        <v>69.57333333333334</v>
+      </c>
+      <c r="U248">
         <v>0.01749999999999829</v>
       </c>
-      <c r="U248">
-        <v>0</v>
-      </c>
       <c r="V248">
+        <v>0</v>
+      </c>
+      <c r="W248">
         <v>2.220446049250313E-16</v>
       </c>
-      <c r="W248">
+      <c r="X248">
         <v>-0.0002874389192295546</v>
       </c>
     </row>
-    <row r="249" spans="1:23">
+    <row r="249" spans="1:24">
       <c r="A249" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B249">
         <v>69.58</v>
@@ -18974,21 +19721,24 @@
         <v>69.57466666666666</v>
       </c>
       <c r="T249">
+        <v>69.57333333333332</v>
+      </c>
+      <c r="U249">
         <v>0.01875000000001137</v>
       </c>
-      <c r="U249">
-        <v>0</v>
-      </c>
       <c r="V249">
+        <v>0</v>
+      </c>
+      <c r="W249">
         <v>1.916443081628749E-05</v>
       </c>
-      <c r="W249">
+      <c r="X249">
         <v>0.0002875215641171547</v>
       </c>
     </row>
-    <row r="250" spans="1:23">
+    <row r="250" spans="1:24">
       <c r="A250" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B250">
         <v>69.54000000000001</v>
@@ -19045,21 +19795,24 @@
         <v>69.57333333333334</v>
       </c>
       <c r="T250">
+        <v>69.56</v>
+      </c>
+      <c r="U250">
         <v>0.01500000000000057</v>
       </c>
-      <c r="U250">
-        <v>0</v>
-      </c>
       <c r="V250">
+        <v>0</v>
+      </c>
+      <c r="W250">
         <v>-1.916406354784961E-05</v>
       </c>
-      <c r="W250">
+      <c r="X250">
         <v>-0.0005748778384592201</v>
       </c>
     </row>
-    <row r="251" spans="1:23">
+    <row r="251" spans="1:24">
       <c r="A251" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B251">
         <v>69.54000000000001</v>
@@ -19116,21 +19869,24 @@
         <v>69.57333333333334</v>
       </c>
       <c r="T251">
+        <v>69.55333333333334</v>
+      </c>
+      <c r="U251">
         <v>0.006249999999994316</v>
       </c>
-      <c r="U251">
+      <c r="V251">
         <v>-1.916626736941929E-05</v>
       </c>
-      <c r="V251">
-        <v>0</v>
-      </c>
       <c r="W251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:23">
+      <c r="X251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:24">
       <c r="A252" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B252">
         <v>69.56</v>
@@ -19187,21 +19943,24 @@
         <v>69.57466666666667</v>
       </c>
       <c r="T252">
+        <v>69.54666666666668</v>
+      </c>
+      <c r="U252">
         <v>-0.002499999999997726</v>
       </c>
-      <c r="U252">
+      <c r="V252">
         <v>-9.583317361006038E-06</v>
       </c>
-      <c r="V252">
+      <c r="W252">
         <v>1.916443081650954E-05</v>
       </c>
-      <c r="W252">
+      <c r="X252">
         <v>0.0002876042565429504</v>
       </c>
     </row>
-    <row r="253" spans="1:23">
+    <row r="253" spans="1:24">
       <c r="A253" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B253">
         <v>69.52</v>
@@ -19258,21 +20017,24 @@
         <v>69.57200000000002</v>
       </c>
       <c r="T253">
+        <v>69.54000000000001</v>
+      </c>
+      <c r="U253">
         <v>-0.01375000000000171</v>
       </c>
-      <c r="U253">
+      <c r="V253">
         <v>-2.875022760595591E-05</v>
       </c>
-      <c r="V253">
+      <c r="W253">
         <v>-3.832812709592126E-05</v>
       </c>
-      <c r="W253">
+      <c r="X253">
         <v>-0.0005750431282347535</v>
       </c>
     </row>
-    <row r="254" spans="1:23">
+    <row r="254" spans="1:24">
       <c r="A254" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B254">
         <v>69.45999999999999</v>
@@ -19329,21 +20091,24 @@
         <v>69.56533333333333</v>
       </c>
       <c r="T254">
+        <v>69.51333333333332</v>
+      </c>
+      <c r="U254">
         <v>-0.02249999999999375</v>
       </c>
-      <c r="U254">
+      <c r="V254">
         <v>-5.750210841093395E-05</v>
       </c>
-      <c r="V254">
+      <c r="W254">
         <v>-9.582399049457013E-05</v>
       </c>
-      <c r="W254">
+      <c r="X254">
         <v>-0.0008630609896432828</v>
       </c>
     </row>
-    <row r="255" spans="1:23">
+    <row r="255" spans="1:24">
       <c r="A255" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B255">
         <v>69.54000000000001</v>
@@ -19400,21 +20165,24 @@
         <v>69.56400000000001</v>
       </c>
       <c r="T255">
+        <v>69.50666666666666</v>
+      </c>
+      <c r="U255">
         <v>-0.02625000000000455</v>
       </c>
-      <c r="U255">
+      <c r="V255">
         <v>-9.584235848625333E-06</v>
       </c>
-      <c r="V255">
+      <c r="W255">
         <v>-1.91666347221231E-05</v>
       </c>
-      <c r="W255">
+      <c r="X255">
         <v>0.001151742009789958</v>
       </c>
     </row>
-    <row r="256" spans="1:23">
+    <row r="256" spans="1:24">
       <c r="A256" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B256">
         <v>69.54000000000001</v>
@@ -19471,21 +20239,24 @@
         <v>69.56266666666667</v>
       </c>
       <c r="T256">
+        <v>69.51333333333334</v>
+      </c>
+      <c r="U256">
         <v>-0.0274999999999892</v>
       </c>
-      <c r="U256">
-        <v>0</v>
-      </c>
       <c r="V256">
+        <v>0</v>
+      </c>
+      <c r="W256">
         <v>-1.916700208925981E-05</v>
       </c>
-      <c r="W256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:23">
+      <c r="X256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:24">
       <c r="A257" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B257">
         <v>69.58</v>
@@ -19542,21 +20313,24 @@
         <v>69.56266666666667</v>
       </c>
       <c r="T257">
+        <v>69.55333333333334</v>
+      </c>
+      <c r="U257">
         <v>-0.02875000000001648</v>
       </c>
-      <c r="U257">
+      <c r="V257">
         <v>1.916865541473634E-05</v>
       </c>
-      <c r="V257">
-        <v>0</v>
-      </c>
       <c r="W257">
+        <v>0</v>
+      </c>
+      <c r="X257">
         <v>0.0005752085130859008</v>
       </c>
     </row>
-    <row r="258" spans="1:23">
+    <row r="258" spans="1:24">
       <c r="A258" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B258">
         <v>69.58</v>
@@ -19613,21 +20387,24 @@
         <v>69.55999999999999</v>
       </c>
       <c r="T258">
+        <v>69.56666666666666</v>
+      </c>
+      <c r="U258">
         <v>-0.02374999999999261</v>
       </c>
-      <c r="U258">
+      <c r="V258">
         <v>9.584143991991922E-06</v>
       </c>
-      <c r="V258">
+      <c r="W258">
         <v>-3.833473894065964E-05</v>
       </c>
-      <c r="W258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:23">
+      <c r="X258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:24">
       <c r="A259" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B259">
         <v>69.59999999999999</v>
@@ -19684,21 +20461,24 @@
         <v>69.55866666666667</v>
       </c>
       <c r="T259">
+        <v>69.58666666666666</v>
+      </c>
+      <c r="U259">
         <v>-0.01500000000000057</v>
       </c>
-      <c r="U259">
+      <c r="V259">
         <v>1.916810427449178E-05</v>
       </c>
-      <c r="V259">
+      <c r="W259">
         <v>-1.916810427426974E-05</v>
       </c>
-      <c r="W259">
+      <c r="X259">
         <v>0.0002874389192295546</v>
       </c>
     </row>
-    <row r="260" spans="1:23">
+    <row r="260" spans="1:24">
       <c r="A260" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B260">
         <v>69.59999999999999</v>
@@ -19755,21 +20535,24 @@
         <v>69.55733333333333</v>
       </c>
       <c r="T260">
+        <v>69.59333333333332</v>
+      </c>
+      <c r="U260">
         <v>-0.008750000000006253</v>
       </c>
-      <c r="U260">
+      <c r="V260">
         <v>2.875160529791643E-05</v>
       </c>
-      <c r="V260">
+      <c r="W260">
         <v>-1.916847169780578E-05</v>
       </c>
-      <c r="W260">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:23">
+      <c r="X260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:24">
       <c r="A261" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B261">
         <v>69.59999999999999</v>
@@ -19826,21 +20609,24 @@
         <v>69.55866666666667</v>
       </c>
       <c r="T261">
+        <v>69.60000000000001</v>
+      </c>
+      <c r="U261">
         <v>0.002499999999997726</v>
       </c>
-      <c r="U261">
+      <c r="V261">
         <v>1.916718577787968E-05</v>
       </c>
-      <c r="V261">
+      <c r="W261">
         <v>1.916883913510858E-05</v>
       </c>
-      <c r="W261">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:23">
+      <c r="X261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:24">
       <c r="A262" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B262">
         <v>69.59999999999999</v>
@@ -19897,21 +20683,24 @@
         <v>69.55999999999999</v>
       </c>
       <c r="T262">
+        <v>69.59999999999998</v>
+      </c>
+      <c r="U262">
         <v>0.01875000000001137</v>
       </c>
-      <c r="U262">
+      <c r="V262">
         <v>2.875022760595591E-05</v>
       </c>
-      <c r="V262">
+      <c r="W262">
         <v>1.916847169747271E-05</v>
       </c>
-      <c r="W262">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:23">
+      <c r="X262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:24">
       <c r="A263" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B263">
         <v>69.58</v>
@@ -19968,21 +20757,24 @@
         <v>69.56133333333334</v>
       </c>
       <c r="T263">
+        <v>69.59333333333333</v>
+      </c>
+      <c r="U263">
         <v>0.02375000000000682</v>
       </c>
-      <c r="U263">
+      <c r="V263">
         <v>9.583133684820666E-06</v>
       </c>
-      <c r="V263">
+      <c r="W263">
         <v>1.916810427471383E-05</v>
       </c>
-      <c r="W263">
+      <c r="X263">
         <v>-0.0002873563218390718</v>
       </c>
     </row>
-    <row r="264" spans="1:23">
+    <row r="264" spans="1:24">
       <c r="A264" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B264">
         <v>69.56</v>
@@ -20039,21 +20831,24 @@
         <v>69.56</v>
       </c>
       <c r="T264">
+        <v>69.58</v>
+      </c>
+      <c r="U264">
         <v>0.02625000000000455</v>
       </c>
-      <c r="U264">
-        <v>0</v>
-      </c>
       <c r="V264">
+        <v>0</v>
+      </c>
+      <c r="W264">
         <v>-1.916773686527762E-05</v>
       </c>
-      <c r="W264">
+      <c r="X264">
         <v>-0.0002874389192295546</v>
       </c>
     </row>
-    <row r="265" spans="1:23">
+    <row r="265" spans="1:24">
       <c r="A265" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B265">
         <v>69.59999999999999</v>
@@ -20110,21 +20905,24 @@
         <v>69.56400000000001</v>
       </c>
       <c r="T265">
+        <v>69.58</v>
+      </c>
+      <c r="U265">
         <v>0.0274999999999892</v>
       </c>
-      <c r="U265">
+      <c r="V265">
         <v>1.91660836981189E-05</v>
       </c>
-      <c r="V265">
+      <c r="W265">
         <v>5.750431282347535E-05</v>
       </c>
-      <c r="W265">
+      <c r="X265">
         <v>0.0005750431282345314</v>
       </c>
     </row>
-    <row r="266" spans="1:23">
+    <row r="266" spans="1:24">
       <c r="A266" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B266">
         <v>69.54000000000001</v>
@@ -20181,21 +20979,24 @@
         <v>69.56400000000001</v>
       </c>
       <c r="T266">
+        <v>69.56666666666666</v>
+      </c>
+      <c r="U266">
         <v>0.02249999999999375</v>
       </c>
-      <c r="U266">
-        <v>0</v>
-      </c>
       <c r="V266">
         <v>0</v>
       </c>
       <c r="W266">
+        <v>0</v>
+      </c>
+      <c r="X266">
         <v>-0.0008620689655171043</v>
       </c>
     </row>
-    <row r="267" spans="1:23">
+    <row r="267" spans="1:24">
       <c r="A267" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B267">
         <v>69.58</v>
@@ -20252,21 +21053,24 @@
         <v>69.56533333333333</v>
       </c>
       <c r="T267">
+        <v>69.57333333333334</v>
+      </c>
+      <c r="U267">
         <v>0.01749999999999829</v>
       </c>
-      <c r="U267">
+      <c r="V267">
         <v>1.916571636662034E-05</v>
       </c>
-      <c r="V267">
+      <c r="W267">
         <v>1.916700208903777E-05</v>
       </c>
-      <c r="W267">
+      <c r="X267">
         <v>0.0005752085130859008</v>
       </c>
     </row>
-    <row r="268" spans="1:23">
+    <row r="268" spans="1:24">
       <c r="A268" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B268">
         <v>69.59999999999999</v>
@@ -20323,21 +21127,24 @@
         <v>69.57066666666667</v>
       </c>
       <c r="T268">
+        <v>69.57333333333334</v>
+      </c>
+      <c r="U268">
         <v>0.01500000000000057</v>
       </c>
-      <c r="U268">
+      <c r="V268">
         <v>1.916534904888856E-05</v>
       </c>
-      <c r="V268">
+      <c r="W268">
         <v>7.666653888915853E-05</v>
       </c>
-      <c r="W268">
+      <c r="X268">
         <v>0.0002874389192295546</v>
       </c>
     </row>
-    <row r="269" spans="1:23">
+    <row r="269" spans="1:24">
       <c r="A269" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B269">
         <v>69.59999999999999</v>
@@ -20394,21 +21201,24 @@
         <v>69.58</v>
       </c>
       <c r="T269">
+        <v>69.59333333333333</v>
+      </c>
+      <c r="U269">
         <v>0.009999999999990905</v>
       </c>
-      <c r="U269">
+      <c r="V269">
         <v>1.916498174536763E-05</v>
       </c>
-      <c r="V269">
+      <c r="W269">
         <v>0.0001341561577676842</v>
       </c>
-      <c r="W269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:23">
+      <c r="X269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:24">
       <c r="A270" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B270">
         <v>69.62</v>
@@ -20465,21 +21275,24 @@
         <v>69.58533333333334</v>
       </c>
       <c r="T270">
+        <v>69.60666666666667</v>
+      </c>
+      <c r="U270">
         <v>0.002499999999997726</v>
       </c>
-      <c r="U270">
+      <c r="V270">
         <v>2.87469216839753E-05</v>
       </c>
-      <c r="V270">
+      <c r="W270">
         <v>7.665037846127376E-05</v>
       </c>
-      <c r="W270">
+      <c r="X270">
         <v>0.0002873563218392938</v>
       </c>
     </row>
-    <row r="271" spans="1:23">
+    <row r="271" spans="1:24">
       <c r="A271" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B271">
         <v>69.64</v>
@@ -20536,21 +21349,24 @@
         <v>69.592</v>
       </c>
       <c r="T271">
+        <v>69.62</v>
+      </c>
+      <c r="U271">
         <v>0.003749999999996589</v>
       </c>
-      <c r="U271">
+      <c r="V271">
         <v>3.832812709614331E-05</v>
       </c>
-      <c r="V271">
+      <c r="W271">
         <v>9.580562953881433E-05</v>
       </c>
-      <c r="W271">
+      <c r="X271">
         <v>0.0002872737719046281</v>
       </c>
     </row>
-    <row r="272" spans="1:23">
+    <row r="272" spans="1:24">
       <c r="A272" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B272">
         <v>69.66</v>
@@ -20607,21 +21423,24 @@
         <v>69.59733333333334</v>
       </c>
       <c r="T272">
+        <v>69.64</v>
+      </c>
+      <c r="U272">
         <v>0.008750000000006253</v>
       </c>
-      <c r="U272">
+      <c r="V272">
         <v>3.832665810699076E-05</v>
       </c>
-      <c r="V272">
+      <c r="W272">
         <v>7.663716135963838E-05</v>
       </c>
-      <c r="W272">
+      <c r="X272">
         <v>0.0002871912693853673</v>
       </c>
     </row>
-    <row r="273" spans="1:23">
+    <row r="273" spans="1:24">
       <c r="A273" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B273">
         <v>69.66</v>
@@ -20678,21 +21497,24 @@
         <v>69.60266666666666</v>
       </c>
       <c r="T273">
+        <v>69.65333333333332</v>
+      </c>
+      <c r="U273">
         <v>0.01125000000000398</v>
       </c>
-      <c r="U273">
+      <c r="V273">
         <v>1.916259461531844E-05</v>
       </c>
-      <c r="V273">
+      <c r="W273">
         <v>7.663128855495138E-05</v>
       </c>
-      <c r="W273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:23">
+      <c r="X273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:24">
       <c r="A274" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B274">
         <v>69.66</v>
@@ -20749,21 +21571,24 @@
         <v>69.60666666666665</v>
       </c>
       <c r="T274">
+        <v>69.66000000000001</v>
+      </c>
+      <c r="U274">
         <v>0.02124999999999488</v>
       </c>
-      <c r="U274">
+      <c r="V274">
         <v>1.91622274172687E-05</v>
       </c>
-      <c r="V274">
+      <c r="W274">
         <v>5.746906248793593E-05</v>
       </c>
-      <c r="W274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:23">
+      <c r="X274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:24">
       <c r="A275" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B275">
         <v>69.66</v>
@@ -20820,21 +21645,24 @@
         <v>69.61066666666667</v>
       </c>
       <c r="T275">
+        <v>69.65999999999998</v>
+      </c>
+      <c r="U275">
         <v>0.0274999999999892</v>
       </c>
-      <c r="U275">
+      <c r="V275">
         <v>1.916186023342981E-05</v>
       </c>
-      <c r="V275">
+      <c r="W275">
         <v>5.746575998499814E-05</v>
       </c>
-      <c r="W275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:23">
+      <c r="X275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:24">
       <c r="A276" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B276">
         <v>69.64</v>
@@ -20891,21 +21719,24 @@
         <v>69.61333333333333</v>
       </c>
       <c r="T276">
+        <v>69.65333333333334</v>
+      </c>
+      <c r="U276">
         <v>0.03000000000000114</v>
       </c>
-      <c r="U276">
+      <c r="V276">
         <v>2.874223959525857E-05</v>
       </c>
-      <c r="V276">
+      <c r="W276">
         <v>3.830830524043094E-05</v>
       </c>
-      <c r="W276">
+      <c r="X276">
         <v>-0.0002871088142405442</v>
       </c>
     </row>
-    <row r="277" spans="1:23">
+    <row r="277" spans="1:24">
       <c r="A277" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B277">
         <v>69.66</v>
@@ -20962,21 +21793,24 @@
         <v>69.61733333333333</v>
       </c>
       <c r="T277">
+        <v>69.65333333333334</v>
+      </c>
+      <c r="U277">
         <v>0.03374999999999773</v>
       </c>
-      <c r="U277">
+      <c r="V277">
         <v>3.832188467023379E-05</v>
       </c>
-      <c r="V277">
+      <c r="W277">
         <v>5.74602566558724E-05</v>
       </c>
-      <c r="W277">
+      <c r="X277">
         <v>0.0002871912693853673</v>
       </c>
     </row>
-    <row r="278" spans="1:23">
+    <row r="278" spans="1:24">
       <c r="A278" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B278">
         <v>69.66</v>
@@ -21033,21 +21867,24 @@
         <v>69.62266666666667</v>
       </c>
       <c r="T278">
+        <v>69.65333333333334</v>
+      </c>
+      <c r="U278">
         <v>0.03499999999999659</v>
       </c>
-      <c r="U278">
+      <c r="V278">
         <v>4.790052019987279E-05</v>
       </c>
-      <c r="V278">
+      <c r="W278">
         <v>7.660927355268576E-05</v>
       </c>
-      <c r="W278">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:23">
+      <c r="X278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:24">
       <c r="A279" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B279">
         <v>69.64</v>
@@ -21104,21 +21941,24 @@
         <v>69.628</v>
       </c>
       <c r="T279">
+        <v>69.65333333333332</v>
+      </c>
+      <c r="U279">
         <v>0.03125</v>
       </c>
-      <c r="U279">
+      <c r="V279">
         <v>2.873893550980888E-05</v>
       </c>
-      <c r="V279">
+      <c r="W279">
         <v>7.660340502124718E-05</v>
       </c>
-      <c r="W279">
+      <c r="X279">
         <v>-0.0002871088142405442</v>
       </c>
     </row>
-    <row r="280" spans="1:23">
+    <row r="280" spans="1:24">
       <c r="A280" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B280">
         <v>69.66</v>
@@ -21175,21 +22015,24 @@
         <v>69.63200000000001</v>
       </c>
       <c r="T280">
+        <v>69.65333333333332</v>
+      </c>
+      <c r="U280">
         <v>0.02500000000000568</v>
       </c>
-      <c r="U280">
+      <c r="V280">
         <v>5.747621921425861E-05</v>
       </c>
-      <c r="V280">
+      <c r="W280">
         <v>5.744815304198347E-05</v>
       </c>
-      <c r="W280">
+      <c r="X280">
         <v>0.0002871912693853673</v>
       </c>
     </row>
-    <row r="281" spans="1:23">
+    <row r="281" spans="1:24">
       <c r="A281" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B281">
         <v>69.66</v>
@@ -21246,21 +22089,24 @@
         <v>69.64</v>
       </c>
       <c r="T281">
+        <v>69.65333333333332</v>
+      </c>
+      <c r="U281">
         <v>0.02124999999999488</v>
       </c>
-      <c r="U281">
+      <c r="V281">
         <v>5.747291588842351E-05</v>
       </c>
-      <c r="V281">
+      <c r="W281">
         <v>0.0001148897058822484</v>
       </c>
-      <c r="W281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:23">
+      <c r="X281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:24">
       <c r="A282" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B282">
         <v>69.66</v>
@@ -21317,21 +22163,24 @@
         <v>69.64533333333333</v>
       </c>
       <c r="T282">
+        <v>69.66000000000001</v>
+      </c>
+      <c r="U282">
         <v>0.01375000000001592</v>
       </c>
-      <c r="U282">
+      <c r="V282">
         <v>4.789134411842255E-05</v>
       </c>
-      <c r="V282">
+      <c r="W282">
         <v>7.6584338502661E-05</v>
       </c>
-      <c r="W282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:23">
+      <c r="X282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:24">
       <c r="A283" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B283">
         <v>69.64</v>
@@ -21388,21 +22237,24 @@
         <v>69.648</v>
       </c>
       <c r="T283">
+        <v>69.65333333333332</v>
+      </c>
+      <c r="U283">
         <v>0.00750000000000739</v>
       </c>
-      <c r="U283">
+      <c r="V283">
         <v>5.746686077690022E-05</v>
       </c>
-      <c r="V283">
+      <c r="W283">
         <v>3.828923689552788E-05</v>
       </c>
-      <c r="W283">
+      <c r="X283">
         <v>-0.0002871088142405442</v>
       </c>
     </row>
-    <row r="284" spans="1:23">
+    <row r="284" spans="1:24">
       <c r="A284" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B284">
         <v>69.66</v>
@@ -21459,21 +22311,24 @@
         <v>69.652</v>
       </c>
       <c r="T284">
+        <v>69.65333333333334</v>
+      </c>
+      <c r="U284">
         <v>0.006249999999994316</v>
       </c>
-      <c r="U284">
+      <c r="V284">
         <v>9.577259754456335E-05</v>
       </c>
-      <c r="V284">
+      <c r="W284">
         <v>5.743165632909886E-05</v>
       </c>
-      <c r="W284">
+      <c r="X284">
         <v>0.0002871912693853673</v>
       </c>
     </row>
-    <row r="285" spans="1:23">
+    <row r="285" spans="1:24">
       <c r="A285" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B285">
         <v>69.66</v>
@@ -21530,21 +22385,24 @@
         <v>69.65466666666666</v>
       </c>
       <c r="T285">
+        <v>69.65333333333334</v>
+      </c>
+      <c r="U285">
         <v>0.002500000000011937</v>
       </c>
-      <c r="U285">
+      <c r="V285">
         <v>5.745805561918615E-05</v>
       </c>
-      <c r="V285">
+      <c r="W285">
         <v>3.828557208196415E-05</v>
       </c>
-      <c r="W285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:23">
+      <c r="X285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:24">
       <c r="A286" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B286">
         <v>69.64</v>
@@ -21601,21 +22459,24 @@
         <v>69.65466666666666</v>
       </c>
       <c r="T286">
+        <v>69.65333333333332</v>
+      </c>
+      <c r="U286">
         <v>-0.001249999999998863</v>
       </c>
-      <c r="U286">
+      <c r="V286">
         <v>4.787896198399366E-05</v>
       </c>
-      <c r="V286">
-        <v>0</v>
-      </c>
       <c r="W286">
+        <v>0</v>
+      </c>
+      <c r="X286">
         <v>-0.0002871088142405442</v>
       </c>
     </row>
-    <row r="287" spans="1:23">
+    <row r="287" spans="1:24">
       <c r="A287" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B287">
         <v>69.59999999999999</v>
@@ -21672,21 +22533,24 @@
         <v>69.65066666666667</v>
       </c>
       <c r="T287">
+        <v>69.63333333333333</v>
+      </c>
+      <c r="U287">
         <v>-0.003749999999996589</v>
       </c>
-      <c r="U287">
+      <c r="V287">
         <v>9.575333939970676E-06</v>
       </c>
-      <c r="V287">
+      <c r="W287">
         <v>-5.742615952974983E-05</v>
       </c>
-      <c r="W287">
+      <c r="X287">
         <v>-0.0005743825387709567</v>
       </c>
     </row>
-    <row r="288" spans="1:23">
+    <row r="288" spans="1:24">
       <c r="A288" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B288">
         <v>69.54000000000001</v>
@@ -21743,15 +22607,18 @@
         <v>69.64266666666666</v>
       </c>
       <c r="T288">
+        <v>69.59333333333333</v>
+      </c>
+      <c r="U288">
         <v>-0.01125000000000398</v>
       </c>
-      <c r="U288">
+      <c r="V288">
         <v>-1.915048450729095E-05</v>
       </c>
-      <c r="V288">
+      <c r="W288">
         <v>-0.0001148589149662094</v>
       </c>
-      <c r="W288">
+      <c r="X288">
         <v>-0.0008620689655171043</v>
       </c>
     </row>
